--- a/contacts/session_params.xlsx
+++ b/contacts/session_params.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rabia\Documents\GitHub\KenyaCoV\contacts\results_plots_sessions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rabia\Documents\GitHub\KenyaCoV\contacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="85">
   <si>
     <t>tau p</t>
   </si>
@@ -305,6 +305,1644 @@
   </si>
   <si>
     <t>session30</t>
+  </si>
+  <si>
+    <t>simulation with proba tau=0.05           Tracing stopped at 79.5
+  2.003421 seconds (42.59 M allocations: 1.112 GiB, 5.31% gc time)
+simulation with proba tau=0.05           Tracing stopped at 98.5
+  2.042221 seconds (40.18 M allocations: 1.022 GiB, 5.38% gc time)
+simulation with proba tau=0.05           Tracing stopped at 115.0
+  2.041601 seconds (37.02 M allocations: 930.153 MiB, 4.27% gc time)
+simulation with proba tau=0.05           Tracing stopped at 94.5
+  2.052149 seconds (40.36 M allocations: 1.030 GiB, 5.26% gc time)
+simulation with proba tau=0.05           Tracing stopped at 119.5
+  2.079595 seconds (40.71 M allocations: 1.032 GiB, 3.90% gc time)
+simulation with proba tau=0.05           Tracing stopped at 87.0
+  2.098371 seconds (45.51 M allocations: 1.207 GiB, 5.17% gc time)
+simulation with proba tau=0.05           Tracing stopped at 64.5
+  2.040598 seconds (45.67 M allocations: 1.221 GiB, 4.95% gc time)
+simulation with proba tau=0.05           Tracing stopped at 82.0
+  2.105577 seconds (42.33 M allocations: 1.101 GiB, 5.38% gc time)
+simulation with proba tau=0.05           Tracing stopped at 57.5
+  2.135255 seconds (51.33 M allocations: 1.416 GiB, 6.49% gc time)
+simulation with proba tau=0.05           Tracing stopped at 82.0
+  1.967834 seconds (38.15 M allocations: 983.447 MiB, 4.34% gc time)
+simulation with proba tau=0.05           Tracing stopped at 93.5
+  2.072260 seconds (38.90 M allocations: 1002.318 MiB, 4.43% gc time)
+simulation with proba tau=0.05           Tracing stopped at 122.5
+  2.179359 seconds (38.07 M allocations: 961.327 MiB, 4.31% gc time)
+simulation with proba tau=0.05           Tracing stopped at 119.0
+  2.137033 seconds (40.99 M allocations: 1.040 GiB, 4.49% gc time)
+simulation with proba tau=0.05           Tracing stopped at 60.0
+  2.110369 seconds (49.93 M allocations: 1.369 GiB, 6.10% gc time)
+simulation with proba tau=0.05           Tracing stopped at 102.5
+  2.044016 seconds (39.46 M allocations: 1020.337 MiB, 4.87% gc time)
+simulation with proba tau=0.05           Tracing stopped at 115.5
+  2.107709 seconds (38.93 M allocations: 994.192 MiB, 3.67% gc time)
+simulation with proba tau=0.05           Tracing stopped at 93.0
+  2.132829 seconds (42.81 M allocations: 1.113 GiB, 4.91% gc time)
+simulation with proba tau=0.05           Tracing stopped at 110.0
+  2.170460 seconds (41.25 M allocations: 1.053 GiB, 3.88% gc time)
+simulation with proba tau=0.05           Tracing stopped at 132.5
+  2.472449 seconds (38.84 M allocations: 983.657 MiB, 14.74% gc time)
+simulation with proba tau=0.05           Tracing stopped at 92.5
+  2.018031 seconds (39.43 M allocations: 1022.970 MiB, 3.58% gc time)
+simulation with proba tau=0.05           Tracing stopped at 103.0
+  2.107921 seconds (37.89 M allocations: 963.712 MiB, 4.74% gc time)
+simulation with proba tau=0.05           Tracing stopped at 107.5
+  2.104865 seconds (40.16 M allocations: 1.017 GiB, 3.60% gc time)
+simulation with proba tau=0.05           Tracing stopped at 69.0
+  2.141739 seconds (48.46 M allocations: 1.314 GiB, 6.45% gc time)
+simulation with proba tau=0.05           Tracing stopped at 97.5
+  2.113005 seconds (40.80 M allocations: 1.042 GiB, 4.99% gc time)
+simulation with proba tau=0.05           Tracing stopped at 75.5
+  2.110235 seconds (48.33 M allocations: 1.307 GiB, 5.15% gc time)
+simulation with proba tau=0.05           Tracing stopped at 104.5
+  2.129717 seconds (40.99 M allocations: 1.047 GiB, 5.13% gc time)
+simulation with proba tau=0.05           Tracing stopped at 109.0
+  2.139967 seconds (39.23 M allocations: 1007.475 MiB, 5.36% gc time)
+simulation with proba tau=0.05           Tracing stopped at 75.0
+  2.052757 seconds (44.39 M allocations: 1.174 GiB, 4.21% gc time)
+simulation with proba tau=0.05           Tracing stopped at 70.5
+  2.071532 seconds (45.24 M allocations: 1.205 GiB, 5.75% gc time)
+simulation with proba tau=0.05           Tracing stopped at 96.0
+  2.079988 seconds (38.77 M allocations: 997.397 MiB, 6.00% gc time)
+simulation with proba tau=0.05           Tracing stopped at 82.5
+  2.081892 seconds (43.47 M allocations: 1.140 GiB, 5.87% gc time)
+simulation with proba tau=0.05           Tracing stopped at 111.5
+  2.119538 seconds (39.56 M allocations: 1018.512 MiB, 4.44% gc time)
+simulation with proba tau=0.05           Tracing stopped at 128.0
+  2.170192 seconds (39.41 M allocations: 1006.800 MiB, 3.94% gc time)
+simulation with proba tau=0.05           Tracing stopped at 85.0
+  2.147821 seconds (45.72 M allocations: 1.214 GiB, 6.14% gc time)
+simulation with proba tau=0.05           Tracing stopped at 85.5
+  2.021953 seconds (39.64 M allocations: 1.009 GiB, 4.34% gc time)
+simulation with proba tau=0.05           Tracing stopped at 67.0
+  2.259602 seconds (51.15 M allocations: 1.407 GiB, 6.49% gc time)
+simulation with proba tau=0.05           Tracing stopped at 74.5
+  2.261558 seconds (48.27 M allocations: 1.306 GiB, 6.55% gc time)
+simulation with proba tau=0.05           Tracing stopped at 94.0
+  2.206788 seconds (38.81 M allocations: 1000.830 MiB, 3.07% gc time)
+simulation with proba tau=0.05           Tracing stopped at 77.0
+  2.350735 seconds (49.54 M allocations: 1.347 GiB, 6.88% gc time)
+simulation with proba tau=0.05           Tracing stopped at 109.0
+  2.233662 seconds (39.87 M allocations: 1.006 GiB, 4.71% gc time)
+simulation with proba tau=0.05           Tracing stopped at 125.0
+  2.284825 seconds (40.40 M allocations: 1.016 GiB, 2.73% gc time)
+simulation with proba tau=0.05           Tracing stopped at 135.0
+  2.293098 seconds (38.40 M allocations: 969.785 MiB, 4.76% gc time)
+simulation with proba tau=0.05           Tracing stopped at 76.0
+  2.144352 seconds (40.83 M allocations: 1.052 GiB, 5.32% gc time)
+simulation with proba tau=0.05           Tracing stopped at 78.5
+  2.277006 seconds (47.78 M allocations: 1.288 GiB, 5.57% gc time)
+simulation with proba tau=0.05           Tracing stopped at 80.0
+  2.241960 seconds (45.62 M allocations: 1.214 GiB, 5.47% gc time)
+simulation with proba tau=0.05           Tracing stopped at 107.5
+  2.272142 seconds (38.99 M allocations: 999.949 MiB, 5.28% gc time)
+simulation with proba tau=0.05           Tracing stopped at 118.0
+  2.323652 seconds (39.14 M allocations: 1001.158 MiB, 5.71% gc time)
+simulation with proba tau=0.05           Tracing stopped at 78.5
+  2.347976 seconds (45.67 M allocations: 1.216 GiB, 5.65% gc time)
+simulation with proba tau=0.05           Tracing stopped at 53.5
+  2.371411 seconds (53.86 M allocations: 1.503 GiB, 5.97% gc time)
+simulation with proba tau=0.05           Tracing stopped at 78.0
+  2.226386 seconds (41.59 M allocations: 1.078 GiB, 5.78% gc time)
+simulation with proba tau=0.05           Tracing stopped at 82.0
+  2.221010 seconds (45.56 M allocations: 1.212 GiB, 3.23% gc time)
+simulation with proba tau=0.05           Tracing stopped at 82.0
+  2.478285 seconds (43.01 M allocations: 1.125 GiB, 14.32% gc time)
+simulation with proba tau=0.05           Tracing stopped at 83.0
+  2.392619 seconds (44.32 M allocations: 1.169 GiB, 11.16% gc time)
+simulation with proba tau=0.05           Tracing stopped at 77.5
+  2.267967 seconds (43.73 M allocations: 1.150 GiB, 6.18% gc time)
+simulation with proba tau=0.05           Tracing stopped at 83.0
+  2.320098 seconds (46.68 M allocations: 1.248 GiB, 6.13% gc time)
+simulation with proba tau=0.05           Tracing stopped at 78.5
+  2.301312 seconds (46.30 M allocations: 1.238 GiB, 6.24% gc time)
+simulation with proba tau=0.05           Tracing stopped at 141.0
+  2.326719 seconds (36.98 M allocations: 917.140 MiB, 3.16% gc time)
+simulation with proba tau=0.05           Tracing stopped at 72.0
+  2.117154 seconds (41.84 M allocations: 1.089 GiB, 3.30% gc time)
+simulation with proba tau=0.05           Tracing stopped at 98.5
+  2.207816 seconds (41.54 M allocations: 1.067 GiB, 3.33% gc time)
+simulation with proba tau=0.05           Tracing stopped at 82.5
+  2.184539 seconds (41.93 M allocations: 1.087 GiB, 3.78% gc time)
+simulation with proba tau=0.05           Tracing stopped at 119.0
+  2.321457 seconds (38.33 M allocations: 972.660 MiB, 7.10% gc time)
+simulation with proba tau=0.05           Tracing stopped at 81.5
+  2.405566 seconds (42.71 M allocations: 1.115 GiB, 6.87% gc time)
+simulation with proba tau=0.05           Tracing stopped at 82.0
+  2.175809 seconds (39.85 M allocations: 1.018 GiB, 3.47% gc time)
+simulation with proba tau=0.05           Tracing stopped at 101.5
+  2.262549 seconds (43.97 M allocations: 1.149 GiB, 3.49% gc time)
+simulation with proba tau=0.05           Tracing stopped at 67.0
+  2.492666 seconds (55.90 M allocations: 1.567 GiB, 7.03% gc time)
+simulation with proba tau=0.05           Tracing stopped at 102.5
+  2.237222 seconds (40.25 M allocations: 1.022 GiB, 3.67% gc time)
+simulation with proba tau=0.05           Tracing stopped at 84.5
+  2.147562 seconds (41.05 M allocations: 1.058 GiB, 3.74% gc time)
+simulation with proba tau=0.05           Tracing stopped at 105.0
+  2.283510 seconds (39.64 M allocations: 1.000 GiB, 7.48% gc time)
+simulation with proba tau=0.05           Tracing stopped at 83.0
+  2.313287 seconds (43.28 M allocations: 1.133 GiB, 7.25% gc time)
+simulation with proba tau=0.05           Tracing stopped at 94.0
+  2.162989 seconds (39.41 M allocations: 1021.628 MiB, 3.89% gc time)
+simulation with proba tau=0.05           Tracing stopped at 81.5
+  2.388420 seconds (43.27 M allocations: 1.133 GiB, 7.82% gc time)
+simulation with proba tau=0.05           Tracing stopped at 108.5
+  2.368869 seconds (37.47 M allocations: 948.581 MiB, 4.03% gc time)
+simulation with proba tau=0.05           Tracing stopped at 74.0
+  2.223967 seconds (44.12 M allocations: 1.165 GiB, 3.93% gc time)
+simulation with proba tau=0.05           Tracing stopped at 82.0
+  2.332181 seconds (43.71 M allocations: 1.148 GiB, 8.19% gc time)
+simulation with proba tau=0.05           Tracing stopped at 80.5
+  2.285665 seconds (43.23 M allocations: 1.133 GiB, 4.20% gc time)
+simulation with proba tau=0.05           Tracing stopped at 217.5
+  2.454772 seconds (39.00 M allocations: 955.769 MiB, 3.84% gc time)
+simulation with proba tau=0.05           Tracing stopped at 126.0
+  2.375671 seconds (39.82 M allocations: 1021.173 MiB, 3.82% gc time)
+simulation with proba tau=0.05           Tracing stopped at 69.0
+  2.314301 seconds (50.79 M allocations: 1.393 GiB, 3.94% gc time)
+simulation with proba tau=0.05           Tracing stopped at 74.0
+  2.229853 seconds (46.03 M allocations: 1.231 GiB, 4.55% gc time)
+simulation with proba tau=0.05           Tracing stopped at 97.0
+  2.222723 seconds (40.15 M allocations: 1.022 GiB, 4.52% gc time)
+simulation with proba tau=0.05           Tracing stopped at 98.0
+  2.242035 seconds (42.31 M allocations: 1.094 GiB, 4.62% gc time)
+simulation with proba tau=0.05           Tracing stopped at 136.0
+  2.343070 seconds (36.59 M allocations: 907.580 MiB, 4.12% gc time)
+simulation with proba tau=0.05           Tracing stopped at 74.5
+  2.331147 seconds (47.71 M allocations: 1.287 GiB, 8.51% gc time)
+simulation with proba tau=0.05           Tracing stopped at 98.5
+  2.224078 seconds (38.25 M allocations: 979.916 MiB, 4.55% gc time)
+simulation with proba tau=0.05           Tracing stopped at 78.0
+  2.292909 seconds (42.10 M allocations: 1.094 GiB, 8.78% gc time)
+simulation with proba tau=0.05           Tracing stopped at 97.5
+  2.213646 seconds (36.42 M allocations: 913.770 MiB, 4.57% gc time)
+simulation with proba tau=0.05           Tracing stopped at 80.5
+  2.310126 seconds (47.52 M allocations: 1.278 GiB, 4.37% gc time)
+simulation with proba tau=0.05           Tracing stopped at 100.0
+  2.242519 seconds (40.73 M allocations: 1.039 GiB, 4.42% gc time)
+simulation with proba tau=0.05           Tracing stopped at 117.5
+  2.309948 seconds (36.58 M allocations: 911.622 MiB, 4.57% gc time)
+simulation with proba tau=0.05           Tracing stopped at 82.0
+  2.163813 seconds (40.96 M allocations: 1.054 GiB, 4.61% gc time)
+simulation with proba tau=0.05           Tracing stopped at 85.5
+  2.325722 seconds (40.81 M allocations: 1.069 GiB, 4.26% gc time)
+simulation with proba tau=0.05           Tracing stopped at 177.0
+  2.362044 seconds (37.54 M allocations: 920.703 MiB, 4.17% gc time)
+simulation with proba tau=0.05           Tracing stopped at 69.5
+  2.371461 seconds (49.15 M allocations: 1.337 GiB, 8.76% gc time)
+simulation with proba tau=0.05           Tracing stopped at 118.5
+  2.327053 seconds (39.26 M allocations: 1005.507 MiB, 4.59% gc time)
+simulation with proba tau=0.05           Tracing stopped at 64.5
+  2.311380 seconds (49.53 M allocations: 1.353 GiB, 4.98% gc time)
+simulation with proba tau=0.05           Tracing stopped at 71.0
+  2.317798 seconds (48.65 M allocations: 1.320 GiB, 4.90% gc time)
+simulation with proba tau=0.05           Tracing stopped at 62.0
+  2.430005 seconds (48.96 M allocations: 1.335 GiB, 9.76% gc time)
+simulation with proba tau=0.05           Tracing stopped at 89.5
+  2.351158 seconds (39.24 M allocations: 1016.511 MiB, 5.38% gc time)
+simulation with proba tau=0.05           Tracing stopped at 76.5
+  2.271473 seconds (43.59 M allocations: 1.147 GiB, 5.22% gc time)
+simulation with proba tau=0.05           Tracing stopped at 172.5
+  2.460861 seconds (37.78 M allocations: 931.290 MiB, 4.65% gc time)
+simulation with proba tau=0.05           Tracing stopped at 90.0
+  2.358060 seconds (42.12 M allocations: 1.091 GiB, 5.01% gc time)
+simulation with proba tau=0.05           Tracing stopped at 157.5
+  2.420429 seconds (39.51 M allocations: 997.888 MiB, 4.97% gc time)
+simulation with proba tau=0.05           Tracing stopped at 123.5
+  2.298866 seconds (37.97 M allocations: 959.140 MiB, 5.21% gc time)</t>
+  </si>
+  <si>
+    <t>atom</t>
+  </si>
+  <si>
+    <t>simulation 1 with proba tau=0.2        Tracing stopped at 70.5
+  2.195413 seconds (41.16 M allocations: 1.067 GiB, 5.91% gc time)
+simulation 2 with proba tau=0.2        Tracing stopped at 104.5
+  2.364399 seconds (36.90 M allocations: 928.448 MiB, 5.48% gc time)
+simulation 3 with proba tau=0.2        Tracing stopped at 101.5
+  2.336705 seconds (36.89 M allocations: 931.749 MiB, 5.18% gc time)
+simulation 4 with proba tau=0.2        Tracing stopped at 106.5
+  2.394933 seconds (38.32 M allocations: 979.456 MiB, 5.48% gc time)
+simulation 5 with proba tau=0.2        Tracing stopped at 78.5
+  2.513670 seconds (41.87 M allocations: 1.089 GiB, 15.55% gc time)
+simulation 6 with proba tau=0.2        Tracing stopped at 65.0
+  2.374505 seconds (44.40 M allocations: 1.179 GiB, 5.47% gc time)
+simulation 7 with proba tau=0.2        Tracing stopped at 85.5
+  2.237031 seconds (37.86 M allocations: 972.199 MiB, 5.46% gc time)
+simulation 8 with proba tau=0.2        Tracing stopped at 61.0
+  2.542352 seconds (51.53 M allocations: 1.422 GiB, 13.48% gc time)
+simulation 9 with proba tau=0.2        Tracing stopped at 64.5
+  2.411814 seconds (50.03 M allocations: 1.370 GiB, 5.47% gc time)
+simulation 10 with proba tau=0.2        Tracing stopped at 72.0
+  2.593445 seconds (45.21 M allocations: 1.204 GiB, 20.90% gc time)
+simulation 11 with proba tau=0.2        Tracing stopped at 74.0
+  2.192262 seconds (39.92 M allocations: 1.023 GiB, 9.73% gc time)
+simulation 12 with proba tau=0.2        Tracing stopped at 61.0
+  2.242158 seconds (47.64 M allocations: 1.291 GiB, 11.58% gc time)
+simulation 13 with proba tau=0.2        Tracing stopped at 81.5
+  2.207940 seconds (40.63 M allocations: 1.045 GiB, 10.45% gc time)
+simulation 14 with proba tau=0.2        Tracing stopped at 67.0
+  2.171058 seconds (41.83 M allocations: 1.091 GiB, 10.21% gc time)
+simulation 15 with proba tau=0.2        Tracing stopped at 76.0
+  2.440758 seconds (41.08 M allocations: 1.062 GiB, 17.39% gc time)
+simulation 16 with proba tau=0.2        Tracing stopped at 102.5
+  2.336759 seconds (41.74 M allocations: 1.074 GiB, 9.77% gc time)
+simulation 17 with proba tau=0.2        Tracing stopped at 64.5
+  2.443548 seconds (46.04 M allocations: 1.236 GiB, 19.08% gc time)
+simulation 18 with proba tau=0.2        Tracing stopped at 77.5
+  2.213213 seconds (44.08 M allocations: 1.164 GiB, 10.92% gc time)
+simulation 19 with proba tau=0.2        Tracing stopped at 86.5
+  2.368005 seconds (41.32 M allocations: 1.067 GiB, 17.56% gc time)
+simulation 20 with proba tau=0.2        Tracing stopped at 74.0
+  2.123155 seconds (39.11 M allocations: 1020.568 MiB, 9.70% gc time)
+simulation 21 with proba tau=0.2        Tracing stopped at 102.0
+  2.232094 seconds (40.09 M allocations: 1.017 GiB, 8.97% gc time)
+simulation 22 with proba tau=0.2        Tracing stopped at 66.0
+  2.277891 seconds (50.15 M allocations: 1.374 GiB, 12.89% gc time)
+simulation 23 with proba tau=0.2        Tracing stopped at 71.5
+  2.168082 seconds (43.61 M allocations: 1.150 GiB, 10.46% gc time)
+simulation 24 with proba tau=0.2        Tracing stopped at 75.5
+  2.400941 seconds (40.85 M allocations: 1.055 GiB, 18.11% gc time)
+simulation 25 with proba tau=0.2        Tracing stopped at 56.5
+  2.164882 seconds (48.46 M allocations: 1.322 GiB, 11.80% gc time)
+simulation 26 with proba tau=0.2        Tracing stopped at 68.0
+  2.431179 seconds (48.32 M allocations: 1.311 GiB, 18.96% gc time)
+simulation 27 with proba tau=0.2          2.200522 seconds (40.50 M allocations: 944.716 MiB, 8.83% gc time)
+simulation 28 with proba tau=0.2        Tracing stopped at 77.0
+  2.360485 seconds (40.13 M allocations: 1.030 GiB, 17.66% gc time)
+simulation 29 with proba tau=0.2        Tracing stopped at 76.5
+  2.157724 seconds (41.52 M allocations: 1.078 GiB, 11.16% gc time)
+simulation 30 with proba tau=0.2        Tracing stopped at 75.0
+  2.407452 seconds (43.60 M allocations: 1.148 GiB, 18.96% gc time)
+simulation 31 with proba tau=0.2        Tracing stopped at 59.5
+  2.194927 seconds (43.85 M allocations: 1.163 GiB, 11.94% gc time)
+simulation 32 with proba tau=0.2        Tracing stopped at 57.5
+  2.140157 seconds (42.49 M allocations: 1.118 GiB, 12.75% gc time)
+simulation 33 with proba tau=0.2        Tracing stopped at 103.0
+  2.247726 seconds (38.18 M allocations: 975.231 MiB, 9.45% gc time)
+simulation 34 with proba tau=0.2        Tracing stopped at 111.0
+  2.241300 seconds (40.03 M allocations: 1.013 GiB, 9.24% gc time)
+simulation 35 with proba tau=0.2        Tracing stopped at 94.0
+  2.402284 seconds (34.58 M allocations: 854.543 MiB, 16.51% gc time)
+simulation 36 with proba tau=0.2        Tracing stopped at 78.5
+  2.156699 seconds (37.87 M allocations: 975.518 MiB, 9.63% gc time)
+simulation 37 with proba tau=0.2        Tracing stopped at 70.0
+  2.386287 seconds (41.60 M allocations: 1.082 GiB, 18.59% gc time)
+simulation 38 with proba tau=0.2        Tracing stopped at 118.5
+  2.276308 seconds (40.94 M allocations: 1.040 GiB, 9.85% gc time)
+simulation 39 with proba tau=0.2        Tracing stopped at 52.0
+  2.457189 seconds (47.51 M allocations: 1.290 GiB, 21.01% gc time)
+simulation 40 with proba tau=0.2        Tracing stopped at 100.5
+  2.301924 seconds (37.41 M allocations: 948.930 MiB, 8.87% gc time)
+simulation 41 with proba tau=0.2        Tracing stopped at 88.5
+  2.135665 seconds (38.55 M allocations: 994.296 MiB, 9.29% gc time)
+simulation 42 with proba tau=0.2        Tracing stopped at 63.0
+  2.257975 seconds (45.64 M allocations: 1.223 GiB, 11.81% gc time)
+simulation 43 with proba tau=0.2        Tracing stopped at 79.5
+  2.252555 seconds (46.42 M allocations: 1.242 GiB, 11.65% gc time)
+simulation 44 with proba tau=0.2        Tracing stopped at 76.5
+  2.403273 seconds (41.52 M allocations: 1.076 GiB, 18.09% gc time)
+simulation 45 with proba tau=0.2        Tracing stopped at 113.5
+  2.344627 seconds (37.06 M allocations: 930.793 MiB, 7.87% gc time)
+simulation 46 with proba tau=0.2        Tracing stopped at 66.0
+  2.351640 seconds (44.10 M allocations: 1.168 GiB, 17.28% gc time)
+simulation 47 with proba tau=0.2        Tracing stopped at 79.0
+  2.053969 seconds (41.74 M allocations: 1.083 GiB, 9.45% gc time)
+simulation 48 with proba tau=0.2        Tracing stopped at 90.5
+  2.353745 seconds (39.70 M allocations: 1.009 GiB, 16.27% gc time)
+simulation 49 with proba tau=0.2        Tracing stopped at 72.5
+  2.103082 seconds (40.33 M allocations: 1.039 GiB, 9.49% gc time)
+simulation 50 with proba tau=0.2        Tracing stopped at 70.5
+  2.214805 seconds (43.57 M allocations: 1.148 GiB, 12.59% gc time)
+simulation 51 with proba tau=0.2        Tracing stopped at 74.0
+  2.144765 seconds (41.02 M allocations: 1.061 GiB, 10.15% gc time)
+simulation 52 with proba tau=0.2        Tracing stopped at 81.0
+  2.146667 seconds (42.92 M allocations: 1.124 GiB, 10.96% gc time)
+simulation 53 with proba tau=0.2        Tracing stopped at 60.0
+  2.124362 seconds (44.75 M allocations: 1.194 GiB, 11.59% gc time)
+simulation 54 with proba tau=0.2        Tracing stopped at 65.5
+  2.173430 seconds (43.74 M allocations: 1.157 GiB, 11.31% gc time)
+simulation 55 with proba tau=0.2        Tracing stopped at 92.0
+  2.428240 seconds (39.77 M allocations: 1.012 GiB, 18.80% gc time)
+simulation 56 with proba tau=0.2        Tracing stopped at 91.0
+  2.188853 seconds (39.56 M allocations: 1.004 GiB, 9.89% gc time)
+simulation 57 with proba tau=0.2        Tracing stopped at 89.5
+  2.365656 seconds (39.05 M allocations: 1013.539 MiB, 17.93% gc time)
+simulation 58 with proba tau=0.2        Tracing stopped at 68.0
+  2.245245 seconds (46.43 M allocations: 1.247 GiB, 12.51% gc time)
+simulation 59 with proba tau=0.2        Tracing stopped at 71.5
+  2.353861 seconds (40.00 M allocations: 1.029 GiB, 18.50% gc time)
+simulation 60 with proba tau=0.2        Tracing stopped at 80.0
+  2.139178 seconds (37.65 M allocations: 966.597 MiB, 9.60% gc time)
+simulation 61 with proba tau=0.2        Tracing stopped at 78.5
+  2.158893 seconds (38.24 M allocations: 987.489 MiB, 9.72% gc time)
+simulation 62 with proba tau=0.2        Tracing stopped at 72.0
+  2.221972 seconds (41.50 M allocations: 1.078 GiB, 10.98% gc time)
+simulation 63 with proba tau=0.2        Tracing stopped at 62.5
+  2.152235 seconds (45.65 M allocations: 1.223 GiB, 11.82% gc time)
+simulation 64 with proba tau=0.2        Tracing stopped at 60.5
+  2.504728 seconds (50.37 M allocations: 1.384 GiB, 20.92% gc time)
+simulation 65 with proba tau=0.2        Tracing stopped at 75.5
+  2.119759 seconds (41.90 M allocations: 1.091 GiB, 10.75% gc time)
+simulation 66 with proba tau=0.2        Tracing stopped at 74.0
+  2.361957 seconds (41.14 M allocations: 1.066 GiB, 18.75% gc time)
+simulation 67 with proba tau=0.2        Tracing stopped at 71.5
+  2.198315 seconds (40.94 M allocations: 1.059 GiB, 10.71% gc time)
+simulation 68 with proba tau=0.2        Tracing stopped at 95.5
+  2.504082 seconds (41.60 M allocations: 1.072 GiB, 18.65% gc time)
+simulation 69 with proba tau=0.2        Tracing stopped at 120.0
+  2.303504 seconds (43.56 M allocations: 1.128 GiB, 10.88% gc time)
+simulation 70 with proba tau=0.2        Tracing stopped at 99.0
+  2.481787 seconds (40.09 M allocations: 1.020 GiB, 18.63% gc time)
+simulation 71 with proba tau=0.2        Tracing stopped at 61.0
+  2.385400 seconds (51.79 M allocations: 1.430 GiB, 13.72% gc time)
+simulation 72 with proba tau=0.2        Tracing stopped at 117.5
+  2.274814 seconds (36.38 M allocations: 905.954 MiB, 8.45% gc time)
+simulation 73 with proba tau=0.2        Tracing stopped at 79.5
+  2.189201 seconds (41.33 M allocations: 1.070 GiB, 11.00% gc time)
+simulation 74 with proba tau=0.2        Tracing stopped at 67.5
+  2.165366 seconds (38.71 M allocations: 1008.872 MiB, 10.78% gc time)
+simulation 75 with proba tau=0.2        Tracing stopped at 71.5
+  2.413945 seconds (42.22 M allocations: 1.102 GiB, 19.37% gc time)
+simulation 76 with proba tau=0.2        Tracing stopped at 106.5
+  2.422973 seconds (44.16 M allocations: 1.156 GiB, 11.23% gc time)
+simulation 77 with proba tau=0.2        Tracing stopped at 89.5
+  2.415542 seconds (39.73 M allocations: 1.011 GiB, 18.58% gc time)
+simulation 78 with proba tau=0.2        Tracing stopped at 77.5
+  2.191193 seconds (41.42 M allocations: 1.073 GiB, 11.21% gc time)
+simulation 79 with proba tau=0.2        Tracing stopped at 78.0
+  2.437033 seconds (38.17 M allocations: 985.842 MiB, 18.45% gc time)
+simulation 80 with proba tau=0.2        Tracing stopped at 65.5
+  2.113077 seconds (39.57 M allocations: 1.016 GiB, 10.44% gc time)
+simulation 81 with proba tau=0.2        Tracing stopped at 65.0
+  2.444492 seconds (41.95 M allocations: 1.096 GiB, 19.57% gc time)
+simulation 82 with proba tau=0.2        Tracing stopped at 71.5
+  2.170294 seconds (38.78 M allocations: 1011.120 MiB, 10.64% gc time)
+simulation 83 with proba tau=0.2        Tracing stopped at 58.5
+  2.278264 seconds (49.38 M allocations: 1.351 GiB, 13.31% gc time)
+simulation 84 with proba tau=0.2        Tracing stopped at 73.5
+  2.221626 seconds (43.04 M allocations: 1.128 GiB, 10.92% gc time)
+simulation 85 with proba tau=0.2        Tracing stopped at 65.0
+  2.118373 seconds (41.35 M allocations: 1.076 GiB, 11.04% gc time)
+simulation 86 with proba tau=0.2        Tracing stopped at 95.0
+  2.407801 seconds (40.89 M allocations: 1.049 GiB, 18.98% gc time)
+simulation 87 with proba tau=0.2        Tracing stopped at 97.5
+  2.234613 seconds (36.88 M allocations: 931.983 MiB, 9.29% gc time)
+simulation 88 with proba tau=0.2        Tracing stopped at 265.5
+  2.650404 seconds (39.15 M allocations: 949.508 MiB, 16.58% gc time)
+simulation 89 with proba tau=0.2        Tracing stopped at 55.5
+  2.181225 seconds (44.75 M allocations: 1.197 GiB, 12.38% gc time)
+simulation 90 with proba tau=0.2        Tracing stopped at 109.0
+  2.360701 seconds (38.95 M allocations: 999.764 MiB, 16.62% gc time)
+simulation 91 with proba tau=0.2        Tracing stopped at 85.0
+  2.154950 seconds (41.79 M allocations: 1.082 GiB, 10.39% gc time)
+simulation 92 with proba tau=0.2        Tracing stopped at 90.0
+  2.143291 seconds (41.15 M allocations: 1.059 GiB, 9.59% gc time)
+simulation 93 with proba tau=0.2        Tracing stopped at 103.0
+  2.108150 seconds (36.37 M allocations: 911.605 MiB, 8.09% gc time)
+simulation 94 with proba tau=0.2        Tracing stopped at 104.0
+  2.146966 seconds (38.57 M allocations: 988.075 MiB, 8.54% gc time)
+simulation 95 with proba tau=0.2        Tracing stopped at 76.0
+  2.421313 seconds (42.51 M allocations: 1.110 GiB, 19.27% gc time)
+simulation 96 with proba tau=0.2        Tracing stopped at 74.0
+  2.093067 seconds (39.10 M allocations: 1020.613 MiB, 10.17% gc time)
+simulation 97 with proba tau=0.2        Tracing stopped at 67.0
+  2.358827 seconds (42.20 M allocations: 1.104 GiB, 19.29% gc time)
+simulation 98 with proba tau=0.2        Tracing stopped at 71.5
+  2.115198 seconds (40.36 M allocations: 1.039 GiB, 10.73% gc time)
+simulation 99 with proba tau=0.2        Tracing stopped at 75.0
+  2.423898 seconds (42.74 M allocations: 1.120 GiB, 20.01% gc time)
+simulation 100 with proba tau=0.2        Tracing stopped at 74.0
+  2.130236 seconds (40.87 M allocations: 1.056 GiB, 11.03% gc time)</t>
+  </si>
+  <si>
+    <t>simulation 1 with proba tau=0.8        Tracing stopped at 105.0
+  2.093193 seconds (37.72 M allocations: 961.884 MiB)
+simulation 2 with proba tau=0.8        Tracing stopped at 60.0
+  2.177100 seconds (40.67 M allocations: 1.056 GiB, 5.52% gc time)
+simulation 3 with proba tau=0.8        Tracing stopped at 77.5
+  2.126967 seconds (36.03 M allocations: 912.652 MiB, 5.80% gc time)
+simulation 4 with proba tau=0.8        Tracing stopped at 94.5
+  2.194746 seconds (34.85 M allocations: 864.434 MiB, 6.03% gc time)
+simulation 5 with proba tau=0.8        Tracing stopped at 57.0
+  2.133877 seconds (41.57 M allocations: 1.088 GiB, 5.84% gc time)
+simulation 6 with proba tau=0.8        Tracing stopped at 72.5
+  2.291357 seconds (39.80 M allocations: 1.021 GiB, 5.68% gc time)
+simulation 7 with proba tau=0.8        Tracing stopped at 67.5
+  2.107908 seconds (36.29 M allocations: 925.506 MiB, 6.25% gc time)
+simulation 8 with proba tau=0.8        Tracing stopped at 100.0
+  2.493861 seconds (35.97 M allocations: 900.256 MiB, 14.73% gc time)
+simulation 9 with proba tau=0.8        Tracing stopped at 74.0
+  2.148619 seconds (36.49 M allocations: 929.122 MiB, 5.90% gc time)
+simulation 10 with proba tau=0.8        Tracing stopped at 97.0
+  2.430777 seconds (34.71 M allocations: 858.092 MiB, 16.29% gc time)
+simulation 11 with proba tau=0.8        Tracing stopped at 85.5
+  2.388188 seconds (38.12 M allocations: 981.444 MiB, 9.00% gc time)
+simulation 12 with proba tau=0.8        Tracing stopped at 72.0
+  2.052210 seconds (37.63 M allocations: 970.887 MiB, 9.82% gc time)
+simulation 13 with proba tau=0.8        Tracing stopped at 63.5
+  2.070479 seconds (40.40 M allocations: 1.044 GiB, 10.33% gc time)
+simulation 14 with proba tau=0.8        Tracing stopped at 61.0
+  2.110857 seconds (40.56 M allocations: 1.051 GiB, 9.78% gc time)
+simulation 15 with proba tau=0.8        Tracing stopped at 56.5
+  2.418308 seconds (43.87 M allocations: 1.165 GiB, 18.59% gc time)
+simulation 16 with proba tau=0.8        Tracing stopped at 66.0
+  2.274376 seconds (44.64 M allocations: 1.187 GiB, 11.51% gc time)
+simulation 17 with proba tau=0.8        Tracing stopped at 67.0
+  2.185664 seconds (37.02 M allocations: 951.468 MiB, 16.77% gc time)
+simulation 18 with proba tau=0.8        Tracing stopped at 58.0
+  2.093971 seconds (41.18 M allocations: 1.074 GiB, 10.37% gc time)
+simulation 19 with proba tau=0.8        Tracing stopped at 100.5
+  2.356729 seconds (36.49 M allocations: 917.568 MiB, 15.72% gc time)
+simulation 20 with proba tau=0.8        Tracing stopped at 59.0
+  2.066225 seconds (41.70 M allocations: 1.092 GiB, 10.67% gc time)
+simulation 21 with proba tau=0.8        Tracing stopped at 82.0
+  2.156992 seconds (37.92 M allocations: 975.298 MiB, 11.08% gc time)
+simulation 22 with proba tau=0.8        Tracing stopped at 64.0
+  2.152584 seconds (42.61 M allocations: 1.119 GiB, 10.86% gc time)
+simulation 23 with proba tau=0.8        Tracing stopped at 89.5
+  2.122519 seconds (36.79 M allocations: 931.901 MiB, 8.69% gc time)
+simulation 24 with proba tau=0.8        Tracing stopped at 97.5
+  2.352117 seconds (35.24 M allocations: 876.501 MiB, 16.40% gc time)
+simulation 25 with proba tau=0.8        Tracing stopped at 85.0
+  2.072063 seconds (37.46 M allocations: 959.688 MiB, 9.50% gc time)
+simulation 26 with proba tau=0.8        Tracing stopped at 58.0
+  2.220293 seconds (37.25 M allocations: 962.311 MiB, 17.78% gc time)
+simulation 27 with proba tau=0.8        Tracing stopped at 73.5
+  2.075720 seconds (34.98 M allocations: 877.619 MiB, 8.89% gc time)
+simulation 28 with proba tau=0.8        Tracing stopped at 155.0
+  2.462680 seconds (35.62 M allocations: 863.209 MiB, 14.80% gc time)
+simulation 29 with proba tau=0.8        Tracing stopped at 99.5
+  2.119083 seconds (37.94 M allocations: 969.472 MiB, 9.31% gc time)
+simulation 30 with proba tau=0.8        Tracing stopped at 72.5
+  2.048063 seconds (39.51 M allocations: 1.011 GiB, 10.02% gc time)
+simulation 31 with proba tau=0.8        Tracing stopped at 65.0
+  2.053787 seconds (39.93 M allocations: 1.028 GiB, 10.34% gc time)
+simulation 32 with proba tau=0.8        Tracing stopped at 67.0
+  2.015340 seconds (37.33 M allocations: 961.722 MiB, 9.74% gc time)
+simulation 33 with proba tau=0.8        Tracing stopped at 62.5
+  2.388524 seconds (46.38 M allocations: 1.247 GiB, 19.01% gc time)
+simulation 34 with proba tau=0.8        Tracing stopped at 93.5
+  2.115023 seconds (39.72 M allocations: 1.010 GiB, 9.61% gc time)
+simulation 35 with proba tau=0.8        Tracing stopped at 73.0
+  2.253120 seconds (37.54 M allocations: 965.926 MiB, 17.30% gc time)
+simulation 36 with proba tau=0.8        Tracing stopped at 77.5
+  2.092418 seconds (37.49 M allocations: 963.171 MiB, 9.81% gc time)
+simulation 37 with proba tau=0.8        Tracing stopped at 56.0
+  2.202908 seconds (39.58 M allocations: 1.021 GiB, 18.17% gc time)
+simulation 38 with proba tau=0.8        Tracing stopped at 64.5
+  2.060254 seconds (41.05 M allocations: 1.066 GiB, 10.60% gc time)
+simulation 39 with proba tau=0.8        Tracing stopped at 61.0
+  2.099645 seconds (42.11 M allocations: 1.104 GiB, 11.11% gc time)
+simulation 40 with proba tau=0.8        Tracing stopped at 88.0
+  2.175266 seconds (39.18 M allocations: 1016.442 MiB, 9.57% gc time)
+simulation 41 with proba tau=0.8        Tracing stopped at 71.0
+  2.043451 seconds (37.74 M allocations: 973.905 MiB, 9.54% gc time)
+simulation 42 with proba tau=0.8        Tracing stopped at 66.5
+  2.425190 seconds (47.40 M allocations: 1.279 GiB, 19.07% gc time)
+simulation 43 with proba tau=0.8        Tracing stopped at 58.5
+  1.967834 seconds (36.46 M allocations: 935.137 MiB, 9.50% gc time)
+simulation 44 with proba tau=0.8        Tracing stopped at 74.0
+  2.269741 seconds (36.32 M allocations: 923.316 MiB, 17.28% gc time)
+simulation 45 with proba tau=0.8        Tracing stopped at 80.0
+  2.087941 seconds (38.25 M allocations: 988.364 MiB, 9.93% gc time)
+simulation 46 with proba tau=0.8        Tracing stopped at 56.0
+  2.273341 seconds (38.43 M allocations: 1004.918 MiB, 18.33% gc time)
+simulation 47 with proba tau=0.8        Tracing stopped at 62.0
+  2.095095 seconds (42.36 M allocations: 1.112 GiB, 11.37% gc time)
+simulation 48 with proba tau=0.8        Tracing stopped at 68.0
+  2.063175 seconds (35.95 M allocations: 913.671 MiB, 9.21% gc time)
+simulation 49 with proba tau=0.8        Tracing stopped at 60.5
+  2.123376 seconds (40.93 M allocations: 1.064 GiB, 10.87% gc time)
+simulation 50 with proba tau=0.8        Tracing stopped at 74.5
+  2.088864 seconds (37.25 M allocations: 956.462 MiB, 9.61% gc time)
+simulation 51 with proba tau=0.8        Tracing stopped at 212.0
+  2.496331 seconds (37.22 M allocations: 903.162 MiB, 15.25% gc time)
+simulation 52 with proba tau=0.8        Tracing stopped at 75.0
+  2.001481 seconds (35.56 M allocations: 896.412 MiB, 9.27% gc time)
+simulation 53 with proba tau=0.8        Tracing stopped at 66.5
+  2.272005 seconds (40.54 M allocations: 1.048 GiB, 18.18% gc time)
+simulation 54 with proba tau=0.8        Tracing stopped at 79.5
+  2.088615 seconds (36.38 M allocations: 921.732 MiB, 9.41% gc time)
+simulation 55 with proba tau=0.8        Tracing stopped at 72.5
+  2.065648 seconds (37.12 M allocations: 952.936 MiB, 11.65% gc time)
+simulation 56 with proba tau=0.8        Tracing stopped at 83.0
+  2.122190 seconds (37.24 M allocations: 951.572 MiB, 9.66% gc time)
+simulation 57 with proba tau=0.8        Tracing stopped at 77.5
+  2.052194 seconds (34.87 M allocations: 870.801 MiB, 8.46% gc time)
+simulation 58 with proba tau=0.8        Tracing stopped at 65.0
+  2.296118 seconds (40.23 M allocations: 1.039 GiB, 18.32% gc time)
+simulation 59 with proba tau=0.8        Tracing stopped at 59.5
+  2.051095 seconds (40.36 M allocations: 1.045 GiB, 10.38% gc time)
+simulation 60 with proba tau=0.8        Tracing stopped at 109.5
+  2.302132 seconds (36.72 M allocations: 923.027 MiB, 17.16% gc time)
+simulation 61 with proba tau=0.8        Tracing stopped at 103.0
+  2.147259 seconds (34.36 M allocations: 843.981 MiB, 8.49% gc time)
+simulation 62 with proba tau=0.8        Tracing stopped at 49.5
+  2.173570 seconds (38.09 M allocations: 996.458 MiB, 18.49% gc time)
+simulation 63 with proba tau=0.8        Tracing stopped at 68.0
+  1.980539 seconds (33.35 M allocations: 822.495 MiB, 8.38% gc time)
+simulation 64 with proba tau=0.8        Tracing stopped at 87.0
+  2.096888 seconds (35.81 M allocations: 899.708 MiB, 8.75% gc time)
+simulation 65 with proba tau=0.8        Tracing stopped at 81.5
+  2.030307 seconds (37.37 M allocations: 957.006 MiB, 8.90% gc time)
+simulation 66 with proba tau=0.8        Tracing stopped at 71.0
+  1.963198 seconds (37.29 M allocations: 958.231 MiB, 8.62% gc time)
+simulation 67 with proba tau=0.8        Tracing stopped at 73.5
+  2.190579 seconds (38.73 M allocations: 1007.968 MiB, 16.22% gc time)
+simulation 68 with proba tau=0.8        Tracing stopped at 50.0
+  1.889743 seconds (37.68 M allocations: 981.597 MiB, 9.28% gc time)
+simulation 69 with proba tau=0.8        Tracing stopped at 83.0
+  2.254303 seconds (38.43 M allocations: 993.654 MiB, 15.98% gc time)
+simulation 70 with proba tau=0.8        Tracing stopped at 67.0
+  2.086573 seconds (41.58 M allocations: 1.083 GiB, 10.26% gc time)
+simulation 71 with proba tau=0.8        Tracing stopped at 49.0
+  2.187328 seconds (39.75 M allocations: 1.029 GiB, 18.89% gc time)
+simulation 72 with proba tau=0.8        Tracing stopped at 59.0
+  1.993121 seconds (37.98 M allocations: 988.492 MiB, 9.84% gc time)
+simulation 73 with proba tau=0.8        Tracing stopped at 61.5
+  2.091664 seconds (42.26 M allocations: 1.109 GiB, 11.22% gc time)
+simulation 74 with proba tau=0.8        Tracing stopped at 95.0
+  2.160018 seconds (35.53 M allocations: 886.173 MiB, 8.84% gc time)
+simulation 75 with proba tau=0.8        Tracing stopped at 66.5
+  2.080210 seconds (40.62 M allocations: 1.051 GiB, 10.79% gc time)
+simulation 76 with proba tau=0.8        Tracing stopped at 69.0
+  2.287309 seconds (40.83 M allocations: 1.056 GiB, 18.47% gc time)
+simulation 77 with proba tau=0.8        Tracing stopped at 73.0
+  2.098384 seconds (39.55 M allocations: 1.012 GiB, 10.29% gc time)
+simulation 78 with proba tau=0.8        Tracing stopped at 66.0
+  2.284088 seconds (41.74 M allocations: 1.090 GiB, 19.76% gc time)
+simulation 79 with proba tau=0.8        Tracing stopped at 66.5
+  2.088077 seconds (39.97 M allocations: 1.030 GiB, 10.99% gc time)
+simulation 80 with proba tau=0.8        Tracing stopped at 86.5
+  2.315808 seconds (34.42 M allocations: 852.164 MiB, 16.68% gc time)
+simulation 81 with proba tau=0.8        Tracing stopped at 70.0
+  2.004483 seconds (34.68 M allocations: 868.091 MiB, 9.07% gc time)
+simulation 82 with proba tau=0.8        Tracing stopped at 68.0
+  2.086715 seconds (37.60 M allocations: 970.689 MiB, 10.32% gc time)
+simulation 83 with proba tau=0.8        Tracing stopped at 68.0
+  2.136400 seconds (41.27 M allocations: 1.072 GiB, 11.12% gc time)
+simulation 84 with proba tau=0.8        Tracing stopped at 84.5
+  2.012363 seconds (34.54 M allocations: 858.824 MiB, 8.99% gc time)
+  2.270390 seconds (37.69 M allocations: 973.249 MiB, 18.25% gc time)
+simulation 86 with proba tau=0.8        Tracing stopped at 59.5
+  2.060850 seconds (41.82 M allocations: 1.094 GiB, 11.34% gc time)
+simulation 87 with proba tau=0.8        Tracing stopped at 78.5
+  2.276247 seconds (34.83 M allocations: 869.815 MiB, 17.30% gc time)
+simulation 88 with proba tau=0.8        Tracing stopped at 80.5
+  2.110414 seconds (39.32 M allocations: 1.000 GiB, 10.50% gc time)
+simulation 89 with proba tau=0.8        Tracing stopped at 101.0
+  2.399220 seconds (35.63 M allocations: 888.451 MiB, 16.83% gc time)
+simulation 90 with proba tau=0.8        Tracing stopped at 50.5
+  2.156755 seconds (42.07 M allocations: 1.107 GiB, 12.54% gc time)
+simulation 91 with proba tau=0.8        Tracing stopped at 64.0
+  2.046072 seconds (37.44 M allocations: 966.735 MiB, 10.05% gc time)
+simulation 92 with proba tau=0.8        Tracing stopped at 105.0
+  2.155043 seconds (34.63 M allocations: 852.718 MiB, 8.55% gc time)
+simulation 93 with proba tau=0.8        Tracing stopped at 85.5
+  2.128323 seconds (36.82 M allocations: 935.775 MiB, 9.62% gc time)
+simulation 94 with proba tau=0.8        Tracing stopped at 92.5
+  2.377324 seconds (35.99 M allocations: 903.267 MiB, 17.42% gc time)
+simulation 95 with proba tau=0.8          2.174342 seconds (40.50 M allocations: 944.730 MiB, 9.30% gc time)
+simulation 96 with proba tau=0.8        Tracing stopped at 60.0
+  2.200431 seconds (35.50 M allocations: 900.698 MiB, 18.41% gc time)
+simulation 97 with proba tau=0.8        Tracing stopped at 163.5
+  2.267490 seconds (35.94 M allocations: 875.073 MiB, 9.00% gc time)
+simulation 98 with proba tau=0.8        Tracing stopped at 92.0
+  2.143476 seconds (35.48 M allocations: 887.244 MiB, 9.10% gc time)
+simulation 99 with proba tau=0.8        Tracing stopped at 51.5
+  1.995259 seconds (39.07 M allocations: 1.005 GiB, 11.20% gc time)
+simulation 100 with proba tau=0.8        Tracing stopped at 73.5
+  2.060579 seconds (37.28 M allocations: 957.084 MiB, 9.96% gc time)</t>
+  </si>
+  <si>
+    <t>cmd1  - restarted on atom</t>
+  </si>
+  <si>
+    <t>simulation 1 with proba tau=0.1        Tracing stopped at 72.0
+  2.124524 seconds (42.92 M allocations: 1.126 GiB, 5.34% gc time)
+simulation 2 with proba tau=0.1        Tracing stopped at 72.0
+  2.201765 seconds (44.33 M allocations: 1.174 GiB, 5.61% gc time)
+simulation 3 with proba tau=0.1        Tracing stopped at 96.5
+  2.251545 seconds (39.09 M allocations: 1009.552 MiB, 5.17% gc time)
+simulation 4 with proba tau=0.1        Tracing stopped at 74.5
+  2.321613 seconds (45.65 M allocations: 1.217 GiB, 4.94% gc time)
+simulation 5 with proba tau=0.1        Tracing stopped at 63.5
+  2.402679 seconds (50.46 M allocations: 1.386 GiB, 6.98% gc time)
+simulation 6 with proba tau=0.1        Tracing stopped at 85.0
+  2.214907 seconds (39.21 M allocations: 1017.793 MiB, 5.68% gc time)
+simulation 7 with proba tau=0.1        Tracing stopped at 73.5
+  2.140176 seconds (41.14 M allocations: 1.065 GiB, 5.51% gc time)
+simulation 8 with proba tau=0.1        Tracing stopped at 91.0
+  2.192970 seconds (39.85 M allocations: 1.013 GiB, 5.34% gc time)
+simulation 9 with proba tau=0.1        Tracing stopped at 74.0
+  2.194687 seconds (42.50 M allocations: 1.110 GiB, 16.03% gc time)
+simulation 10 with proba tau=0.1        Tracing stopped at 88.5
+  2.046942 seconds (44.67 M allocations: 1.179 GiB, 9.20% gc time)
+simulation 11 with proba tau=0.1        Tracing stopped at 52.5
+  2.460669 seconds (61.88 M allocations: 1.775 GiB, 18.40% gc time)
+simulation 12 with proba tau=0.1        Tracing stopped at 80.0
+  2.039215 seconds (42.98 M allocations: 1.125 GiB, 8.84% gc time)
+simulation 13 with proba tau=0.1        Tracing stopped at 94.0
+  2.336130 seconds (38.30 M allocations: 983.669 MiB, 14.41% gc time)
+simulation 14 with proba tau=0.1        Tracing stopped at 100.0
+  2.049771 seconds (40.01 M allocations: 1.017 GiB, 8.16% gc time)
+simulation 15 with proba tau=0.1        Tracing stopped at 75.0
+  2.203035 seconds (44.20 M allocations: 1.168 GiB, 15.93% gc time)
+simulation 16 with proba tau=0.1        Tracing stopped at 73.5
+  2.003819 seconds (44.69 M allocations: 1.187 GiB, 9.67% gc time)
+simulation 17 with proba tau=0.1        Tracing stopped at 113.0
+  2.276438 seconds (38.34 M allocations: 975.859 MiB, 14.23% gc time)
+simulation 18 with proba tau=0.1        Tracing stopped at 115.5
+  2.160896 seconds (39.80 M allocations: 1.003 GiB, 7.84% gc time)
+simulation 19 with proba tau=0.1        Tracing stopped at 100.0
+  2.026670 seconds (36.54 M allocations: 920.050 MiB, 7.49% gc time)
+simulation 20 with proba tau=0.1        Tracing stopped at 71.5
+  1.989859 seconds (42.04 M allocations: 1.096 GiB, 9.15% gc time)
+simulation 21 with proba tau=0.1        Tracing stopped at 106.5
+  2.072990 seconds (41.39 M allocations: 1.059 GiB, 8.14% gc time)
+simulation 22 with proba tau=0.1        Tracing stopped at 71.5
+  2.107680 seconds (40.11 M allocations: 1.032 GiB, 16.26% gc time)
+simulation 23 with proba tau=0.1        Tracing stopped at 76.0
+  2.013364 seconds (40.76 M allocations: 1.051 GiB, 8.74% gc time)
+simulation 24 with proba tau=0.1        Tracing stopped at 132.0
+  2.351820 seconds (36.90 M allocations: 917.971 MiB, 14.27% gc time)
+simulation 25 with proba tau=0.1        Tracing stopped at 110.0
+  2.081637 seconds (39.82 M allocations: 1.005 GiB, 8.22% gc time)
+simulation 26 with proba tau=0.1        Tracing stopped at 91.5
+  2.226112 seconds (38.97 M allocations: 1006.402 MiB, 15.12% gc time)
+simulation 27 with proba tau=0.1        Tracing stopped at 106.5
+  2.089649 seconds (40.86 M allocations: 1.042 GiB, 8.62% gc time)
+simulation 28 with proba tau=0.1        Tracing stopped at 105.5
+  2.209649 seconds (38.16 M allocations: 972.382 MiB, 9.64% gc time)
+simulation 29 with proba tau=0.1        Tracing stopped at 83.5
+  2.015637 seconds (38.78 M allocations: 1004.063 MiB, 8.34% gc time)
+simulation 30 with proba tau=0.1        Tracing stopped at 115.0
+  2.117664 seconds (38.51 M allocations: 981.852 MiB, 7.85% gc time)
+simulation 31 with proba tau=0.1        Tracing stopped at 97.0
+  2.253478 seconds (42.26 M allocations: 1.093 GiB, 15.71% gc time)
+simulation 32 with proba tau=0.1        Tracing stopped at 69.0
+  2.130617 seconds (51.47 M allocations: 1.417 GiB, 11.29% gc time)
+simulation 33 with proba tau=0.1        Tracing stopped at 138.5
+  2.287760 seconds (38.20 M allocations: 960.399 MiB, 14.14% gc time)
+simulation 34 with proba tau=0.1        Tracing stopped at 115.0
+  2.126259 seconds (35.60 M allocations: 879.251 MiB, 7.21% gc time)
+simulation 35 with proba tau=0.1        Tracing stopped at 73.0
+  2.202583 seconds (40.30 M allocations: 1.036 GiB, 16.10% gc time)
+simulation 36 with proba tau=0.1        Tracing stopped at 89.0
+  2.067533 seconds (43.87 M allocations: 1.150 GiB, 9.48% gc time)
+simulation 37 with proba tau=0.1        Tracing stopped at 75.5
+  2.154376 seconds (41.27 M allocations: 1.069 GiB, 16.38% gc time)
+simulation 38 with proba tau=0.1        Tracing stopped at 65.5
+  1.989034 seconds (40.66 M allocations: 1.052 GiB, 9.36% gc time)
+simulation 39 with proba tau=0.1        Tracing stopped at 78.5
+  1.974139 seconds (39.54 M allocations: 1.009 GiB, 8.94% gc time)
+simulation 40 with proba tau=0.1        Tracing stopped at 77.5
+  2.069145 seconds (44.22 M allocations: 1.168 GiB, 9.97% gc time)
+simulation 41 with proba tau=0.1        Tracing stopped at 109.5
+  2.094244 seconds (38.74 M allocations: 992.677 MiB, 8.13% gc time)
+simulation 42 with proba tau=0.1        Tracing stopped at 96.0
+  2.330709 seconds (37.89 M allocations: 966.937 MiB, 15.16% gc time)
+simulation 43 with proba tau=0.1        Tracing stopped at 94.0
+  2.179760 seconds (43.15 M allocations: 1.125 GiB, 9.98% gc time)
+simulation 44 with proba tau=0.1        Tracing stopped at 76.0
+  2.299582 seconds (42.77 M allocations: 1.120 GiB, 17.24% gc time)
+simulation 45 with proba tau=0.1        Tracing stopped at 93.5
+  2.069688 seconds (41.75 M allocations: 1.078 GiB, 9.31% gc time)
+simulation 46 with proba tau=0.1        Tracing stopped at 75.5
+  2.231654 seconds (44.19 M allocations: 1.167 GiB, 16.97% gc time)
+simulation 47 with proba tau=0.1        Tracing stopped at 92.0
+  2.174463 seconds (41.55 M allocations: 1.070 GiB, 9.41% gc time)
+simulation 48 with proba tau=0.1        Tracing stopped at 83.0
+  2.004967 seconds (39.79 M allocations: 1.016 GiB, 8.98% gc time)
+simulation 49 with proba tau=0.1        Tracing stopped at 90.0
+  2.151783 seconds (40.99 M allocations: 1.053 GiB, 9.91% gc time)
+simulation 50 with proba tau=0.1        Tracing stopped at 68.0
+  1.966692 seconds (39.64 M allocations: 1.017 GiB, 9.14% gc time)
+simulation 51 with proba tau=0.1        Tracing stopped at 70.5
+  2.242894 seconds (46.18 M allocations: 1.237 GiB, 17.68% gc time)
+simulation 52 with proba tau=0.1        Tracing stopped at 76.0
+  1.961542 seconds (40.17 M allocations: 1.032 GiB, 9.50% gc time)
+simulation 53 with proba tau=0.1        Tracing stopped at 72.0
+  2.130589 seconds (39.32 M allocations: 1.004 GiB, 16.81% gc time)
+simulation 54 with proba tau=0.1        Tracing stopped at 126.5
+  2.149883 seconds (37.92 M allocations: 954.020 MiB, 8.06% gc time)
+simulation 55 with proba tau=0.1        Tracing stopped at 85.0
+  2.261320 seconds (41.03 M allocations: 1.056 GiB, 16.74% gc time)
+simulation 56 with proba tau=0.1        Tracing stopped at 73.5
+  2.087061 seconds (42.35 M allocations: 1.106 GiB, 9.95% gc time)
+simulation 57 with proba tau=0.1        Tracing stopped at 80.0
+  2.194600 seconds (41.28 M allocations: 1.068 GiB, 17.06% gc time)
+simulation 58 with proba tau=0.1        Tracing stopped at 109.5
+  2.144826 seconds (38.65 M allocations: 988.444 MiB, 8.46% gc time)
+simulation 59 with proba tau=0.1        Tracing stopped at 74.0
+  2.084837 seconds (42.20 M allocations: 1.101 GiB, 9.74% gc time)
+simulation 60 with proba tau=0.1        Tracing stopped at 89.0
+  2.165097 seconds (45.62 M allocations: 1.210 GiB, 10.45% gc time)
+simulation 61 with proba tau=0.1        Tracing stopped at 75.5
+  2.106681 seconds (47.53 M allocations: 1.280 GiB, 10.86% gc time)
+simulation 62 with proba tau=0.1        Tracing stopped at 70.0
+  2.224226 seconds (44.70 M allocations: 1.187 GiB, 17.97% gc time)
+simulation 63 with proba tau=0.1        Tracing stopped at 79.0
+  1.940184 seconds (38.76 M allocations: 1006.407 MiB, 9.32% gc time)
+simulation 64 with proba tau=0.1        Tracing stopped at 84.5
+  2.193623 seconds (40.55 M allocations: 1.041 GiB, 16.94% gc time)
+simulation 65 with proba tau=0.1        Tracing stopped at 81.5
+  2.026671 seconds (39.40 M allocations: 1.003 GiB, 9.16% gc time)
+simulation 66 with proba tau=0.1        Tracing stopped at 70.5
+  2.294721 seconds (45.45 M allocations: 1.210 GiB, 17.81% gc time)
+simulation 67 with proba tau=0.1        Tracing stopped at 111.5
+  2.153756 seconds (37.97 M allocations: 964.086 MiB, 8.52% gc time)
+simulation 68 with proba tau=0.1        Tracing stopped at 91.5
+  2.056278 seconds (37.19 M allocations: 944.593 MiB, 8.35% gc time)
+simulation 69 with proba tau=0.1        Tracing stopped at 82.0
+  2.041761 seconds (41.09 M allocations: 1.059 GiB, 9.58% gc time)
+simulation 70 with proba tau=0.1        Tracing stopped at 66.5
+  2.005078 seconds (43.18 M allocations: 1.138 GiB, 10.32% gc time)
+simulation 71 with proba tau=0.1        Tracing stopped at 85.0
+  2.205120 seconds (39.10 M allocations: 1014.501 MiB, 16.86% gc time)
+simulation 72 with proba tau=0.1        Tracing stopped at 85.0
+  2.091658 seconds (43.32 M allocations: 1.133 GiB, 10.35% gc time)
+simulation 73 with proba tau=0.1        Tracing stopped at 76.5
+  2.217449 seconds (42.54 M allocations: 1.111 GiB, 17.61% gc time)
+simulation 74 with proba tau=0.1        Tracing stopped at 94.0
+  2.086896 seconds (40.69 M allocations: 1.042 GiB, 9.51% gc time)
+simulation 75 with proba tau=0.1        Tracing stopped at 63.0
+  2.237651 seconds (45.44 M allocations: 1.215 GiB, 18.43% gc time)
+simulation 76 with proba tau=0.1        Tracing stopped at 84.0
+  2.032206 seconds (39.05 M allocations: 1013.117 MiB, 9.28% gc time)
+simulation 77 with proba tau=0.1        Tracing stopped at 96.0
+  2.264173 seconds (39.72 M allocations: 1.006 GiB, 16.67% gc time)
+simulation 78 with proba tau=0.1        Tracing stopped at 89.0
+  2.036807 seconds (39.30 M allocations: 1020.116 MiB, 9.31% gc time)
+simulation 79 with proba tau=0.1        Tracing stopped at 84.5
+  2.028486 seconds (39.00 M allocations: 1011.800 MiB, 9.18% gc time)
+simulation 80 with proba tau=0.1        Tracing stopped at 89.0
+  2.143627 seconds (40.54 M allocations: 1.038 GiB, 9.39% gc time)
+simulation 81 with proba tau=0.1        Tracing stopped at 104.0
+  2.084064 seconds (40.35 M allocations: 1.026 GiB, 9.54% gc time)
+simulation 82 with proba tau=0.1        Tracing stopped at 92.5
+  2.259328 seconds (40.02 M allocations: 1.019 GiB, 16.54% gc time)
+simulation 83 with proba tau=0.1        Tracing stopped at 86.5
+  1.991321 seconds (37.79 M allocations: 968.850 MiB, 9.03% gc time)
+simulation 84 with proba tau=0.1        Tracing stopped at 73.0
+  2.234073 seconds (43.49 M allocations: 1.145 GiB, 17.77% gc time)
+simulation 85 with proba tau=0.1        Tracing stopped at 76.5
+  2.100171 seconds (42.80 M allocations: 1.119 GiB, 10.46% gc time)
+simulation 86 with proba tau=0.1        Tracing stopped at 141.0
+  2.409106 seconds (37.97 M allocations: 952.339 MiB, 15.73% gc time)
+simulation 87 with proba tau=0.1        Tracing stopped at 89.0
+  2.044219 seconds (39.22 M allocations: 1016.906 MiB, 9.57% gc time)
+simulation 88 with proba tau=0.1        Tracing stopped at 84.5
+  2.080513 seconds (41.71 M allocations: 1.080 GiB, 10.04% gc time)
+simulation 89 with proba tau=0.1        Tracing stopped at 56.5
+  2.322512 seconds (55.66 M allocations: 1.563 GiB, 13.24% gc time)
+simulation 90 with proba tau=0.1        Tracing stopped at 102.5
+  2.125179 seconds (40.31 M allocations: 1.025 GiB, 9.89% gc time)
+simulation 91 with proba tau=0.1        Tracing stopped at 90.0
+  2.461460 seconds (44.69 M allocations: 1.178 GiB, 18.57% gc time)
+simulation 92 with proba tau=0.1        Tracing stopped at 77.5
+  2.073412 seconds (38.85 M allocations: 1009.002 MiB, 9.32% gc time)
+simulation 93 with proba tau=0.1        Tracing stopped at 82.0
+  2.248992 seconds (40.78 M allocations: 1.049 GiB, 17.61% gc time)
+simulation 94 with proba tau=0.1        Tracing stopped at 86.0
+  2.058637 seconds (39.61 M allocations: 1.008 GiB, 9.60% gc time)
+simulation 95 with proba tau=0.1        Tracing stopped at 82.0
+  2.215371 seconds (39.79 M allocations: 1.015 GiB, 17.31% gc time)
+simulation 96 with proba tau=0.1        Tracing stopped at 64.0
+  2.240122 seconds (53.56 M allocations: 1.489 GiB, 12.87% gc time)
+simulation 97 with proba tau=0.1        Tracing stopped at 65.0
+  2.312730 seconds (48.08 M allocations: 1.304 GiB, 18.86% gc time)
+simulation 98 with proba tau=0.1        Tracing stopped at 105.5
+  2.073434 seconds (38.38 M allocations: 981.738 MiB, 9.31% gc time)
+simulation 99 with proba tau=0.1        Tracing stopped at 89.0
+  2.207707 seconds (48.27 M allocations: 1.301 GiB, 11.45% gc time)
+simulation 100 with proba tau=0.1        Tracing stopped at 94.0
+  2.080887 seconds (39.28 M allocations: 1016.877 MiB, 9.58% gc time)</t>
+  </si>
+  <si>
+    <t>cmd</t>
+  </si>
+  <si>
+    <t>cmd2</t>
+  </si>
+  <si>
+    <t>cmd3</t>
+  </si>
+  <si>
+    <t>simulation 1 with proba tau=0.4        Tracing stopped at 84.0
+  6.198565 seconds (53.26 M allocations: 1.690 GiB, 4.64% gc time)
+simulation 2 with proba tau=0.4        Tracing stopped at 70.0
+  2.024496 seconds (37.72 M allocations: 973.329 MiB, 5.50% gc time)
+simulation 3 with proba tau=0.4        Tracing stopped at 144.5
+  2.248187 seconds (36.57 M allocations: 902.026 MiB, 4.90% gc time)
+simulation 4 with proba tau=0.4        Tracing stopped at 75.5
+  2.099301 seconds (39.86 M allocations: 1.021 GiB, 6.83% gc time)
+simulation 5 with proba tau=0.4        Tracing stopped at 92.5
+  2.240890 seconds (37.83 M allocations: 967.940 MiB, 4.90% gc time)
+simulation 6 with proba tau=0.4        Tracing stopped at 69.5
+  2.196634 seconds (40.78 M allocations: 1.055 GiB, 5.79% gc time)
+simulation 7 with proba tau=0.4        Tracing stopped at 69.0
+  2.229494 seconds (43.00 M allocations: 1.132 GiB, 5.89% gc time)
+simulation 8 with proba tau=0.4        Tracing stopped at 100.5
+  2.417664 seconds (37.56 M allocations: 954.575 MiB, 6.32% gc time)
+simulation 9 with proba tau=0.4        Tracing stopped at 87.5
+  2.416758 seconds (36.81 M allocations: 934.313 MiB, 10.99% gc time)
+simulation 10 with proba tau=0.4        Tracing stopped at 113.0
+  2.263992 seconds (37.17 M allocations: 936.507 MiB, 4.42% gc time)
+simulation 11 with proba tau=0.4        Tracing stopped at 64.5
+  2.332941 seconds (42.01 M allocations: 1.100 GiB, 5.67% gc time)
+simulation 12 with proba tau=0.4        Tracing stopped at 62.5
+  2.308824 seconds (42.84 M allocations: 1.129 GiB, 5.19% gc time)
+simulation 13 with proba tau=0.4        Tracing stopped at 80.0
+  2.689547 seconds (42.63 M allocations: 1.114 GiB, 4.72% gc time)
+simulation 14 with proba tau=0.4        Tracing stopped at 71.0
+  2.171963 seconds (41.90 M allocations: 1.092 GiB, 4.89% gc time)
+simulation 15 with proba tau=0.4        Tracing stopped at 76.0
+  2.164757 seconds (39.96 M allocations: 1.024 GiB, 4.94% gc time)
+simulation 16 with proba tau=0.4        Tracing stopped at 81.5
+  2.180125 seconds (37.97 M allocations: 977.224 MiB, 3.66% gc time)
+simulation 17 with proba tau=0.4        Tracing stopped at 75.5
+  2.224763 seconds (40.38 M allocations: 1.039 GiB, 6.02% gc time)
+simulation 18 with proba tau=0.4        Tracing stopped at 63.5
+  2.134136 seconds (37.99 M allocations: 986.670 MiB, 4.80% gc time)
+simulation 19 with proba tau=0.4        Tracing stopped at 103.0
+  2.270511 seconds (37.16 M allocations: 939.308 MiB, 4.24% gc time)
+simulation 20 with proba tau=0.4        Tracing stopped at 95.5
+  2.332750 seconds (41.01 M allocations: 1.052 GiB, 4.20% gc time)
+simulation 21 with proba tau=0.4        Tracing stopped at 63.0
+  2.301574 seconds (44.27 M allocations: 1.176 GiB, 6.37% gc time)
+simulation 22 with proba tau=0.4        Tracing stopped at 86.0
+  2.378555 seconds (40.57 M allocations: 1.041 GiB, 3.75% gc time)
+simulation 23 with proba tau=0.4        Tracing stopped at 112.0
+  2.522847 seconds (36.64 M allocations: 919.380 MiB, 5.30% gc time)
+simulation 24 with proba tau=0.4        Tracing stopped at 83.5
+  2.341983 seconds (38.19 M allocations: 984.145 MiB, 4.05% gc time)
+simulation 25 with proba tau=0.4        Tracing stopped at 72.0
+  2.311398 seconds (38.71 M allocations: 1007.797 MiB, 3.51% gc time)
+simulation 26 with proba tau=0.4        Tracing stopped at 85.5
+  2.418335 seconds (38.10 M allocations: 980.420 MiB, 5.30% gc time)
+simulation 27 with proba tau=0.4        Tracing stopped at 71.0
+  2.095325 seconds (37.81 M allocations: 976.088 MiB, 5.71% gc time)
+simulation 28 with proba tau=0.4        Tracing stopped at 152.0
+  2.274886 seconds (36.53 M allocations: 898.318 MiB, 3.80% gc time)
+simulation 29 with proba tau=0.4        Tracing stopped at 86.0
+  2.118273 seconds (36.44 M allocations: 922.397 MiB, 5.43% gc time)
+simulation 30 with proba tau=0.4        Tracing stopped at 70.0
+  2.093820 seconds (41.15 M allocations: 1.068 GiB, 5.58% gc time)
+simulation 31 with proba tau=0.4        Tracing stopped at 83.0
+  2.120238 seconds (36.99 M allocations: 941.368 MiB, 5.75% gc time)
+simulation 32 with proba tau=0.4        Tracing stopped at 140.5
+  2.284118 seconds (38.35 M allocations: 966.352 MiB, 3.53% gc time)
+simulation 33 with proba tau=0.4        Tracing stopped at 57.0
+  2.333220 seconds (49.66 M allocations: 1.361 GiB, 10.63% gc time)
+simulation 34 with proba tau=0.4        Tracing stopped at 94.5
+  2.059390 seconds (37.52 M allocations: 958.410 MiB, 4.06% gc time)
+simulation 35 with proba tau=0.4        Tracing stopped at 86.0
+  2.192244 seconds (39.96 M allocations: 1.019 GiB, 5.84% gc time)
+simulation 36 with proba tau=0.4        Tracing stopped at 81.0
+  2.096276 seconds (39.85 M allocations: 1.018 GiB, 4.11% gc time)
+simulation 37 with proba tau=0.4        Tracing stopped at 86.0
+  2.041256 seconds (36.76 M allocations: 933.157 MiB, 4.50% gc time)
+simulation 38 with proba tau=0.4        Tracing stopped at 51.0
+  2.092292 seconds (45.42 M allocations: 1.220 GiB, 6.70% gc time)
+simulation 39 with proba tau=0.4        Tracing stopped at 56.5
+  2.028389 seconds (39.62 M allocations: 1.021 GiB, 4.58% gc time)
+simulation 40 with proba tau=0.4        Tracing stopped at 66.5
+  2.110092 seconds (42.92 M allocations: 1.130 GiB, 4.48% gc time)
+simulation 41 with proba tau=0.4        Tracing stopped at 131.0
+  2.443741 seconds (35.83 M allocations: 880.287 MiB, 2.13% gc time)
+simulation 42 with proba tau=0.4        Tracing stopped at 75.5
+  2.234179 seconds (39.44 M allocations: 1.007 GiB, 4.90% gc time)
+simulation 43 with proba tau=0.4        Tracing stopped at 88.5
+  2.221817 seconds (36.84 M allocations: 934.701 MiB, 4.72% gc time)
+simulation 44 with proba tau=0.4        Tracing stopped at 65.5
+  2.148549 seconds (41.81 M allocations: 1.092 GiB, 2.83% gc time)
+simulation 45 with proba tau=0.4        Tracing stopped at 69.5
+  2.189171 seconds (40.20 M allocations: 1.036 GiB, 5.17% gc time)
+simulation 46 with proba tau=0.4        Tracing stopped at 134.0
+  2.468263 seconds (37.81 M allocations: 948.388 MiB, 4.67% gc time)
+simulation 47 with proba tau=0.4        Tracing stopped at 100.0
+  2.250440 seconds (40.50 M allocations: 1.034 GiB, 5.02% gc time)
+simulation 48 with proba tau=0.4        Tracing stopped at 135.5
+  2.304857 seconds (38.67 M allocations: 978.906 MiB, 2.65% gc time)
+simulation 49 with proba tau=0.4        Tracing stopped at 77.5
+  2.181504 seconds (36.91 M allocations: 942.558 MiB, 3.03% gc time)
+simulation 50 with proba tau=0.4        Tracing stopped at 74.5
+  2.110081 seconds (38.62 M allocations: 1003.862 MiB, 2.75% gc time)
+simulation 51 with proba tau=0.4        Tracing stopped at 64.0
+  2.227538 seconds (43.01 M allocations: 1.133 GiB, 5.71% gc time)
+simulation 52 with proba tau=0.4        Tracing stopped at 83.0
+  2.301164 seconds (37.94 M allocations: 975.506 MiB, 6.02% gc time)
+simulation 53 with proba tau=0.4        Tracing stopped at 79.5
+  2.354349 seconds (40.53 M allocations: 1.042 GiB, 5.70% gc time)
+simulation 54 with proba tau=0.4        Tracing stopped at 75.0
+  2.409670 seconds (37.31 M allocations: 957.230 MiB, 5.91% gc time)
+simulation 55 with proba tau=0.4        Tracing stopped at 87.0
+  2.417552 seconds (37.72 M allocations: 965.409 MiB, 5.80% gc time)
+simulation 56 with proba tau=0.4        Tracing stopped at 96.5
+  2.446862 seconds (36.55 M allocations: 922.570 MiB, 2.94% gc time)
+simulation 57 with proba tau=0.4        Tracing stopped at 86.5
+  2.344903 seconds (37.33 M allocations: 952.756 MiB, 3.13% gc time)
+simulation 58 with proba tau=0.4        Tracing stopped at 83.0
+  2.487584 seconds (38.71 M allocations: 1002.340 MiB, 3.19% gc time)
+simulation 59 with proba tau=0.4        Tracing stopped at 73.5
+  2.405641 seconds (39.53 M allocations: 1.010 GiB, 6.26% gc time)
+simulation 60 with proba tau=0.4        Tracing stopped at 129.5
+  2.429881 seconds (36.98 M allocations: 922.308 MiB, 3.09% gc time)
+simulation 61 with proba tau=0.4        Tracing stopped at 55.5
+  2.369987 seconds (49.34 M allocations: 1.351 GiB, 6.26% gc time)
+simulation 62 with proba tau=0.4        Tracing stopped at 123.0
+  2.365735 seconds (35.01 M allocations: 858.301 MiB, 3.30% gc time)
+simulation 63 with proba tau=0.4        Tracing stopped at 70.5
+  2.210964 seconds (39.56 M allocations: 1.013 GiB, 3.09% gc time)
+simulation 64 with proba tau=0.4        Tracing stopped at 77.5
+  2.155242 seconds (40.49 M allocations: 1.042 GiB, 3.57% gc time)
+simulation 65 with proba tau=0.4        Tracing stopped at 84.5
+  2.361353 seconds (37.40 M allocations: 955.696 MiB, 6.49% gc time)
+simulation 66 with proba tau=0.4        Tracing stopped at 60.0
+  2.167322 seconds (40.39 M allocations: 1.046 GiB, 3.79% gc time)
+simulation 67 with proba tau=0.4        Tracing stopped at 67.0
+  2.180891 seconds (39.40 M allocations: 1.009 GiB, 3.63% gc time)
+simulation 68 with proba tau=0.4        Tracing stopped at 67.0
+  2.325590 seconds (44.58 M allocations: 1.186 GiB, 6.67% gc time)
+simulation 69 with proba tau=0.4        Tracing stopped at 84.0
+  2.311968 seconds (39.34 M allocations: 1.000 GiB, 3.56% gc time)
+simulation 70 with proba tau=0.4        Tracing stopped at 82.5
+  2.279684 seconds (41.31 M allocations: 1.067 GiB, 3.55% gc time)
+simulation 71 with proba tau=0.4        Tracing stopped at 67.5
+  2.187491 seconds (41.59 M allocations: 1.084 GiB, 4.12% gc time)
+simulation 72 with proba tau=0.4        Tracing stopped at 72.0
+  2.268824 seconds (38.54 M allocations: 1001.443 MiB, 3.82% gc time)
+simulation 73 with proba tau=0.4        Tracing stopped at 71.5
+  2.291322 seconds (43.95 M allocations: 1.161 GiB, 3.52% gc time)
+simulation 74 with proba tau=0.4        Tracing stopped at 99.5
+  2.438695 seconds (38.88 M allocations: 1001.313 MiB, 8.11% gc time)
+simulation 75 with proba tau=0.4        Tracing stopped at 74.0
+  2.546581 seconds (40.67 M allocations: 1.050 GiB, 3.93% gc time)
+simulation 76 with proba tau=0.4        Tracing stopped at 90.0
+  2.552850 seconds (35.25 M allocations: 880.660 MiB, 4.15% gc time)
+simulation 77 with proba tau=0.4        Tracing stopped at 83.5
+  2.604215 seconds (35.59 M allocations: 892.986 MiB, 3.93% gc time)
+simulation 78 with proba tau=0.4        Tracing stopped at 77.0
+  2.556962 seconds (37.08 M allocations: 947.745 MiB, 4.19% gc time)
+simulation 79 with proba tau=0.4        Tracing stopped at 90.5
+  2.600022 seconds (36.27 M allocations: 914.675 MiB, 4.37% gc time)
+simulation 80 with proba tau=0.4        Tracing stopped at 73.0
+  2.411048 seconds (43.33 M allocations: 1.140 GiB, 4.34% gc time)
+simulation 81 with proba tau=0.4        Tracing stopped at 67.0
+  2.640102 seconds (43.06 M allocations: 1.134 GiB, 15.40% gc time)
+simulation 82 with proba tau=0.4        Tracing stopped at 52.5
+  2.556923 seconds (46.60 M allocations: 1.259 GiB, 8.97% gc time)
+simulation 83 with proba tau=0.4        Tracing stopped at 93.5
+  2.342985 seconds (37.34 M allocations: 950.768 MiB, 3.99% gc time)
+simulation 84 with proba tau=0.4        Tracing stopped at 84.0
+  2.373488 seconds (37.32 M allocations: 953.540 MiB, 4.57% gc time)
+simulation 85 with proba tau=0.4        Tracing stopped at 61.5
+  2.517176 seconds (45.03 M allocations: 1.202 GiB, 8.10% gc time)
+simulation 86 with proba tau=0.4        Tracing stopped at 72.0
+  2.248623 seconds (38.62 M allocations: 1005.476 MiB, 4.50% gc time)
+simulation 87 with proba tau=0.4        Tracing stopped at 101.0
+  2.523069 seconds (37.58 M allocations: 955.675 MiB, 3.97% gc time)
+simulation 88 with proba tau=0.4        Tracing stopped at 88.5
+  2.377463 seconds (38.73 M allocations: 1002.624 MiB, 4.78% gc time)
+simulation 89 with proba tau=0.4        Tracing stopped at 118.0
+  2.515255 seconds (37.60 M allocations: 948.280 MiB, 4.32% gc time)
+simulation 90 with proba tau=0.4        Tracing stopped at 70.5
+  2.309150 seconds (38.21 M allocations: 991.118 MiB, 4.48% gc time)
+simulation 91 with proba tau=0.4        Tracing stopped at 92.0
+  2.469870 seconds (37.56 M allocations: 958.352 MiB, 4.55% gc time)
+simulation 92 with proba tau=0.4        Tracing stopped at 96.0
+  2.370649 seconds (37.07 M allocations: 939.117 MiB)
+simulation 93 with proba tau=0.4        Tracing stopped at 78.0
+  2.334537 seconds (39.12 M allocations: 1019.358 MiB, 4.71% gc time)
+simulation 94 with proba tau=0.4        Tracing stopped at 114.5
+  2.448279 seconds (35.75 M allocations: 886.076 MiB, 4.31% gc time)
+simulation 95 with proba tau=0.4        Tracing stopped at 57.5
+  2.299941 seconds (39.94 M allocations: 1.033 GiB, 4.89% gc time)
+simulation 96 with proba tau=0.4        Tracing stopped at 87.5
+  2.411251 seconds (36.88 M allocations: 936.190 MiB, 4.82% gc time)
+simulation 97 with proba tau=0.4        Tracing stopped at 60.0
+  2.454656 seconds (43.86 M allocations: 1.162 GiB, 5.38% gc time)
+simulation 98 with proba tau=0.4        Tracing stopped at 74.5
+  2.375867 seconds (40.51 M allocations: 1.044 GiB, 4.90% gc time)
+simulation 99 with proba tau=0.4        Tracing stopped at 76.5
+  2.340603 seconds (37.41 M allocations: 961.132 MiB, 5.27% gc time)
+simulation 100 with proba tau=0.4        Tracing stopped at 63.0
+  2.344003 seconds (40.97 M allocations: 1.065 GiB, 4.84% gc time)</t>
+  </si>
+  <si>
+    <t>simulation 1 with proba tau=0.6        Tracing stopped at 85.0
+  6.485830 seconds (52.52 M allocations: 1.664 GiB, 5.09% gc time)
+simulation 2 with proba tau=0.6        Tracing stopped at 81.5
+  2.146148 seconds (39.02 M allocations: 1014.220 MiB, 5.86% gc time)
+simulation 3 with proba tau=0.6        Tracing stopped at 66.0
+  2.032437 seconds (39.11 M allocations: 1023.309 MiB, 5.45% gc time)
+simulation 4 with proba tau=0.6        Tracing stopped at 126.0
+  2.247397 seconds (37.09 M allocations: 926.065 MiB, 5.27% gc time)
+simulation 5 with proba tau=0.6        Tracing stopped at 70.5
+  2.289962 seconds (40.21 M allocations: 1.036 GiB, 5.85% gc time)
+simulation 6 with proba tau=0.6        Tracing stopped at 52.5
+  2.106230 seconds (42.91 M allocations: 1.134 GiB, 7.73% gc time)
+simulation 7 with proba tau=0.6        Tracing stopped at 98.5
+  2.327777 seconds (40.94 M allocations: 1.048 GiB, 6.66% gc time)
+simulation 8 with proba tau=0.6        Tracing stopped at 101.5
+  2.487882 seconds (43.29 M allocations: 1.127 GiB, 10.09% gc time)
+simulation 9 with proba tau=0.6        Tracing stopped at 66.0
+  2.298520 seconds (41.71 M allocations: 1.088 GiB, 4.67% gc time)
+simulation 10 with proba tau=0.6        Tracing stopped at 80.0
+  2.228934 seconds (38.88 M allocations: 1009.760 MiB, 5.29% gc time)
+simulation 11 with proba tau=0.6        Tracing stopped at 80.0
+  2.213894 seconds (37.83 M allocations: 973.548 MiB, 4.79% gc time)
+simulation 12 with proba tau=0.6        Tracing stopped at 68.5
+  2.148514 seconds (36.79 M allocations: 942.171 MiB, 4.84% gc time)
+simulation 13 with proba tau=0.6        Tracing stopped at 75.0
+  2.072504 seconds (37.99 M allocations: 979.624 MiB, 3.96% gc time)
+simulation 14 with proba tau=0.6        Tracing stopped at 82.5
+  2.198177 seconds (48.03 M allocations: 1.294 GiB, 5.78% gc time)
+simulation 15 with proba tau=0.6        Tracing stopped at 82.5
+  1.954222 seconds (36.56 M allocations: 929.884 MiB, 4.06% gc time)
+simulation 16 with proba tau=0.6        Tracing stopped at 62.0
+  2.023848 seconds (41.78 M allocations: 1.092 GiB, 5.49% gc time)
+simulation 17 with proba tau=0.6        Tracing stopped at 107.5
+  2.097666 seconds (35.49 M allocations: 880.317 MiB, 3.83% gc time)
+simulation 18 with proba tau=0.6        Tracing stopped at 81.5
+  1.977059 seconds (37.92 M allocations: 976.344 MiB, 3.30% gc time)
+simulation 19 with proba tau=0.6        Tracing stopped at 70.5
+  1.973042 seconds (38.56 M allocations: 1002.910 MiB, 4.23% gc time)
+simulation 20 with proba tau=0.6        Tracing stopped at 93.5
+  2.117501 seconds (37.57 M allocations: 957.349 MiB, 4.23% gc time)
+simulation 21 with proba tau=0.6        Tracing stopped at 84.0
+  2.043523 seconds (38.92 M allocations: 1009.194 MiB, 4.48% gc time)
+simulation 22 with proba tau=0.6        Tracing stopped at 91.0
+  2.098386 seconds (38.89 M allocations: 1005.317 MiB, 4.65% gc time)
+simulation 23 with proba tau=0.6        Tracing stopped at 64.5
+  1.917744 seconds (36.52 M allocations: 934.613 MiB, 3.91% gc time)
+simulation 24 with proba tau=0.6        Tracing stopped at 91.0
+  2.049576 seconds (35.17 M allocations: 876.181 MiB, 3.48% gc time)
+simulation 25 with proba tau=0.6        Tracing stopped at 68.5
+  2.008217 seconds (38.75 M allocations: 1011.951 MiB, 5.07% gc time)
+simulation 26 with proba tau=0.6        Tracing stopped at 70.5
+  2.008940 seconds (36.95 M allocations: 946.083 MiB, 5.35% gc time)
+simulation 27 with proba tau=0.6        Tracing stopped at 102.5
+  2.315333 seconds (36.31 M allocations: 909.760 MiB, 5.04% gc time)
+simulation 28 with proba tau=0.6        Tracing stopped at 64.5
+  2.089747 seconds (36.66 M allocations: 940.306 MiB, 5.91% gc time)
+simulation 29 with proba tau=0.6        Tracing stopped at 117.0
+  2.248833 seconds (38.17 M allocations: 969.921 MiB, 5.26% gc time)
+simulation 30 with proba tau=0.6        Tracing stopped at 74.0
+  2.207564 seconds (40.49 M allocations: 1.043 GiB, 8.01% gc time)
+simulation 31 with proba tau=0.6        Tracing stopped at 89.0
+  2.137254 seconds (35.58 M allocations: 891.561 MiB, 2.30% gc time)
+simulation 32 with proba tau=0.6        Tracing stopped at 66.5
+  2.434101 seconds (44.62 M allocations: 1.185 GiB, 5.80% gc time)
+simulation 33 with proba tau=0.6        Tracing stopped at 105.5
+  2.313278 seconds (37.87 M allocations: 962.548 MiB, 6.05% gc time)
+simulation 34 with proba tau=0.6        Tracing stopped at 92.5
+  2.146249 seconds (37.64 M allocations: 961.544 MiB, 4.06% gc time)
+simulation 35 with proba tau=0.6        Tracing stopped at 68.5
+  2.122080 seconds (36.88 M allocations: 944.500 MiB, 4.53% gc time)
+simulation 36 with proba tau=0.6        Tracing stopped at 56.0
+  2.266172 seconds (51.25 M allocations: 1.416 GiB, 6.41% gc time)
+simulation 37 with proba tau=0.6        Tracing stopped at 70.0
+  2.157760 seconds (39.15 M allocations: 1023.039 MiB, 4.46% gc time)
+simulation 38 with proba tau=0.6        Tracing stopped at 56.5
+  2.176410 seconds (42.46 M allocations: 1.118 GiB, 5.35% gc time)
+simulation 39 with proba tau=0.6        Tracing stopped at 77.5
+  2.204776 seconds (36.48 M allocations: 927.160 MiB, 4.64% gc time)
+simulation 40 with proba tau=0.6        Tracing stopped at 129.5
+  2.440184 seconds (35.46 M allocations: 870.912 MiB, 2.53% gc time)
+simulation 41 with proba tau=0.6        Tracing stopped at 112.5
+  2.290308 seconds (36.37 M allocations: 908.231 MiB, 2.36% gc time)
+simulation 42 with proba tau=0.6        Tracing stopped at 78.5
+  2.314557 seconds (35.14 M allocations: 881.394 MiB, 5.13% gc time)
+simulation 43 with proba tau=0.6        Tracing stopped at 106.5
+  2.317615 seconds (36.70 M allocations: 923.651 MiB, 5.45% gc time)
+simulation 44 with proba tau=0.6        Tracing stopped at 81.5
+  2.422739 seconds (36.98 M allocations: 943.619 MiB, 5.13% gc time)
+simulation 45 with proba tau=0.6        Tracing stopped at 63.0
+  2.283384 seconds (41.91 M allocations: 1.098 GiB, 5.62% gc time)
+simulation 46 with proba tau=0.6        Tracing stopped at 214.5
+  2.453515 seconds (39.37 M allocations: 972.099 MiB, 4.93% gc time)
+simulation 47 with proba tau=0.6        Tracing stopped at 90.5
+  2.265360 seconds (36.93 M allocations: 938.215 MiB, 5.29% gc time)
+simulation 48 with proba tau=0.6        Tracing stopped at 112.5
+  2.277973 seconds (37.64 M allocations: 953.178 MiB, 5.07% gc time)
+simulation 49 with proba tau=0.6        Tracing stopped at 65.0
+  2.055450 seconds (37.75 M allocations: 977.101 MiB, 5.50% gc time)
+simulation 50 with proba tau=0.6        Tracing stopped at 97.0
+  2.257019 seconds (40.19 M allocations: 1.025 GiB, 5.58% gc time)
+simulation 51 with proba tau=0.6        Tracing stopped at 68.0
+  2.221960 seconds (42.94 M allocations: 1.129 GiB, 6.27% gc time)
+simulation 52 with proba tau=0.6        Tracing stopped at 98.0
+  2.184412 seconds (36.04 M allocations: 902.867 MiB, 3.08% gc time)
+simulation 53 with proba tau=0.6        Tracing stopped at 53.5
+  2.216208 seconds (45.57 M allocations: 1.224 GiB, 3.27% gc time)
+simulation 54 with proba tau=0.6        Tracing stopped at 59.5
+  2.256759 seconds (47.01 M allocations: 1.271 GiB, 5.99% gc time)
+simulation 55 with proba tau=0.6        Tracing stopped at 60.5
+  2.131934 seconds (39.46 M allocations: 1.014 GiB, 6.12% gc time)
+simulation 56 with proba tau=0.6        Tracing stopped at 68.0
+  2.168636 seconds (39.67 M allocations: 1.017 GiB, 6.40% gc time)
+simulation 57 with proba tau=0.6        Tracing stopped at 81.5
+  2.215805 seconds (36.53 M allocations: 928.105 MiB, 6.31% gc time)
+simulation 58 with proba tau=0.6        Tracing stopped at 105.5
+  2.180302 seconds (36.95 M allocations: 933.008 MiB, 3.13% gc time)
+simulation 59 with proba tau=0.6        Tracing stopped at 85.5
+  2.137730 seconds (36.69 M allocations: 931.292 MiB, 3.31% gc time)
+simulation 60 with proba tau=0.6        Tracing stopped at 85.0
+  2.252854 seconds (37.28 M allocations: 953.002 MiB, 6.53% gc time)
+simulation 61 with proba tau=0.6        Tracing stopped at 56.5
+  2.479835 seconds (44.90 M allocations: 1.200 GiB, 6.93% gc time)
+simulation 62 with proba tau=0.6        Tracing stopped at 53.0
+  2.570902 seconds (48.46 M allocations: 1.323 GiB, 6.01% gc time)
+simulation 63 with proba tau=0.6        Tracing stopped at 57.0
+  2.478438 seconds (40.06 M allocations: 1.036 GiB, 7.03% gc time)
+simulation 64 with proba tau=0.6        Tracing stopped at 79.0
+  2.546864 seconds (40.56 M allocations: 1.044 GiB, 6.82% gc time)
+simulation 65 with proba tau=0.6        Tracing stopped at 84.0
+  2.536149 seconds (36.12 M allocations: 910.624 MiB, 3.50% gc time)
+simulation 66 with proba tau=0.6        Tracing stopped at 66.5
+  2.173070 seconds (36.17 M allocations: 921.313 MiB, 3.73% gc time)
+simulation 67 with proba tau=0.6        Tracing stopped at 73.5
+  2.210520 seconds (35.78 M allocations: 905.176 MiB, 3.87% gc time)
+simulation 68 with proba tau=0.6        Tracing stopped at 61.0
+  2.205208 seconds (41.62 M allocations: 1.087 GiB, 3.68% gc time)
+simulation 69 with proba tau=0.6        Tracing stopped at 67.0
+  2.234754 seconds (38.00 M allocations: 985.213 MiB, 7.79% gc time)
+simulation 70 with proba tau=0.6        Tracing stopped at 120.0
+  2.376206 seconds (34.68 M allocations: 846.860 MiB, 3.99% gc time)
+simulation 71 with proba tau=0.6        Tracing stopped at 47.0
+  2.481261 seconds (51.36 M allocations: 1.423 GiB, 7.33% gc time)
+simulation 72 with proba tau=0.6        Tracing stopped at 119.0
+  2.375392 seconds (35.28 M allocations: 866.326 MiB, 4.15% gc time)
+simulation 73 with proba tau=0.6        Tracing stopped at 62.5
+  2.250098 seconds (40.31 M allocations: 1.043 GiB, 4.06% gc time)
+simulation 74 with proba tau=0.6        Tracing stopped at 60.0
+  2.301023 seconds (37.47 M allocations: 969.704 MiB, 8.82% gc time)
+simulation 75 with proba tau=0.6        Tracing stopped at 80.0
+  2.313709 seconds (41.83 M allocations: 1.088 GiB, 3.80% gc time)
+simulation 76 with proba tau=0.6        Tracing stopped at 70.5
+  2.305511 seconds (41.26 M allocations: 1.071 GiB, 5.98% gc time)
+simulation 77 with proba tau=0.6        Tracing stopped at 100.0
+  2.528445 seconds (38.45 M allocations: 986.278 MiB, 8.26% gc time)
+simulation 78 with proba tau=0.6        Tracing stopped at 93.5
+  2.306490 seconds (37.21 M allocations: 946.169 MiB, 4.92% gc time)
+simulation 79 with proba tau=0.6        Tracing stopped at 58.0
+  2.180373 seconds (40.19 M allocations: 1.040 GiB, 4.70% gc time)
+simulation 80 with proba tau=0.6        Tracing stopped at 100.5
+  2.341466 seconds (35.92 M allocations: 897.324 MiB, 4.34% gc time)
+simulation 81 with proba tau=0.6        Tracing stopped at 71.5
+  2.212625 seconds (37.90 M allocations: 979.541 MiB, 4.31% gc time)
+simulation 82 with proba tau=0.6        Tracing stopped at 81.5
+  2.295000 seconds (38.80 M allocations: 1006.865 MiB, 4.45% gc time)
+simulation 83 with proba tau=0.6        Tracing stopped at 85.0
+  2.477907 seconds (44.14 M allocations: 1.163 GiB, 9.20% gc time)
+simulation 84 with proba tau=0.6        Tracing stopped at 91.0
+  2.257723 seconds (35.74 M allocations: 896.885 MiB, 4.49% gc time)
+simulation 85 with proba tau=0.6        Tracing stopped at 81.5
+  2.250301 seconds (36.51 M allocations: 926.710 MiB, 5.17% gc time)
+simulation 86 with proba tau=0.6        Tracing stopped at 75.5
+  2.210240 seconds (39.54 M allocations: 1.011 GiB, 4.73% gc time)
+simulation 87 with proba tau=0.6        Tracing stopped at 78.0
+  2.275909 seconds (35.66 M allocations: 899.516 MiB, 4.70% gc time)
+simulation 88 with proba tau=0.6        Tracing stopped at 55.0
+  2.630266 seconds (52.75 M allocations: 1.466 GiB, 8.74% gc time)
+simulation 89 with proba tau=0.6        Tracing stopped at 96.5
+  2.315597 seconds (36.68 M allocations: 926.845 MiB, 4.46% gc time)
+simulation 90 with proba tau=0.6        Tracing stopped at 63.5
+  2.086040 seconds (39.36 M allocations: 1.009 GiB, 4.81% gc time)
+simulation 91 with proba tau=0.6        Tracing stopped at 104.0
+  2.208131 seconds (37.06 M allocations: 936.601 MiB, 4.29% gc time)
+simulation 92 with proba tau=0.6        Tracing stopped at 67.5
+  2.017652 seconds (40.66 M allocations: 1.052 GiB, 4.77% gc time)
+simulation 93 with proba tau=0.6        Tracing stopped at 53.5
+  2.137679 seconds (48.41 M allocations: 1.320 GiB, 4.55% gc time)
+simulation 94 with proba tau=0.6        Tracing stopped at 101.5
+  2.002429 seconds (36.15 M allocations: 906.366 MiB)
+simulation 95 with proba tau=0.6        Tracing stopped at 108.0
+  2.086380 seconds (34.67 M allocations: 850.282 MiB)
+simulation 96 with proba tau=0.6        Tracing stopped at 98.0
+  2.083286 seconds (35.73 M allocations: 892.876 MiB, 4.84% gc time)
+simulation 97 with proba tau=0.6        Tracing stopped at 64.5
+  2.060926 seconds (40.65 M allocations: 1.052 GiB, 4.82% gc time)
+simulation 98 with proba tau=0.6        Tracing stopped at 62.0
+  2.087075 seconds (39.76 M allocations: 1.024 GiB, 4.84% gc time)
+simulation 99 with proba tau=0.6        Tracing stopped at 149.5
+  2.279090 seconds (35.67 M allocations: 868.014 MiB, 4.58% gc time)
+simulation 100 with proba tau=0.6        Tracing stopped at 149.0
+  2.264968 seconds (41.71 M allocations: 1.055 GiB, 4.56% gc time)</t>
+  </si>
+  <si>
+    <t>simulation 1 with proba tau=0.7        Tracing stopped at 82.0
+  6.589961 seconds (53.77 M allocations: 1.709 GiB, 4.65% gc time)
+simulation 2 with proba tau=0.7        Tracing stopped at 55.5
+  2.107534 seconds (40.53 M allocations: 1.053 GiB, 5.69% gc time)
+simulation 3 with proba tau=0.7        Tracing stopped at 67.5
+  2.133087 seconds (38.00 M allocations: 984.152 MiB, 4.81% gc time)
+simulation 4 with proba tau=0.7        Tracing stopped at 72.5
+  2.341777 seconds (39.29 M allocations: 1.002 GiB, 4.54% gc time)
+simulation 5 with proba tau=0.7        Tracing stopped at 136.5
+  2.382610 seconds (35.30 M allocations: 862.202 MiB, 4.69% gc time)
+simulation 6 with proba tau=0.7        Tracing stopped at 69.0
+  2.312331 seconds (37.40 M allocations: 963.401 MiB, 6.79% gc time)
+simulation 7 with proba tau=0.7        Tracing stopped at 73.5
+  2.268001 seconds (39.74 M allocations: 1.018 GiB, 9.74% gc time)
+simulation 8 with proba tau=0.7        Tracing stopped at 66.5
+  2.264850 seconds (39.28 M allocations: 1.006 GiB, 5.18% gc time)
+simulation 9 with proba tau=0.7        Tracing stopped at 42.0
+  2.432935 seconds (57.43 M allocations: 1.630 GiB, 7.16% gc time)
+simulation 10 with proba tau=0.7        Tracing stopped at 95.0
+  2.166727 seconds (36.63 M allocations: 925.520 MiB, 4.24% gc time)
+simulation 11 with proba tau=0.7        Tracing stopped at 82.5
+  2.165661 seconds (36.98 M allocations: 942.944 MiB, 4.69% gc time)
+simulation 12 with proba tau=0.7        Tracing stopped at 76.0
+  2.064836 seconds (35.82 M allocations: 906.198 MiB, 4.68% gc time)
+simulation 13 with proba tau=0.7        Tracing stopped at 86.5
+  2.011119 seconds (34.75 M allocations: 863.438 MiB, 3.81% gc time)
+simulation 14 with proba tau=0.7        Tracing stopped at 70.0
+  1.976893 seconds (36.41 M allocations: 928.455 MiB, 4.94% gc time)
+simulation 15 with proba tau=0.7        Tracing stopped at 89.5
+  2.184509 seconds (35.29 M allocations: 881.432 MiB, 3.46% gc time)
+simulation 16 with proba tau=0.7        Tracing stopped at 58.5
+  2.162068 seconds (43.46 M allocations: 1.151 GiB, 6.27% gc time)
+simulation 17 with proba tau=0.7        Tracing stopped at 89.5
+  2.219186 seconds (37.85 M allocations: 970.065 MiB, 5.57% gc time)
+simulation 18 with proba tau=0.7        Tracing stopped at 56.0
+  2.097185 seconds (38.28 M allocations: 999.539 MiB, 5.88% gc time)
+simulation 19 with proba tau=0.7        Tracing stopped at 64.0
+  2.237640 seconds (44.01 M allocations: 1.166 GiB, 5.94% gc time)
+simulation 20 with proba tau=0.7        Tracing stopped at 66.5
+  2.113906 seconds (38.74 M allocations: 1010.747 MiB, 4.88% gc time)
+simulation 21 with proba tau=0.7        Tracing stopped at 83.0
+  2.148031 seconds (37.14 M allocations: 948.230 MiB, 4.62% gc time)
+simulation 22 with proba tau=0.7        Tracing stopped at 115.5
+  2.233839 seconds (36.82 M allocations: 924.865 MiB, 4.73% gc time)
+simulation 23 with proba tau=0.7        Tracing stopped at 64.5
+  2.063494 seconds (39.05 M allocations: 1.001 GiB, 5.36% gc time)
+simulation 24 with proba tau=0.7        Tracing stopped at 94.5
+  2.238778 seconds (35.72 M allocations: 894.731 MiB, 5.34% gc time)
+simulation 25 with proba tau=0.7        Tracing stopped at 88.5
+  2.318334 seconds (35.77 M allocations: 899.233 MiB, 4.34% gc time)
+simulation 26 with proba tau=0.7        Tracing stopped at 63.0
+  2.723253 seconds (38.02 M allocations: 987.990 MiB, 17.91% gc time)
+simulation 27 with proba tau=0.7        Tracing stopped at 74.5
+  2.424342 seconds (37.59 M allocations: 967.903 MiB, 3.47% gc time)
+simulation 28 with proba tau=0.7        Tracing stopped at 98.0
+  2.470705 seconds (35.54 M allocations: 886.676 MiB, 3.84% gc time)
+simulation 29 with proba tau=0.7        Tracing stopped at 80.5
+  2.431809 seconds (37.88 M allocations: 974.933 MiB, 3.98% gc time)
+simulation 30 with proba tau=0.7        Tracing stopped at 73.0
+  2.297047 seconds (37.67 M allocations: 970.127 MiB, 4.17% gc time)
+simulation 31 with proba tau=0.7        Tracing stopped at 59.5
+  2.184630 seconds (40.19 M allocations: 1.040 GiB, 4.92% gc time)
+simulation 32 with proba tau=0.7        Tracing stopped at 50.5
+  2.221399 seconds (42.01 M allocations: 1.105 GiB, 6.56% gc time)
+simulation 33 with proba tau=0.7        Tracing stopped at 84.0
+  2.269233 seconds (40.47 M allocations: 1.039 GiB, 4.59% gc time)
+simulation 34 with proba tau=0.7        Tracing stopped at 84.0
+  2.276724 seconds (37.04 M allocations: 943.772 MiB, 4.38% gc time)
+simulation 35 with proba tau=0.7        Tracing stopped at 83.0
+  2.211605 seconds (37.49 M allocations: 961.097 MiB, 5.06% gc time)
+simulation 36 with proba tau=0.7        Tracing stopped at 93.0
+  2.153869 seconds (34.17 M allocations: 841.226 MiB, 2.66% gc time)
+simulation 37 with proba tau=0.7        Tracing stopped at 81.5
+  2.294635 seconds (36.93 M allocations: 941.358 MiB, 4.48% gc time)
+simulation 38 with proba tau=0.7        Tracing stopped at 78.0
+  2.274330 seconds (36.41 M allocations: 924.721 MiB, 4.51% gc time)
+simulation 39 with proba tau=0.7        Tracing stopped at 81.0
+  2.198013 seconds (37.07 M allocations: 945.755 MiB, 2.68% gc time)
+simulation 40 with proba tau=0.7        Tracing stopped at 66.5
+  2.209394 seconds (36.74 M allocations: 941.015 MiB, 5.06% gc time)
+simulation 41 with proba tau=0.7        Tracing stopped at 56.5
+  2.220989 seconds (41.40 M allocations: 1.082 GiB, 5.11% gc time)
+simulation 42 with proba tau=0.7        Tracing stopped at 69.5
+  2.138590 seconds (35.45 M allocations: 895.738 MiB, 2.55% gc time)
+simulation 43 with proba tau=0.7        Tracing stopped at 96.5
+  2.361460 seconds (40.48 M allocations: 1.034 GiB, 4.78% gc time)
+simulation 44 with proba tau=0.7        Tracing stopped at 56.0
+  2.350007 seconds (47.27 M allocations: 1.280 GiB, 7.55% gc time)
+simulation 45 with proba tau=0.7        Tracing stopped at 103.0
+  2.355138 seconds (38.85 M allocations: 998.450 MiB, 4.84% gc time)
+simulation 46 with proba tau=0.7        Tracing stopped at 72.5
+  2.327759 seconds (41.66 M allocations: 1.083 GiB, 5.10% gc time)
+simulation 47 with proba tau=0.7        Tracing stopped at 55.0
+  2.286212 seconds (41.15 M allocations: 1.074 GiB, 5.96% gc time)
+simulation 48 with proba tau=0.7        Tracing stopped at 78.0
+  2.266227 seconds (37.70 M allocations: 969.533 MiB, 5.36% gc time)
+simulation 49 with proba tau=0.7        Tracing stopped at 67.0
+  2.245109 seconds (37.69 M allocations: 974.306 MiB, 5.75% gc time)
+simulation 50 with proba tau=0.7        Tracing stopped at 109.0
+  2.400809 seconds (37.42 M allocations: 946.108 MiB, 5.36% gc time)
+simulation 51 with proba tau=0.7        Tracing stopped at 51.0
+  2.362335 seconds (47.08 M allocations: 1.276 GiB, 5.54% gc time)
+simulation 52 with proba tau=0.7        Tracing stopped at 82.0
+  2.239240 seconds (39.31 M allocations: 1.001 GiB, 3.63% gc time)
+simulation 53 with proba tau=0.7        Tracing stopped at 71.0
+  2.198741 seconds (34.91 M allocations: 874.419 MiB, 3.10% gc time)
+simulation 54 with proba tau=0.7        Tracing stopped at 73.5
+  1.995750 seconds (34.32 M allocations: 853.391 MiB, 2.95% gc time)
+simulation 55 with proba tau=0.7        Tracing stopped at 93.5
+  2.125755 seconds (36.19 M allocations: 910.443 MiB, 5.86% gc time)
+simulation 56 with proba tau=0.7        Tracing stopped at 85.5
+  2.108895 seconds (37.76 M allocations: 968.207 MiB, 5.86% gc time)
+simulation 57 with proba tau=0.7        Tracing stopped at 67.0
+  1.977160 seconds (37.30 M allocations: 960.740 MiB, 3.14% gc time)
+simulation 58 with proba tau=0.7        Tracing stopped at 80.0
+  2.176582 seconds (38.48 M allocations: 994.869 MiB, 2.87% gc time)
+simulation 59 with proba tau=0.7        Tracing stopped at 72.0
+  1.964770 seconds (35.68 M allocations: 902.780 MiB, 3.25% gc time)
+simulation 60 with proba tau=0.7        Tracing stopped at 78.0
+  2.089770 seconds (34.81 M allocations: 868.516 MiB, 6.35% gc time)
+simulation 61 with proba tau=0.7        Tracing stopped at 85.5
+  2.060943 seconds (36.14 M allocations: 913.094 MiB, 3.23% gc time)
+simulation 62 with proba tau=0.7        Tracing stopped at 80.5
+  2.069008 seconds (38.56 M allocations: 998.904 MiB, 3.21% gc time)
+simulation 63 with proba tau=0.7        Tracing stopped at 97.5
+  2.201661 seconds (39.16 M allocations: 1011.327 MiB, 6.23% gc time)
+simulation 64 with proba tau=0.7        Tracing stopped at 65.0
+  1.956785 seconds (35.81 M allocations: 910.057 MiB, 3.50% gc time)
+simulation 65 with proba tau=0.7        Tracing stopped at 58.0
+  2.154368 seconds (40.48 M allocations: 1.050 GiB, 3.41% gc time)
+simulation 66 with proba tau=0.7        Tracing stopped at 79.5
+  2.125974 seconds (36.30 M allocations: 920.021 MiB, 6.99% gc time)
+simulation 67 with proba tau=0.7        Tracing stopped at 111.5
+  2.109056 seconds (36.86 M allocations: 927.507 MiB, 3.41% gc time)
+simulation 68 with proba tau=0.7        Tracing stopped at 56.0
+  2.040853 seconds (41.78 M allocations: 1.095 GiB, 5.40% gc time)
+simulation 69 with proba tau=0.7        Tracing stopped at 56.0
+  2.157541 seconds (41.06 M allocations: 1.071 GiB, 11.55% gc time)
+simulation 70 with proba tau=0.7        Tracing stopped at 83.0
+  2.059513 seconds (37.09 M allocations: 946.000 MiB, 3.68% gc time)
+simulation 71 with proba tau=0.7        Tracing stopped at 109.5
+  2.128042 seconds (36.41 M allocations: 911.702 MiB, 3.59% gc time)
+simulation 72 with proba tau=0.7        Tracing stopped at 93.5
+  2.088441 seconds (36.87 M allocations: 933.233 MiB, 3.67% gc time)
+simulation 73 with proba tau=0.7        Tracing stopped at 94.5
+  2.127882 seconds (35.40 M allocations: 882.774 MiB, 3.98% gc time)
+simulation 74 with proba tau=0.7        Tracing stopped at 50.5
+  2.000118 seconds (41.78 M allocations: 1.097 GiB, 4.16% gc time)
+simulation 75 with proba tau=0.7        Tracing stopped at 90.5
+  2.078502 seconds (37.46 M allocations: 955.491 MiB, 4.17% gc time)
+simulation 76 with proba tau=0.7        Tracing stopped at 77.0
+  2.129230 seconds (41.99 M allocations: 1.092 GiB, 3.93% gc time)
+simulation 77 with proba tau=0.7        Tracing stopped at 70.5
+  2.036455 seconds (39.39 M allocations: 1.008 GiB, 4.27% gc time)
+simulation 78 with proba tau=0.7        Tracing stopped at 78.0
+  2.101618 seconds (42.31 M allocations: 1.103 GiB, 4.12% gc time)
+simulation 79 with proba tau=0.7        Tracing stopped at 91.0
+  2.114363 seconds (36.32 M allocations: 914.402 MiB, 4.24% gc time)
+simulation 80 with proba tau=0.7        Tracing stopped at 91.5
+  2.062808 seconds (35.18 M allocations: 876.039 MiB, 4.17% gc time)
+simulation 81 with proba tau=0.7        Tracing stopped at 91.5
+  2.111799 seconds (36.40 M allocations: 918.164 MiB, 4.00% gc time)
+simulation 82 with proba tau=0.7        Tracing stopped at 89.5
+  2.155695 seconds (38.58 M allocations: 994.414 MiB, 3.92% gc time)
+simulation 83 with proba tau=0.7        Tracing stopped at 60.5
+  1.936828 seconds (38.35 M allocations: 999.958 MiB, 4.41% gc time)
+simulation 84 with proba tau=0.7        Tracing stopped at 112.5
+  2.115776 seconds (35.23 M allocations: 869.603 MiB, 4.15% gc time)
+simulation 85 with proba tau=0.7        Tracing stopped at 59.5
+  1.956446 seconds (37.98 M allocations: 988.073 MiB, 4.56% gc time)
+simulation 86 with proba tau=0.7        Tracing stopped at 102.0
+  2.013284 seconds (36.34 M allocations: 913.082 MiB, 4.43% gc time)
+simulation 87 with proba tau=0.7        Tracing stopped at 55.5
+  2.043920 seconds (41.63 M allocations: 1.090 GiB, 4.34% gc time)
+simulation 88 with proba tau=0.7        Tracing stopped at 114.0
+  2.168753 seconds (37.09 M allocations: 933.692 MiB, 4.26% gc time)
+simulation 89 with proba tau=0.7        Tracing stopped at 73.0
+  1.986047 seconds (36.04 M allocations: 915.439 MiB, 4.65% gc time)
+simulation 90 with proba tau=0.7        Tracing stopped at 62.5
+  2.043732 seconds (42.63 M allocations: 1.121 GiB, 4.49% gc time)
+simulation 91 with proba tau=0.7        Tracing stopped at 70.0
+  2.095134 seconds (42.25 M allocations: 1.105 GiB, 4.45% gc time)
+simulation 92 with proba tau=0.7        Tracing stopped at 68.5
+  1.978344 seconds (36.69 M allocations: 938.362 MiB, 4.77% gc time)
+simulation 93 with proba tau=0.7        Tracing stopped at 82.0
+  2.054148 seconds (35.32 M allocations: 885.508 MiB, 4.64% gc time)
+simulation 94 with proba tau=0.7        Tracing stopped at 87.5
+  2.060461 seconds (37.86 M allocations: 971.725 MiB, 4.74% gc time)
+simulation 95 with proba tau=0.7        Tracing stopped at 75.0
+  2.001192 seconds (37.26 M allocations: 956.456 MiB, 4.86% gc time)
+simulation 96 with proba tau=0.7        Tracing stopped at 81.0
+  2.103557 seconds (41.02 M allocations: 1.058 GiB, 4.65% gc time)
+simulation 97 with proba tau=0.7        Tracing stopped at 58.5
+  2.099836 seconds (46.40 M allocations: 1.249 GiB, 4.70% gc time)
+simulation 98 with proba tau=0.7        Tracing stopped at 64.0
+  1.936717 seconds (36.30 M allocations: 928.342 MiB, 5.21% gc time)
+simulation 99 with proba tau=0.7        Tracing stopped at 79.0
+  2.059396 seconds (34.35 M allocations: 852.893 MiB, 4.94% gc time)
+simulation 100 with proba tau=0.7        Tracing stopped at 74.0
+  2.090923 seconds (43.11 M allocations: 1.133 GiB, 4.84% gc time)</t>
+  </si>
+  <si>
+    <t>simulation 1 with proba tau=0.5        Tracing stopped at 87.0
+  2.154107 seconds (34.43 M allocations: 853.478 MiB, 5.65% gc time)
+simulation 2 with proba tau=0.5        Tracing stopped at 90.0
+  2.131494 seconds (38.06 M allocations: 977.146 MiB, 5.17% gc time)
+simulation 3 with proba tau=0.5        Tracing stopped at 91.0
+  2.237817 seconds (37.48 M allocations: 957.044 MiB, 4.81% gc time)
+simulation 4 with proba tau=0.5        Tracing stopped at 51.0
+  2.142436 seconds (45.79 M allocations: 1.232 GiB, 5.29% gc time)
+simulation 5 with proba tau=0.5        Tracing stopped at 62.5
+  2.022630 seconds (39.34 M allocations: 1.010 GiB, 5.29% gc time)
+simulation 6 with proba tau=0.5        Tracing stopped at 90.0
+  2.093874 seconds (34.73 M allocations: 860.692 MiB, 5.13% gc time)
+simulation 7 with proba tau=0.5        Tracing stopped at 95.5
+  2.233684 seconds (34.11 M allocations: 836.624 MiB, 5.02% gc time)
+simulation 8 with proba tau=0.5        Tracing stopped at 85.0
+  2.199560 seconds (35.94 M allocations: 905.603 MiB, 5.20% gc time)
+simulation 9 with proba tau=0.5        Tracing stopped at 85.0
+  2.118366 seconds (38.52 M allocations: 995.492 MiB, 5.18% gc time)
+simulation 10 with proba tau=0.5        Tracing stopped at 110.5
+  6.636080 seconds (37.81 M allocations: 958.889 MiB, 67.85% gc time)
+simulation 11 with proba tau=0.5        Tracing stopped at 92.0
+  1.992842 seconds (36.52 M allocations: 923.111 MiB, 4.39% gc time)
+simulation 12 with proba tau=0.5        Tracing stopped at 66.0
+  2.023740 seconds (40.91 M allocations: 1.061 GiB, 5.10% gc time)
+simulation 13 with proba tau=0.5        Tracing stopped at 103.0
+  2.054350 seconds (37.04 M allocations: 936.821 MiB, 4.55% gc time)
+simulation 14 with proba tau=0.5        Tracing stopped at 72.5
+  2.054546 seconds (37.07 M allocations: 949.517 MiB, 4.18% gc time)
+simulation 15 with proba tau=0.5        Tracing stopped at 70.0
+  2.052074 seconds (42.06 M allocations: 1.099 GiB, 5.07% gc time)
+simulation 16 with proba tau=0.5        Tracing stopped at 99.0
+  2.101882 seconds (37.22 M allocations: 942.948 MiB, 4.30% gc time)
+simulation 17 with proba tau=0.5        Tracing stopped at 97.0
+  2.167503 seconds (38.07 M allocations: 974.013 MiB, 4.32% gc time)
+simulation 18 with proba tau=0.5        Tracing stopped at 66.5
+  2.030344 seconds (39.43 M allocations: 1.011 GiB, 5.65% gc time)
+simulation 19 with proba tau=0.5        Tracing stopped at 80.0
+  1.970273 seconds (35.99 M allocations: 910.354 MiB, 3.57% gc time)
+simulation 20 with proba tau=0.5        Tracing stopped at 67.5
+  2.050041 seconds (39.83 M allocations: 1.023 GiB, 4.58% gc time)
+simulation 21 with proba tau=0.5        Tracing stopped at 56.0
+  2.076749 seconds (44.27 M allocations: 1.179 GiB, 6.15% gc time)
+simulation 22 with proba tau=0.5        Tracing stopped at 145.5
+  2.175049 seconds (36.95 M allocations: 916.320 MiB, 4.34% gc time)
+simulation 23 with proba tau=0.5        Tracing stopped at 72.5
+  1.971284 seconds (38.39 M allocations: 996.456 MiB, 3.31% gc time)
+simulation 24 with proba tau=0.5        Tracing stopped at 86.5
+  2.026158 seconds (36.06 M allocations: 908.330 MiB, 4.96% gc time)
+simulation 25 with proba tau=0.5        Tracing stopped at 79.0
+  2.010493 seconds (37.06 M allocations: 946.999 MiB, 5.26% gc time)
+simulation 26 with proba tau=0.5        Tracing stopped at 81.5
+  2.086869 seconds (37.03 M allocations: 944.170 MiB, 4.00% gc time)
+simulation 27 with proba tau=0.5        Tracing stopped at 56.5
+  2.143276 seconds (49.93 M allocations: 1.372 GiB, 5.86% gc time)
+simulation 28 with proba tau=0.5        Tracing stopped at 100.0
+  2.072414 seconds (38.12 M allocations: 974.367 MiB, 4.11% gc time)
+simulation 29 with proba tau=0.5        Tracing stopped at 94.0
+  2.065478 seconds (35.90 M allocations: 901.334 MiB, 5.60% gc time)
+simulation 30 with proba tau=0.5        Tracing stopped at 75.5
+  2.105903 seconds (44.13 M allocations: 1.166 GiB, 5.55% gc time)
+simulation 31 with proba tau=0.5        Tracing stopped at 66.5
+  1.984899 seconds (39.77 M allocations: 1.022 GiB, 3.96% gc time)
+simulation 32 with proba tau=0.5        Tracing stopped at 104.0
+  2.155682 seconds (39.34 M allocations: 1013.822 MiB, 3.79% gc time)
+simulation 33 with proba tau=0.5        Tracing stopped at 89.0
+  2.015634 seconds (35.88 M allocations: 901.594 MiB, 2.39% gc time)
+simulation 34 with proba tau=0.5        Tracing stopped at 108.5
+  2.284603 seconds (37.73 M allocations: 956.943 MiB, 10.98% gc time)
+simulation 35 with proba tau=0.5        Tracing stopped at 85.0
+  2.045976 seconds (36.32 M allocations: 918.832 MiB, 4.20% gc time)
+simulation 36 with proba tau=0.5        Tracing stopped at 132.0
+  2.234579 seconds (37.52 M allocations: 941.708 MiB, 3.96% gc time)
+simulation 37 with proba tau=0.5        Tracing stopped at 48.0
+  2.224012 seconds (54.12 M allocations: 1.516 GiB, 6.26% gc time)
+simulation 38 with proba tau=0.5        Tracing stopped at 65.0
+  2.013481 seconds (36.13 M allocations: 919.587 MiB, 4.62% gc time)
+simulation 39 with proba tau=0.5        Tracing stopped at 46.5
+  2.274838 seconds (55.68 M allocations: 1.568 GiB, 6.25% gc time)
+simulation 40 with proba tau=0.5        Tracing stopped at 51.0
+  2.056789 seconds (43.29 M allocations: 1.148 GiB, 7.15% gc time)
+simulation 41 with proba tau=0.5        Tracing stopped at 78.0
+  2.051395 seconds (36.57 M allocations: 931.512 MiB, 4.74% gc time)
+simulation 42 with proba tau=0.5        Tracing stopped at 74.5
+  1.953453 seconds (36.40 M allocations: 926.361 MiB, 2.58% gc time)
+simulation 43 with proba tau=0.5        Tracing stopped at 86.5
+  2.078787 seconds (37.29 M allocations: 952.265 MiB, 3.02% gc time)
+simulation 44 with proba tau=0.5        Tracing stopped at 91.5
+  2.242826 seconds (37.28 M allocations: 950.159 MiB, 4.93% gc time)
+simulation 45 with proba tau=0.5        Tracing stopped at 111.5
+  2.176661 seconds (35.90 M allocations: 892.731 MiB, 4.99% gc time)
+simulation 46 with proba tau=0.5        Tracing stopped at 61.0
+  1.982939 seconds (37.68 M allocations: 976.731 MiB, 5.52% gc time)
+simulation 47 with proba tau=0.5        Tracing stopped at 57.0
+  2.168345 seconds (47.27 M allocations: 1.280 GiB, 7.65% gc time)
+simulation 48 with proba tau=0.5        Tracing stopped at 117.0
+  2.242863 seconds (35.92 M allocations: 888.961 MiB, 4.94% gc time)
+simulation 49 with proba tau=0.5        Tracing stopped at 87.5
+  2.055562 seconds (38.82 M allocations: 1004.940 MiB, 5.34% gc time)
+simulation 50 with proba tau=0.5        Tracing stopped at 90.5
+  2.329875 seconds (37.29 M allocations: 949.504 MiB, 5.42% gc time)
+simulation 51 with proba tau=0.5        Tracing stopped at 76.5
+  2.069839 seconds (37.14 M allocations: 950.975 MiB, 5.65% gc time)
+simulation 52 with proba tau=0.5        Tracing stopped at 59.5
+  2.205536 seconds (46.92 M allocations: 1.267 GiB, 5.29% gc time)
+simulation 53 with proba tau=0.5        Tracing stopped at 101.5
+  2.107157 seconds (35.49 M allocations: 883.361 MiB, 3.17% gc time)
+simulation 54 with proba tau=0.5        Tracing stopped at 92.5
+  2.092048 seconds (35.46 M allocations: 886.956 MiB, 5.94% gc time)
+simulation 55 with proba tau=0.5        Tracing stopped at 53.0
+  2.420592 seconds (58.75 M allocations: 1.668 GiB, 8.06% gc time)
+simulation 56 with proba tau=0.5        Tracing stopped at 110.0
+  2.136381 seconds (37.25 M allocations: 942.353 MiB, 2.90% gc time)
+simulation 57 with proba tau=0.5        Tracing stopped at 86.5
+  2.095793 seconds (36.44 M allocations: 922.906 MiB, 3.00% gc time)
+simulation 58 with proba tau=0.5        Tracing stopped at 64.5
+  1.936536 seconds (36.81 M allocations: 945.536 MiB, 3.71% gc time)
+simulation 59 with proba tau=0.5        Tracing stopped at 75.0
+  2.108244 seconds (37.64 M allocations: 968.740 MiB, 6.30% gc time)
+simulation 60 with proba tau=0.5        Tracing stopped at 69.5
+  2.045724 seconds (40.59 M allocations: 1.050 GiB, 3.16% gc time)
+simulation 61 with proba tau=0.5        Tracing stopped at 87.0
+  2.165266 seconds (39.06 M allocations: 1012.707 MiB, 3.04% gc time)
+simulation 62 with proba tau=0.5        Tracing stopped at 57.5
+  2.098689 seconds (44.26 M allocations: 1.178 GiB, 3.23% gc time)
+simulation 63 with proba tau=0.5        Tracing stopped at 65.0
+  2.068911 seconds (40.94 M allocations: 1.062 GiB, 3.44% gc time)
+simulation 64 with proba tau=0.5        Tracing stopped at 67.0
+  2.031847 seconds (39.22 M allocations: 1.004 GiB, 3.69% gc time)
+simulation 65 with proba tau=0.5        Tracing stopped at 50.5
+  2.112886 seconds (44.29 M allocations: 1.183 GiB, 6.81% gc time)
+simulation 66 with proba tau=0.5        Tracing stopped at 68.5
+  2.066175 seconds (38.94 M allocations: 1016.770 MiB, 3.43% gc time)
+simulation 67 with proba tau=0.5        Tracing stopped at 49.5
+  1.997148 seconds (41.31 M allocations: 1.082 GiB, 3.55% gc time)
+simulation 68 with proba tau=0.5        Tracing stopped at 94.5
+  2.096409 seconds (36.21 M allocations: 910.430 MiB, 3.86% gc time)
+simulation 69 with proba tau=0.5        Tracing stopped at 64.5
+  2.092448 seconds (41.96 M allocations: 1.098 GiB, 3.69% gc time)
+simulation 70 with proba tau=0.5        Tracing stopped at 110.5
+  2.166320 seconds (36.86 M allocations: 925.350 MiB, 3.53% gc time)
+simulation 71 with proba tau=0.5        Tracing stopped at 80.0
+  2.127133 seconds (35.86 M allocations: 904.285 MiB, 4.12% gc time)
+simulation 72 with proba tau=0.5        Tracing stopped at 65.5
+  2.049448 seconds (42.87 M allocations: 1.129 GiB, 3.73% gc time)
+simulation 73 with proba tau=0.5        Tracing stopped at 102.0
+  2.176313 seconds (35.56 M allocations: 882.442 MiB, 3.60% gc time)
+simulation 74 with proba tau=0.5        Tracing stopped at 167.5
+  2.308044 seconds (36.59 M allocations: 895.532 MiB, 3.46% gc time)
+simulation 75 with proba tau=0.5        Tracing stopped at 100.5
+  2.184163 seconds (36.21 M allocations: 908.989 MiB, 3.95% gc time)
+simulation 76 with proba tau=0.5        Tracing stopped at 93.0
+  2.129885 seconds (37.59 M allocations: 960.645 MiB, 3.79% gc time)
+simulation 77 with proba tau=0.5        Tracing stopped at 61.5
+  2.205178 seconds (45.20 M allocations: 1.207 GiB, 3.82% gc time)
+simulation 78 with proba tau=0.5        Tracing stopped at 88.5
+  2.047812 seconds (35.78 M allocations: 898.583 MiB, 4.02% gc time)
+simulation 79 with proba tau=0.5        Tracing stopped at 96.0
+  2.156782 seconds (38.40 M allocations: 985.883 MiB, 3.87% gc time)
+simulation 80 with proba tau=0.5        Tracing stopped at 76.5
+  2.057477 seconds (39.24 M allocations: 1023.670 MiB, 4.46% gc time)
+simulation 81 with proba tau=0.5        Tracing stopped at 74.5
+  2.160571 seconds (41.75 M allocations: 1.086 GiB, 4.41% gc time)
+simulation 82 with proba tau=0.5        Tracing stopped at 64.0
+  2.172004 seconds (39.04 M allocations: 1022.263 MiB, 8.01% gc time)
+simulation 83 with proba tau=0.5        Tracing stopped at 81.5
+  2.136044 seconds (36.40 M allocations: 921.039 MiB, 4.04% gc time)
+simulation 84 with proba tau=0.5        Tracing stopped at 76.0
+  2.123830 seconds (40.14 M allocations: 1.030 GiB, 4.27% gc time)
+simulation 85 with proba tau=0.5        Tracing stopped at 45.0
+  2.283697 seconds (53.09 M allocations: 1.482 GiB, 8.98% gc time)
+simulation 86 with proba tau=0.5        Tracing stopped at 86.5
+  2.150628 seconds (35.79 M allocations: 899.738 MiB, 4.40% gc time)
+simulation 87 with proba tau=0.5        Tracing stopped at 62.5
+  2.069074 seconds (37.92 M allocations: 983.803 MiB, 4.75% gc time)
+simulation 88 with proba tau=0.5        Tracing stopped at 74.5
+  2.097436 seconds (40.02 M allocations: 1.027 GiB, 4.63% gc time)
+simulation 89 with proba tau=0.5        Tracing stopped at 76.5
+  2.046680 seconds (34.86 M allocations: 870.655 MiB, 4.67% gc time)
+simulation 90 with proba tau=0.5        Tracing stopped at 56.0
+  2.263753 seconds (50.08 M allocations: 1.376 GiB, 8.31% gc time)
+simulation 91 with proba tau=0.5        Tracing stopped at 67.0
+  2.095877 seconds (38.61 M allocations: 1005.613 MiB, 4.58% gc time)
+simulation 92 with proba tau=0.5        Tracing stopped at 76.0
+  2.209473 seconds (37.20 M allocations: 952.858 MiB, 4.50% gc time)
+simulation 93 with proba tau=0.5        Tracing stopped at 56.0
+  2.007200 seconds (39.77 M allocations: 1.026 GiB, 4.82% gc time)
+simulation 94 with proba tau=0.5        Tracing stopped at 61.0
+  2.188253 seconds (49.57 M allocations: 1.356 GiB, 4.52% gc time)
+simulation 95 with proba tau=0.5        Tracing stopped at 70.5
+  2.095278 seconds (40.44 M allocations: 1.042 GiB, 4.83% gc time)
+simulation 96 with proba tau=0.5        Tracing stopped at 86.0
+  1.983295 seconds (34.72 M allocations: 862.346 MiB)
+simulation 97 with proba tau=0.5        Tracing stopped at 54.5
+  2.035916 seconds (43.31 M allocations: 1.147 GiB, 4.92% gc time)
+simulation 98 with proba tau=0.5        Tracing stopped at 90.5
+  2.120180 seconds (36.04 M allocations: 906.143 MiB, 4.91% gc time)
+simulation 99 with proba tau=0.5        Tracing stopped at 67.5
+  2.041019 seconds (38.94 M allocations: 1017.492 MiB, 5.00% gc time)
+simulation 100 with proba tau=0.5        Tracing stopped at 73.5
+  2.087332 seconds (36.67 M allocations: 935.358 MiB, 4.85% gc time)</t>
+  </si>
+  <si>
+    <t>atom PERMISSION DENIED
+done</t>
   </si>
 </sst>
 </file>
@@ -361,12 +1999,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -374,6 +2006,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,28 +2053,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="11" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="11" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -448,11 +2077,20 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1270,8 +2908,8 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1280,10 +2918,10 @@
     <col min="2" max="2" width="15.42578125" style="7" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="7" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" style="7" customWidth="1"/>
     <col min="9" max="9" width="77.85546875" style="9" customWidth="1"/>
     <col min="10" max="10" width="57.140625" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="2"/>
@@ -1302,7 +2940,7 @@
       <c r="D1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="15" t="s">
         <v>61</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -1329,7 +2967,7 @@
       <c r="D2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="16">
         <v>10</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -1338,7 +2976,7 @@
       <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="14" t="s">
         <v>52</v>
       </c>
       <c r="I2" s="6" t="s">
@@ -1352,13 +2990,13 @@
       <c r="B3" s="5">
         <v>3</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="10">
         <v>1000</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="16">
         <v>10</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -1381,13 +3019,13 @@
       <c r="B4" s="5">
         <v>7</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="10">
         <v>1000</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="16">
         <v>10</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -1410,13 +3048,13 @@
       <c r="B5" s="5">
         <v>7</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="10">
         <v>100000</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="16">
         <v>10</v>
       </c>
       <c r="F5" s="5" t="s">
@@ -1425,7 +3063,7 @@
       <c r="G5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="14" t="s">
         <v>53</v>
       </c>
       <c r="I5" s="6" t="s">
@@ -1439,13 +3077,13 @@
       <c r="B6" s="5">
         <v>3</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="10">
         <v>1000</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="16">
         <v>10</v>
       </c>
       <c r="F6" s="5" t="s">
@@ -1468,13 +3106,13 @@
       <c r="B7" s="5">
         <v>7</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="10">
         <v>1000</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="16">
         <v>10</v>
       </c>
       <c r="F7" s="5" t="s">
@@ -1497,13 +3135,13 @@
       <c r="B8" s="5">
         <v>7</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="10">
         <v>100000</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="16">
         <v>10</v>
       </c>
       <c r="F8" s="5" t="s">
@@ -1512,7 +3150,7 @@
       <c r="G8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="14" t="s">
         <v>53</v>
       </c>
       <c r="I8" s="6" t="s">
@@ -1536,28 +3174,28 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
+      <c r="A11" s="11">
         <v>0.3</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="11">
         <v>3</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="12">
         <v>1000</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="18">
         <v>5</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="11" t="s">
         <v>45</v>
       </c>
       <c r="I11" s="9" t="s">
@@ -1565,28 +3203,28 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13">
+      <c r="A12" s="11">
         <v>0.3</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="11">
         <v>7</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="12">
         <v>1000</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="18">
         <v>5</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="11" t="s">
         <v>46</v>
       </c>
       <c r="I12" s="9" t="s">
@@ -1594,28 +3232,28 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
+      <c r="A13" s="11">
         <v>0.3</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="11">
         <v>7</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="12">
         <v>100000</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="18">
         <v>5</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="11" t="s">
         <v>47</v>
       </c>
       <c r="I13" s="9" t="s">
@@ -1623,28 +3261,28 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
+      <c r="A14" s="11">
         <v>0.5</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="11">
         <v>3</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="12">
         <v>1000</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="18">
         <v>5</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="11" t="s">
         <v>48</v>
       </c>
       <c r="I14" s="9" t="s">
@@ -1652,28 +3290,28 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13">
+      <c r="A15" s="11">
         <v>0.5</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="11">
         <v>7</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="12">
         <v>1000</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="18">
         <v>5</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="11" t="s">
         <v>49</v>
       </c>
       <c r="I15" s="9" t="s">
@@ -1698,86 +3336,86 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13">
+      <c r="A17" s="19">
         <v>0.8</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="19">
         <v>3</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="20">
         <v>1000</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="20" t="s">
         <v>56</v>
       </c>
       <c r="E17" s="21">
         <v>5</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="17" t="s">
+      <c r="H17" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="I17" s="13" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10">
+      <c r="A18" s="19">
         <v>0.8</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="19">
         <v>7</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="20">
         <v>1000</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="21">
         <v>5</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="I18" s="13" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="10">
+      <c r="A19" s="19">
         <v>0.8</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="19">
         <v>7</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="20">
         <v>100000</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="21">
         <v>5</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="19" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1800,13 +3438,13 @@
       <c r="B23" s="5">
         <v>7</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="10">
         <v>10000</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="16">
         <v>10</v>
       </c>
       <c r="F23" s="5" t="s">
@@ -1826,13 +3464,13 @@
       <c r="B24" s="5">
         <v>7</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="10">
         <v>10000</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="16">
         <v>10</v>
       </c>
       <c r="F24" s="5" t="s">
@@ -1845,232 +3483,305 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
+    <row r="25" spans="1:9" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
         <v>0.05</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="5">
         <v>7</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="10">
         <v>10000</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="16">
         <v>100</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="F25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
+      <c r="H25" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="186.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
         <v>0.1</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="5">
         <v>7</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="10">
         <v>10000</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="16">
         <v>100</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="F26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
+      <c r="H26" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
         <v>0.2</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="5">
         <v>7</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="10">
         <v>10000</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="16">
         <v>100</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="F27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
+      <c r="H27" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
         <v>0.3</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="5">
         <v>7</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="10">
         <v>10000</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="16">
         <v>100</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="F28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
+      <c r="H28" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
         <v>0.4</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="5">
         <v>7</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="10">
         <v>10000</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E29" s="16">
         <v>100</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="F29" s="5"/>
+      <c r="G29" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="7">
+      <c r="H29" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="153.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
         <v>0.5</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="5">
         <v>7</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="10">
         <v>10000</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="16">
         <v>100</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="F30" s="5"/>
+      <c r="G30" s="5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="7">
+      <c r="H30" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="159" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
         <v>0.6</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="5">
         <v>7</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="10">
         <v>10000</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E31" s="16">
         <v>100</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="F31" s="5"/>
+      <c r="G31" s="5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="7">
+      <c r="H31" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
         <v>0.7</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="5">
         <v>7</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="10">
         <v>10000</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="16">
         <v>100</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="F32" s="5"/>
+      <c r="G32" s="5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="7">
+      <c r="H32" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
         <v>0.8</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="5">
         <v>7</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="10">
         <v>10000</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E33" s="16">
         <v>100</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="F33" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B44" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B46" s="7" t="s">
         <v>27</v>
       </c>

--- a/contacts/session_params.xlsx
+++ b/contacts/session_params.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="583"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="583" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ContactTracing_v3" sheetId="1" r:id="rId1"/>
+    <sheet name="ContactTracing_v4" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="102">
   <si>
     <t>tau p</t>
   </si>
@@ -1944,6 +1945,91 @@
     <t>atom PERMISSION DENIED
 done</t>
   </si>
+  <si>
+    <t>[0.0,0.25,0.5,0.75,0.9]</t>
+  </si>
+  <si>
+    <t>τₚ_list</t>
+  </si>
+  <si>
+    <t>session num</t>
+  </si>
+  <si>
+    <t>1/3.</t>
+  </si>
+  <si>
+    <t>κₘ=Δₜ 
+(memory and tracing period)</t>
+  </si>
+  <si>
+    <t>P.κ 
+(mean nb contacts/day)</t>
+  </si>
+  <si>
+    <t>Κ_max_capacity 
+(tracing capacity)</t>
+  </si>
+  <si>
+    <t>P.τ 
+(detection rate)</t>
+  </si>
+  <si>
+    <t>P.κ_per_event4</t>
+  </si>
+  <si>
+    <t>Nairobi=1e3</t>
+  </si>
+  <si>
+    <t>Nairobi=1e3
+Mombassa=1e3</t>
+  </si>
+  <si>
+    <t>Nairobi=1e3
+Mombassa=1e3
+All others = 1e2</t>
+  </si>
+  <si>
+    <t>n_traj</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Session20 Running 200 sims for τₚ=0.0
+322.019146 seconds (5.29 G allocations: 117.243 GiB, 4.94% gc time)
+Session20 Running 200 sims for τₚ=0.25
+417.853990 seconds (6.70 G allocations: 164.213 GiB, 9.38% gc time)
+Session20 Running 200 sims for τₚ=0.5
+465.380005 seconds (6.62 G allocations: 161.609 GiB, 17.32% gc time)
+Session20 Running 200 sims for τₚ=0.75
+449.716149 seconds (6.53 G allocations: 158.466 GiB, 17.67% gc time)
+Session20 Running 200 sims for τₚ=0.9
+456.834434 seconds (6.51 G allocations: 158.014 GiB, 17.94% gc time)</t>
+  </si>
+  <si>
+    <t>Session21 Running 200 sims for τₚ=0.0
+335.654335 seconds (5.29 G allocations: 117.288 GiB, 5.23% gc time)
+Session21 Running 200 sims for τₚ=0.25
+465.765592 seconds (7.37 G allocations: 194.208 GiB, 10.84% gc time)
+Session21 Running 200 sims for τₚ=0.5
+495.388642 seconds (7.28 G allocations: 191.140 GiB, 19.02% gc time)
+Session21 Running 200 sims for τₚ=0.75
+497.745998 seconds (7.26 G allocations: 190.629 GiB, 18.27% gc time)
+Session21 Running 200 sims for τₚ=0.9
+493.368206 seconds (7.23 G allocations: 189.397 GiB, 18.97% gc time)</t>
+  </si>
+  <si>
+    <t>Session22 Running 200 sims for τₚ=0.0
+408.752327 seconds (5.27 G allocations: 116.212 GiB, 23.90% gc time)
+Session22 Running 200 sims for τₚ=0.25
+589.263548 seconds (11.32 G allocations: 355.409 GiB, 18.57% gc time)
+Session22 Running 200 sims for τₚ=0.5
+705.803741 seconds (11.97 G allocations: 384.555 GiB, 25.88% gc time)
+Session22 Running 200 sims for τₚ=0.75
+789.517263 seconds (11.64 G allocations: 376.236 GiB, 30.35% gc time)
+Session22 Running 200 sims for τₚ=0.9
+764.713482 seconds (11.26 G allocations: 361.700 GiB, 29.63% gc time)</t>
+  </si>
 </sst>
 </file>
 
@@ -2028,7 +2114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2091,6 +2177,39 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2907,9 +3026,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3791,4 +3910,254 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="49.85546875" style="33" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="27" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="26"/>
+    </row>
+    <row r="2" spans="1:11" s="28" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="28">
+        <v>10</v>
+      </c>
+      <c r="D2" s="28">
+        <v>7</v>
+      </c>
+      <c r="E2" s="28">
+        <v>50</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="28">
+        <v>200</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="28">
+        <v>20</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="28" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="F3" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="28">
+        <v>21</v>
+      </c>
+      <c r="J3" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="28" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="F4" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="28">
+        <v>22</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="28">
+        <v>23</v>
+      </c>
+      <c r="K5" s="31"/>
+    </row>
+    <row r="6" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="28">
+        <v>24</v>
+      </c>
+      <c r="K6" s="31"/>
+    </row>
+    <row r="7" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="28">
+        <v>25</v>
+      </c>
+      <c r="K7" s="31"/>
+    </row>
+    <row r="8" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K8" s="31"/>
+    </row>
+    <row r="9" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="31"/>
+    </row>
+    <row r="10" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="31"/>
+    </row>
+    <row r="11" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="31"/>
+    </row>
+    <row r="12" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K12" s="31"/>
+    </row>
+    <row r="13" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K13" s="31"/>
+    </row>
+    <row r="14" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K14" s="31"/>
+    </row>
+    <row r="15" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K15" s="31"/>
+    </row>
+    <row r="16" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K16" s="31"/>
+    </row>
+    <row r="17" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K17" s="31"/>
+    </row>
+    <row r="18" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K18" s="31"/>
+    </row>
+    <row r="19" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K19" s="31"/>
+    </row>
+    <row r="20" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K20" s="31"/>
+    </row>
+    <row r="21" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K21" s="31"/>
+    </row>
+    <row r="22" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K22" s="31"/>
+    </row>
+    <row r="23" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K23" s="31"/>
+    </row>
+    <row r="24" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K24" s="31"/>
+    </row>
+    <row r="25" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K25" s="31"/>
+    </row>
+    <row r="26" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K26" s="31"/>
+    </row>
+    <row r="27" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K27" s="31"/>
+    </row>
+    <row r="28" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K28" s="31"/>
+    </row>
+    <row r="29" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K29" s="31"/>
+    </row>
+    <row r="30" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K30" s="31"/>
+    </row>
+    <row r="31" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K31" s="31"/>
+    </row>
+    <row r="32" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K32" s="31"/>
+    </row>
+    <row r="33" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K33" s="31"/>
+    </row>
+    <row r="34" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K34" s="31"/>
+    </row>
+    <row r="35" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K35" s="32"/>
+    </row>
+    <row r="36" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K36" s="32"/>
+    </row>
+    <row r="37" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K37" s="32"/>
+    </row>
+    <row r="38" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K38" s="32"/>
+    </row>
+    <row r="39" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K39" s="32"/>
+    </row>
+    <row r="40" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K40" s="32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/contacts/session_params.xlsx
+++ b/contacts/session_params.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="104">
   <si>
     <t>tau p</t>
   </si>
@@ -2029,6 +2029,26 @@
 789.517263 seconds (11.64 G allocations: 376.236 GiB, 30.35% gc time)
 Session22 Running 200 sims for τₚ=0.9
 764.713482 seconds (11.26 G allocations: 361.700 GiB, 29.63% gc time)</t>
+  </si>
+  <si>
+    <t>[0,  .5]</t>
+  </si>
+  <si>
+    <t>with fixed first parameters
+Session30 Running 10 sims for τₚ=0.0
+ 10.867879 seconds (285.05 M allocations: 6.804 GiB, 8.99% gc time)
+Session30 Running 10 sims for τₚ=0.5
+Tracing stopped at 28.5
+Tracing stopped at 31.0
+Tracing stopped at 36.0
+Tracing stopped at 35.0
+Tracing stopped at 35.5
+Tracing stopped at 30.0
+Tracing stopped at 31.0
+Tracing stopped at 34.0
+Tracing stopped at 29.5
+Tracing stopped at 37.0
+  7.454249 seconds (304.36 M allocations: 7.188 GiB, 17.28% gc time)</t>
   </si>
 </sst>
 </file>
@@ -3914,11 +3934,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4040,25 +4060,42 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I5" s="28">
-        <v>23</v>
-      </c>
       <c r="K5" s="31"/>
     </row>
     <row r="6" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I6" s="28">
-        <v>24</v>
-      </c>
       <c r="K6" s="31"/>
     </row>
     <row r="7" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I7" s="28">
-        <v>25</v>
-      </c>
       <c r="K7" s="31"/>
     </row>
-    <row r="8" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K8" s="31"/>
+    <row r="8" spans="1:11" s="28" customFormat="1" ht="176.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="28">
+        <v>10</v>
+      </c>
+      <c r="D8" s="28">
+        <v>7</v>
+      </c>
+      <c r="E8" s="28">
+        <v>50</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="28">
+        <v>10</v>
+      </c>
+      <c r="I8" s="28">
+        <v>30</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="9" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K9" s="31"/>
@@ -4127,34 +4164,22 @@
       <c r="K30" s="31"/>
     </row>
     <row r="31" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K31" s="31"/>
+      <c r="K31" s="32"/>
     </row>
     <row r="32" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K32" s="31"/>
+      <c r="K32" s="32"/>
     </row>
     <row r="33" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K33" s="31"/>
+      <c r="K33" s="32"/>
     </row>
     <row r="34" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K34" s="31"/>
+      <c r="K34" s="32"/>
     </row>
     <row r="35" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K35" s="32"/>
     </row>
     <row r="36" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K36" s="32"/>
-    </row>
-    <row r="37" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K37" s="32"/>
-    </row>
-    <row r="38" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K38" s="32"/>
-    </row>
-    <row r="39" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K39" s="32"/>
-    </row>
-    <row r="40" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K40" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/contacts/session_params.xlsx
+++ b/contacts/session_params.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rabia\Documents\GitHub\KenyaCoV\contacts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\marlon.ads.warwick.ac.uk\User56\u\u1875687\Desktop\RabiaGitHub\KenyaCoV\contacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="583" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12336" tabRatio="583" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ContactTracing_v3" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="106">
   <si>
     <t>tau p</t>
   </si>
@@ -2049,6 +2049,12 @@
 Tracing stopped at 29.5
 Tracing stopped at 37.0
   7.454249 seconds (304.36 M allocations: 7.188 GiB, 17.28% gc time)</t>
+  </si>
+  <si>
+    <t>all=1e3</t>
+  </si>
+  <si>
+    <t>N=1e3   all=100</t>
   </si>
 </sst>
 </file>
@@ -3051,22 +3057,22 @@
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="77.85546875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="57.140625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="8.44140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5546875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="77.88671875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="57.109375" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3093,7 +3099,7 @@
       </c>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" ht="105" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="102" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -3122,7 +3128,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="105" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="102" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>0.05</v>
       </c>
@@ -3151,7 +3157,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="105" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="102" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>0.05</v>
       </c>
@@ -3180,7 +3186,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="105" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="102" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>0.05</v>
       </c>
@@ -3209,7 +3215,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="105" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="102" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>0.1</v>
       </c>
@@ -3238,7 +3244,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="102" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>0.1</v>
       </c>
@@ -3267,7 +3273,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="105" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="102" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>0.1</v>
       </c>
@@ -3296,7 +3302,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D9" s="7" t="s">
         <v>56</v>
       </c>
@@ -3304,7 +3310,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D10" s="7" t="s">
         <v>56</v>
       </c>
@@ -3312,7 +3318,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>0.3</v>
       </c>
@@ -3341,7 +3347,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>0.3</v>
       </c>
@@ -3370,7 +3376,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>0.3</v>
       </c>
@@ -3399,7 +3405,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>0.5</v>
       </c>
@@ -3428,7 +3434,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>0.5</v>
       </c>
@@ -3457,7 +3463,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>0.5</v>
       </c>
@@ -3474,7 +3480,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
         <v>0.8</v>
       </c>
@@ -3503,7 +3509,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>0.8</v>
       </c>
@@ -3532,7 +3538,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>0.8</v>
       </c>
@@ -3558,19 +3564,19 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>0.05</v>
       </c>
@@ -3596,7 +3602,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>0.1</v>
       </c>
@@ -3622,7 +3628,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>0.05</v>
       </c>
@@ -3651,7 +3657,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="186.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="186.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>0.1</v>
       </c>
@@ -3680,7 +3686,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>0.2</v>
       </c>
@@ -3709,7 +3715,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>0.3</v>
       </c>
@@ -3738,7 +3744,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>0.4</v>
       </c>
@@ -3765,7 +3771,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="153.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>0.5</v>
       </c>
@@ -3792,7 +3798,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="159" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="159" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>0.6</v>
       </c>
@@ -3819,7 +3825,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>0.7</v>
       </c>
@@ -3846,7 +3852,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>0.8</v>
       </c>
@@ -3875,52 +3881,52 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
         <v>27</v>
       </c>
@@ -3936,28 +3942,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="49.85546875" style="33" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="8" max="8" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="49.88671875" style="33" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="27" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="27" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>86</v>
       </c>
@@ -3990,7 +3996,7 @@
       </c>
       <c r="K1" s="26"/>
     </row>
-    <row r="2" spans="1:11" s="28" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="28" customFormat="1" ht="102" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>85</v>
       </c>
@@ -4025,7 +4031,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="28" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="28" customFormat="1" ht="102" x14ac:dyDescent="0.3">
       <c r="F3" s="29" t="s">
         <v>95</v>
       </c>
@@ -4042,7 +4048,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="28" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="28" customFormat="1" ht="102" x14ac:dyDescent="0.3">
       <c r="F4" s="29" t="s">
         <v>96</v>
       </c>
@@ -4059,16 +4065,16 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="K5" s="31"/>
     </row>
-    <row r="6" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="K6" s="31"/>
     </row>
-    <row r="7" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="K7" s="31"/>
     </row>
-    <row r="8" spans="1:11" s="28" customFormat="1" ht="176.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="28" customFormat="1" ht="176.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>102</v>
       </c>
@@ -4097,88 +4103,136 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="K9" s="31"/>
     </row>
-    <row r="10" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="28">
+        <v>10</v>
+      </c>
+      <c r="D10" s="28">
+        <v>7</v>
+      </c>
+      <c r="E10" s="28">
+        <v>50</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="28">
+        <v>10</v>
+      </c>
+      <c r="I10" s="28">
+        <v>35</v>
+      </c>
       <c r="K10" s="31"/>
     </row>
-    <row r="11" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="28">
+        <v>100</v>
+      </c>
+      <c r="I11" s="28">
+        <v>36</v>
+      </c>
       <c r="K11" s="31"/>
     </row>
-    <row r="12" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" s="28">
+        <v>100</v>
+      </c>
+      <c r="I12" s="28">
+        <v>37</v>
+      </c>
       <c r="K12" s="31"/>
     </row>
-    <row r="13" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="28">
+        <v>100</v>
+      </c>
+      <c r="I13" s="28">
+        <v>38</v>
+      </c>
       <c r="K13" s="31"/>
     </row>
-    <row r="14" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="K14" s="31"/>
     </row>
-    <row r="15" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="K15" s="31"/>
     </row>
-    <row r="16" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="K16" s="31"/>
     </row>
-    <row r="17" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="K17" s="31"/>
     </row>
-    <row r="18" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="K18" s="31"/>
     </row>
-    <row r="19" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="K19" s="31"/>
     </row>
-    <row r="20" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="K20" s="31"/>
     </row>
-    <row r="21" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="K21" s="31"/>
     </row>
-    <row r="22" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="K22" s="31"/>
     </row>
-    <row r="23" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="K23" s="31"/>
     </row>
-    <row r="24" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="K24" s="31"/>
     </row>
-    <row r="25" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="K25" s="31"/>
     </row>
-    <row r="26" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="K26" s="31"/>
     </row>
-    <row r="27" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="K27" s="31"/>
     </row>
-    <row r="28" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="K28" s="31"/>
     </row>
-    <row r="29" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="K29" s="31"/>
     </row>
-    <row r="30" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="K30" s="31"/>
     </row>
-    <row r="31" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="K31" s="32"/>
     </row>
-    <row r="32" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="K32" s="32"/>
     </row>
-    <row r="33" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="K33" s="32"/>
     </row>
-    <row r="34" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="K34" s="32"/>
     </row>
-    <row r="35" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="K35" s="32"/>
     </row>
-    <row r="36" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="K36" s="32"/>
     </row>
   </sheetData>

--- a/contacts/session_params.xlsx
+++ b/contacts/session_params.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\marlon.ads.warwick.ac.uk\User56\u\u1875687\Desktop\RabiaGitHub\KenyaCoV\contacts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rabia\Documents\GitHub\KenyaCoV\contacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12336" tabRatio="583" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="583" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ContactTracing_v3" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="106">
   <si>
     <t>tau p</t>
   </si>
@@ -2096,7 +2096,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2127,6 +2127,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2140,7 +2146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2236,6 +2242,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3057,22 +3069,22 @@
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5546875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="77.88671875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="57.109375" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="8.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="77.85546875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="57.140625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3099,7 +3111,7 @@
       </c>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="105" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -3128,7 +3140,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="105" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>0.05</v>
       </c>
@@ -3157,7 +3169,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="105" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>0.05</v>
       </c>
@@ -3186,7 +3198,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="105" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>0.05</v>
       </c>
@@ -3215,7 +3227,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="105" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>0.1</v>
       </c>
@@ -3244,7 +3256,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>0.1</v>
       </c>
@@ -3273,7 +3285,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="105" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>0.1</v>
       </c>
@@ -3302,7 +3314,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D9" s="7" t="s">
         <v>56</v>
       </c>
@@ -3310,7 +3322,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D10" s="7" t="s">
         <v>56</v>
       </c>
@@ -3318,7 +3330,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>0.3</v>
       </c>
@@ -3347,7 +3359,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>0.3</v>
       </c>
@@ -3376,7 +3388,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>0.3</v>
       </c>
@@ -3405,7 +3417,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>0.5</v>
       </c>
@@ -3434,7 +3446,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>0.5</v>
       </c>
@@ -3463,7 +3475,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>0.5</v>
       </c>
@@ -3480,7 +3492,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="19">
         <v>0.8</v>
       </c>
@@ -3509,7 +3521,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="19">
         <v>0.8</v>
       </c>
@@ -3538,7 +3550,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="19">
         <v>0.8</v>
       </c>
@@ -3564,19 +3576,19 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>0.05</v>
       </c>
@@ -3602,7 +3614,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>0.1</v>
       </c>
@@ -3628,7 +3640,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>0.05</v>
       </c>
@@ -3657,7 +3669,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="186.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="186.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>0.1</v>
       </c>
@@ -3686,7 +3698,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>0.2</v>
       </c>
@@ -3715,7 +3727,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>0.3</v>
       </c>
@@ -3744,7 +3756,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>0.4</v>
       </c>
@@ -3771,7 +3783,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="153.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>0.5</v>
       </c>
@@ -3798,7 +3810,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="159" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="159" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>0.6</v>
       </c>
@@ -3825,7 +3837,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>0.7</v>
       </c>
@@ -3852,7 +3864,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>0.8</v>
       </c>
@@ -3881,52 +3893,52 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B44" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B46" s="7" t="s">
         <v>27</v>
       </c>
@@ -3942,28 +3954,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="49.88671875" style="33" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="2"/>
+    <col min="8" max="8" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="49.85546875" style="33" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="27" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="27" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>86</v>
       </c>
@@ -3996,7 +4008,7 @@
       </c>
       <c r="K1" s="26"/>
     </row>
-    <row r="2" spans="1:11" s="28" customFormat="1" ht="102" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="28" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>85</v>
       </c>
@@ -4031,7 +4043,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="28" customFormat="1" ht="102" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="28" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="F3" s="29" t="s">
         <v>95</v>
       </c>
@@ -4048,7 +4060,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="28" customFormat="1" ht="102" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="28" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="F4" s="29" t="s">
         <v>96</v>
       </c>
@@ -4065,16 +4077,16 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K5" s="31"/>
     </row>
-    <row r="6" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K6" s="31"/>
     </row>
-    <row r="7" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K7" s="31"/>
     </row>
-    <row r="8" spans="1:11" s="28" customFormat="1" ht="176.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="28" customFormat="1" ht="176.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>102</v>
       </c>
@@ -4103,10 +4115,10 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K9" s="31"/>
     </row>
-    <row r="10" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>85</v>
       </c>
@@ -4133,106 +4145,157 @@
       </c>
       <c r="K10" s="31"/>
     </row>
-    <row r="11" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G11" s="28">
+    <row r="11" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="34">
+        <v>10</v>
+      </c>
+      <c r="D11" s="34">
+        <v>7</v>
+      </c>
+      <c r="E11" s="34">
+        <v>50</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="34">
         <v>100</v>
       </c>
-      <c r="I11" s="28">
+      <c r="H11" s="34"/>
+      <c r="I11" s="34">
         <v>36</v>
       </c>
       <c r="K11" s="31"/>
     </row>
-    <row r="12" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F12" s="28" t="s">
+    <row r="12" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="34">
+        <v>10</v>
+      </c>
+      <c r="D12" s="34">
+        <v>7</v>
+      </c>
+      <c r="E12" s="34">
+        <v>50</v>
+      </c>
+      <c r="F12" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="34">
         <v>100</v>
       </c>
-      <c r="I12" s="28">
+      <c r="H12" s="34"/>
+      <c r="I12" s="34">
         <v>37</v>
       </c>
       <c r="K12" s="31"/>
     </row>
-    <row r="13" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F13" s="28" t="s">
+    <row r="13" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="34">
+        <v>10</v>
+      </c>
+      <c r="D13" s="34">
+        <v>7</v>
+      </c>
+      <c r="E13" s="34">
+        <v>50</v>
+      </c>
+      <c r="F13" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="34">
         <v>100</v>
       </c>
-      <c r="I13" s="28">
+      <c r="H13" s="34"/>
+      <c r="I13" s="34">
         <v>38</v>
       </c>
       <c r="K13" s="31"/>
     </row>
-    <row r="14" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K14" s="31"/>
     </row>
-    <row r="15" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K15" s="31"/>
     </row>
-    <row r="16" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K16" s="31"/>
     </row>
-    <row r="17" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K17" s="31"/>
     </row>
-    <row r="18" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K18" s="31"/>
     </row>
-    <row r="19" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K19" s="31"/>
     </row>
-    <row r="20" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K20" s="31"/>
     </row>
-    <row r="21" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K21" s="31"/>
     </row>
-    <row r="22" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K22" s="31"/>
     </row>
-    <row r="23" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K23" s="31"/>
     </row>
-    <row r="24" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K24" s="31"/>
     </row>
-    <row r="25" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K25" s="31"/>
     </row>
-    <row r="26" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K26" s="31"/>
     </row>
-    <row r="27" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K27" s="31"/>
     </row>
-    <row r="28" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K28" s="31"/>
     </row>
-    <row r="29" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K29" s="31"/>
     </row>
-    <row r="30" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K30" s="31"/>
     </row>
-    <row r="31" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K31" s="32"/>
     </row>
-    <row r="32" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K32" s="32"/>
     </row>
-    <row r="33" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K33" s="32"/>
     </row>
-    <row r="34" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K34" s="32"/>
     </row>
-    <row r="35" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K35" s="32"/>
     </row>
-    <row r="36" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K36" s="32"/>
     </row>
   </sheetData>

--- a/contacts/session_params.xlsx
+++ b/contacts/session_params.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="112">
   <si>
     <t>tau p</t>
   </si>
@@ -2056,6 +2056,288 @@
   <si>
     <t>N=1e3   all=100</t>
   </si>
+  <si>
+    <t>Kilifi=1e3</t>
+  </si>
+  <si>
+    <t>Kilifi=1e4</t>
+  </si>
+  <si>
+    <t>Kilifi=5e3</t>
+  </si>
+  <si>
+    <t>Session40 Running 20 sims for τₚ=0.0
+ 29.025529 seconds (706.74 M allocations: 15.566 GiB, 59.19% gc time)
+Session40 Running 20 sims for τₚ=0.25
+Tracing stopped at 91.0
+Tracing stopped at 91.5
+Tracing stopped at 104.0
+Tracing stopped at 104.5
+Tracing stopped at 86.0
+Tracing stopped at 95.0
+Tracing stopped at 100.5
+Tracing stopped at 109.5
+Tracing stopped at 83.0
+Tracing stopped at 104.5
+Tracing stopped at 87.0
+Tracing stopped at 104.0
+Tracing stopped at 80.5
+Tracing stopped at 86.5
+Tracing stopped at 93.0
+Tracing stopped at 101.5
+Tracing stopped at 91.0
+Tracing stopped at 86.0
+Tracing stopped at 107.5
+Tracing stopped at 132.5
+ 21.089348 seconds (996.68 M allocations: 26.351 GiB, 17.91% gc time)
+Session40 Running 20 sims for τₚ=0.5
+Tracing stopped at 98.0
+Tracing stopped at 94.0
+Tracing stopped at 88.0
+Tracing stopped at 96.5
+Tracing stopped at 71.5
+Tracing stopped at 87.0
+Tracing stopped at 98.5
+Tracing stopped at 85.5
+Tracing stopped at 79.0
+Tracing stopped at 79.5
+Tracing stopped at 101.5
+Tracing stopped at 82.5
+Tracing stopped at 81.0
+Tracing stopped at 87.0
+Tracing stopped at 95.5
+Tracing stopped at 119.0
+Tracing stopped at 94.5
+Tracing stopped at 90.5
+Tracing stopped at 83.5
+Tracing stopped at 111.0
+ 21.387299 seconds (1.00 G allocations: 26.661 GiB, 17.30% gc time)
+Session40 Running 20 sims for τₚ=0.75
+Tracing stopped at 92.5
+Tracing stopped at 77.5
+Tracing stopped at 95.0
+Tracing stopped at 89.5
+Tracing stopped at 95.0
+Tracing stopped at 79.5
+Tracing stopped at 91.5
+Tracing stopped at 103.5
+Tracing stopped at 106.5
+Tracing stopped at 92.0
+Tracing stopped at 86.0
+Tracing stopped at 109.0
+Tracing stopped at 115.5
+Tracing stopped at 93.0
+Tracing stopped at 112.5
+Tracing stopped at 89.5
+Tracing stopped at 104.5
+Tracing stopped at 89.5
+Tracing stopped at 121.5
+Tracing stopped at 135.0
+ 25.781265 seconds (1.01 G allocations: 26.781 GiB, 26.92% gc time)
+Session40 Running 20 sims for τₚ=0.9
+Tracing stopped at 82.5
+Tracing stopped at 87.5
+Tracing stopped at 110.0
+Tracing stopped at 95.0
+Tracing stopped at 99.0
+Tracing stopped at 101.0
+Tracing stopped at 88.5
+Tracing stopped at 87.5
+Tracing stopped at 106.5
+Tracing stopped at 99.5
+Tracing stopped at 106.5
+Tracing stopped at 89.0
+Tracing stopped at 91.0
+Tracing stopped at 101.5
+Tracing stopped at 95.0
+Tracing stopped at 101.0
+Tracing stopped at 111.0
+Tracing stopped at 105.0
+Tracing stopped at 101.0
+ 23.614978 seconds (1.05 G allocations: 28.367 GiB, 17.87% gc time)</t>
+  </si>
+  <si>
+    <t>Session41 Running 20 sims for τₚ=0.0
+ 14.225690 seconds (705.39 M allocations: 15.534 GiB, 14.97% gc time)
+Session41 Running 20 sims for τₚ=0.25
+Tracing stopped at 112.5
+Tracing stopped at 115.5
+Tracing stopped at 107.0
+Tracing stopped at 131.0
+Tracing stopped at 144.0
+Tracing stopped at 116.5
+Tracing stopped at 103.0
+Tracing stopped at 109.5
+Tracing stopped at 128.0
+Tracing stopped at 127.0
+Tracing stopped at 134.5
+Tracing stopped at 114.0
+Tracing stopped at 110.0
+Tracing stopped at 113.5
+Tracing stopped at 108.0
+Tracing stopped at 104.5
+Tracing stopped at 223.5
+Tracing stopped at 105.0
+Tracing stopped at 101.0
+Tracing stopped at 114.5
+ 57.855583 seconds (2.75 G allocations: 91.693 GiB, 35.02% gc time)
+Session41 Running 20 sims for τₚ=0.5
+Tracing stopped at 115.5
+Tracing stopped at 133.0
+Tracing stopped at 115.0
+Tracing stopped at 133.0
+Tracing stopped at 118.0
+Tracing stopped at 115.0
+Tracing stopped at 147.5
+Tracing stopped at 118.5
+Tracing stopped at 112.0
+Tracing stopped at 120.5
+Tracing stopped at 140.0
+Tracing stopped at 116.0
+Tracing stopped at 126.0
+Tracing stopped at 111.0
+Tracing stopped at 110.5
+Tracing stopped at 156.5
+Tracing stopped at 151.0
+Tracing stopped at 124.0
+ 56.607792 seconds (2.54 G allocations: 83.708 GiB, 26.44% gc time)
+Session41 Running 20 sims for τₚ=0.75
+Tracing stopped at 119.0
+Tracing stopped at 139.0
+Tracing stopped at 132.0
+Tracing stopped at 123.0
+Tracing stopped at 141.0
+Tracing stopped at 136.5
+Tracing stopped at 117.5
+Tracing stopped at 165.0
+Tracing stopped at 168.0
+Tracing stopped at 135.5
+Tracing stopped at 125.5
+Tracing stopped at 120.5
+Tracing stopped at 154.5
+Tracing stopped at 138.5
+Tracing stopped at 147.5
+Tracing stopped at 144.0
+Tracing stopped at 126.5
+Tracing stopped at 156.5
+Tracing stopped at 193.0
+Tracing stopped at 147.5
+ 54.925789 seconds (2.51 G allocations: 83.374 GiB, 27.51% gc time)
+Session41 Running 20 sims for τₚ=0.9
+Tracing stopped at 167.5
+Tracing stopped at 143.0
+Tracing stopped at 138.5
+Tracing stopped at 285.0
+Tracing stopped at 167.5
+Tracing stopped at 131.5
+Tracing stopped at 139.5
+Tracing stopped at 161.0
+Tracing stopped at 173.5
+Tracing stopped at 142.0
+Tracing stopped at 181.5
+Tracing stopped at 137.0
+Tracing stopped at 155.0
+Tracing stopped at 164.0
+Tracing stopped at 164.0
+Tracing stopped at 185.5
+Tracing stopped at 147.5
+Tracing stopped at 157.5
+Tracing stopped at 188.0
+Tracing stopped at 137.0
+ 61.565674 seconds (2.77 G allocations: 92.395 GiB, 26.20% gc time)</t>
+  </si>
+  <si>
+    <t>Session42 Running 20 sims for τₚ=0.0
+ 13.847493 seconds (705.38 M allocations: 15.534 GiB, 13.31% gc time)
+Session42 Running 20 sims for τₚ=0.25
+Tracing stopped at 75.0
+Tracing stopped at 72.0
+Tracing stopped at 90.5
+Tracing stopped at 88.0
+Tracing stopped at 85.5
+Tracing stopped at 81.0
+Tracing stopped at 76.5
+Tracing stopped at 88.5
+Tracing stopped at 80.5
+Tracing stopped at 82.5
+Tracing stopped at 82.5
+Tracing stopped at 82.0
+Tracing stopped at 82.5
+Tracing stopped at 79.5
+Tracing stopped at 85.0
+Tracing stopped at 79.5
+Tracing stopped at 74.0
+Tracing stopped at 87.5
+Tracing stopped at 75.0
+Tracing stopped at 90.0
+183.350499 seconds (11.71 G allocations: 400.312 GiB, 37.09% gc time)
+Session42 Running 20 sims for τₚ=0.5
+Tracing stopped at 71.5
+Tracing stopped at 80.0
+Tracing stopped at 76.5
+Tracing stopped at 76.5
+Tracing stopped at 74.5
+Tracing stopped at 73.0
+Tracing stopped at 77.0
+Tracing stopped at 81.0
+Tracing stopped at 71.0
+Tracing stopped at 75.0
+Tracing stopped at 75.5
+Tracing stopped at 78.0
+Tracing stopped at 90.0
+Tracing stopped at 75.5
+Tracing stopped at 79.0
+Tracing stopped at 87.5
+Tracing stopped at 73.0
+Tracing stopped at 89.0
+Tracing stopped at 84.5
+Tracing stopped at 77.5
+232.715966 seconds (11.45 G allocations: 392.182 GiB, 38.52% gc time)
+Session42 Running 20 sims for τₚ=0.75
+Tracing stopped at 82.5
+Tracing stopped at 72.0
+Tracing stopped at 78.0
+Tracing stopped at 84.0
+Tracing stopped at 68.5
+Tracing stopped at 73.5
+Tracing stopped at 75.0
+Tracing stopped at 74.0
+Tracing stopped at 81.0
+Tracing stopped at 75.5
+Tracing stopped at 79.0
+Tracing stopped at 81.5
+Tracing stopped at 78.0
+Tracing stopped at 74.5
+Tracing stopped at 68.5
+Tracing stopped at 127.0
+Tracing stopped at 80.5
+Tracing stopped at 80.0
+Tracing stopped at 77.5
+Tracing stopped at 75.0
+211.970373 seconds (10.27 G allocations: 351.867 GiB, 37.99% gc time)
+Session42 Running 20 sims for τₚ=0.9
+Tracing stopped at 78.5
+Tracing stopped at 77.5
+Tracing stopped at 73.5
+Tracing stopped at 81.0
+Tracing stopped at 78.5
+Tracing stopped at 80.0
+Tracing stopped at 83.0
+Tracing stopped at 80.5
+Tracing stopped at 76.5
+Tracing stopped at 83.0
+Tracing stopped at 80.0
+Tracing stopped at 83.5
+Tracing stopped at 71.5
+Tracing stopped at 70.5
+Tracing stopped at 81.0
+Tracing stopped at 79.0
+Tracing stopped at 92.0
+Tracing stopped at 76.5
+Tracing stopped at 83.5
+Tracing stopped at 89.5
+249.543168 seconds (10.27 G allocations: 352.381 GiB, 37.64% gc time)</t>
+  </si>
 </sst>
 </file>
 
@@ -2096,7 +2378,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2133,6 +2415,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2146,7 +2440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2247,6 +2541,21 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3955,8 +4264,8 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4232,58 +4541,172 @@
     <row r="14" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K14" s="31"/>
     </row>
-    <row r="15" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K15" s="31"/>
-    </row>
-    <row r="16" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K16" s="31"/>
-    </row>
-    <row r="17" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K17" s="31"/>
-    </row>
-    <row r="18" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="28" customFormat="1" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="39">
+        <v>10</v>
+      </c>
+      <c r="D15" s="39">
+        <v>7</v>
+      </c>
+      <c r="E15" s="39">
+        <v>50</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="39">
+        <v>20</v>
+      </c>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39">
+        <v>40</v>
+      </c>
+      <c r="K15" s="30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="28" customFormat="1" ht="203.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" s="37">
+        <v>20</v>
+      </c>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37">
+        <v>41</v>
+      </c>
+      <c r="K16" s="30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="28" customFormat="1" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="39">
+        <v>20</v>
+      </c>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39">
+        <v>42</v>
+      </c>
+      <c r="K17" s="30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K18" s="31"/>
     </row>
-    <row r="19" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="36">
+        <v>10</v>
+      </c>
+      <c r="D19" s="36">
+        <v>7</v>
+      </c>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="36">
+        <v>500</v>
+      </c>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36">
+        <v>43</v>
+      </c>
       <c r="K19" s="31"/>
     </row>
-    <row r="20" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="36">
+        <v>500</v>
+      </c>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36">
+        <v>44</v>
+      </c>
       <c r="K20" s="31"/>
     </row>
-    <row r="21" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" s="36">
+        <v>500</v>
+      </c>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36">
+        <v>45</v>
+      </c>
       <c r="K21" s="31"/>
     </row>
-    <row r="22" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K22" s="31"/>
     </row>
-    <row r="23" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K23" s="31"/>
     </row>
-    <row r="24" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K24" s="31"/>
     </row>
-    <row r="25" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K25" s="31"/>
     </row>
-    <row r="26" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K26" s="31"/>
     </row>
-    <row r="27" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K27" s="31"/>
     </row>
-    <row r="28" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K28" s="31"/>
     </row>
-    <row r="29" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K29" s="31"/>
     </row>
-    <row r="30" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K30" s="31"/>
     </row>
-    <row r="31" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K31" s="32"/>
     </row>
-    <row r="32" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K32" s="32"/>
     </row>
     <row r="33" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">

--- a/contacts/session_params.xlsx
+++ b/contacts/session_params.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="114">
   <si>
     <t>tau p</t>
   </si>
@@ -2338,6 +2338,22 @@
 Tracing stopped at 89.5
 249.543168 seconds (10.27 G allocations: 352.381 GiB, 37.64% gc time)</t>
   </si>
+  <si>
+    <t>…
+Session43 Running 500 sims for τₚ=0.5
+597.983001 seconds (24.81 G allocations: 662.207 GiB, 36.71% gc time)
+Session43 Running 500 sims for τₚ=0.75
+851.876520 seconds (24.83 G allocations: 663.582 GiB, 55.18% gc time)
+Session43 Running 500 sims for τₚ=0.9
+2276.922391 seconds (24.66 G allocations: 657.723 GiB, 83.30% gc time)</t>
+  </si>
+  <si>
+    <t>Session44 Running 200 sims for τₚ=0.25
+1069.905698 seconds (28.21 G allocations: 939.585 GiB, 45.52% gc time)
+Session44 Running 200 sims for τₚ=0.5
+2501.999148 seconds (26.90 G allocations: 894.665 GiB, 48.36% gc time)
+Session44 Running 200 sims for τₚ=0.75</t>
+  </si>
 </sst>
 </file>
 
@@ -2378,7 +2394,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2427,6 +2443,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2440,7 +2468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2556,6 +2584,12 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -4264,8 +4298,8 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4280,7 +4314,7 @@
     <col min="8" max="8" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="49.85546875" style="33" customWidth="1"/>
+    <col min="11" max="11" width="54" style="33" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -4614,7 +4648,7 @@
     <row r="18" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K18" s="31"/>
     </row>
-    <row r="19" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="28" customFormat="1" ht="84" x14ac:dyDescent="0.25">
       <c r="A19" s="36" t="s">
         <v>85</v>
       </c>
@@ -4627,7 +4661,9 @@
       <c r="D19" s="36">
         <v>7</v>
       </c>
-      <c r="E19" s="36"/>
+      <c r="E19" s="36">
+        <v>50</v>
+      </c>
       <c r="F19" s="36" t="s">
         <v>106</v>
       </c>
@@ -4638,40 +4674,44 @@
       <c r="I19" s="36">
         <v>43</v>
       </c>
-      <c r="K19" s="31"/>
-    </row>
-    <row r="20" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36" t="s">
+      <c r="K19" s="30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="28" customFormat="1" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="G20" s="36">
-        <v>500</v>
-      </c>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36">
+      <c r="G20" s="42">
+        <v>200</v>
+      </c>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42">
         <v>44</v>
       </c>
-      <c r="K20" s="31"/>
+      <c r="K20" s="30" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="21" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36" t="s">
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="G21" s="36">
-        <v>500</v>
-      </c>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36">
+      <c r="G21" s="42">
+        <v>200</v>
+      </c>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42">
         <v>45</v>
       </c>
       <c r="K21" s="31"/>
@@ -4683,12 +4723,67 @@
       <c r="K23" s="31"/>
     </row>
     <row r="24" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="41">
+        <v>10</v>
+      </c>
+      <c r="D24" s="41">
+        <v>7</v>
+      </c>
+      <c r="E24" s="41">
+        <v>50</v>
+      </c>
+      <c r="F24" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24" s="41">
+        <v>500</v>
+      </c>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41">
+        <v>46</v>
+      </c>
       <c r="K24" s="31"/>
     </row>
     <row r="25" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="G25" s="41">
+        <v>500</v>
+      </c>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41">
+        <v>47</v>
+      </c>
       <c r="K25" s="31"/>
     </row>
     <row r="26" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="G26" s="41">
+        <v>500</v>
+      </c>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41">
+        <v>48</v>
+      </c>
       <c r="K26" s="31"/>
     </row>
     <row r="27" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">

--- a/contacts/session_params.xlsx
+++ b/contacts/session_params.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="118">
   <si>
     <t>tau p</t>
   </si>
@@ -2354,6 +2354,31 @@
 2501.999148 seconds (26.90 G allocations: 894.665 GiB, 48.36% gc time)
 Session44 Running 200 sims for τₚ=0.75</t>
   </si>
+  <si>
+    <t>Session55 Running 100 sims for τₚ=0.0
+Session55 Running 100 sims for τₚ=0.25
+Session55 Running 100 sims for τₚ=0.5
+Session55 Running 100 sims for τₚ=0.75
+Session55 Running 100 sims for τₚ=0.9</t>
+  </si>
+  <si>
+    <t>Session56 Running 100 sims for τₚ=0.0
+Session56 Running 100 sims for τₚ=0.25
+Session56 Running 100 sims for τₚ=0.5
+Session56 Running 100 sims for τₚ=0.75
+Session56 Running 100 sims for τₚ=0.9
+4515.861133 seconds (63.73 G allocations: 2.537 TiB, 61.37% gc time)</t>
+  </si>
+  <si>
+    <t>WITH S AND R</t>
+  </si>
+  <si>
+    <t>Session57 Running 100 sims for τₚ=0.25
+Session57 Running 100 sims for τₚ=0.5
+Session57 Running 100 sims for τₚ=0.75
+Session57 Running 100 sims for τₚ=0.9
+4175.755049 seconds (164.58 G allocations: 5.928 TiB, 44.46% gc time)</t>
+  </si>
 </sst>
 </file>
 
@@ -2394,7 +2419,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2445,13 +2470,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2468,7 +2499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2591,6 +2622,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4295,11 +4333,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I39" sqref="A39:I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4679,19 +4717,19 @@
       </c>
     </row>
     <row r="20" spans="1:11" s="28" customFormat="1" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42" t="s">
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="G20" s="42">
+      <c r="G20" s="41">
         <v>200</v>
       </c>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42">
+      <c r="H20" s="41"/>
+      <c r="I20" s="41">
         <v>44</v>
       </c>
       <c r="K20" s="30" t="s">
@@ -4699,19 +4737,19 @@
       </c>
     </row>
     <row r="21" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42" t="s">
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="G21" s="42">
+      <c r="G21" s="41">
         <v>200</v>
       </c>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42">
+      <c r="H21" s="41"/>
+      <c r="I21" s="41">
         <v>45</v>
       </c>
       <c r="K21" s="31"/>
@@ -4723,65 +4761,50 @@
       <c r="K23" s="31"/>
     </row>
     <row r="24" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="B24" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="41">
-        <v>10</v>
-      </c>
-      <c r="D24" s="41">
-        <v>7</v>
-      </c>
-      <c r="E24" s="41">
-        <v>50</v>
-      </c>
-      <c r="F24" s="41" t="s">
+      <c r="F24" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="G24" s="41">
+      <c r="G24" s="42">
         <v>500</v>
       </c>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41">
+      <c r="H24" s="42"/>
+      <c r="I24" s="42">
         <v>46</v>
       </c>
       <c r="K24" s="31"/>
     </row>
     <row r="25" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41" t="s">
+      <c r="A25" s="42"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="G25" s="41">
+      <c r="G25" s="42">
         <v>500</v>
       </c>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41">
+      <c r="H25" s="42"/>
+      <c r="I25" s="42">
         <v>47</v>
       </c>
       <c r="K25" s="31"/>
     </row>
     <row r="26" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41" t="s">
+      <c r="A26" s="42"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="G26" s="41">
+      <c r="G26" s="42">
         <v>500</v>
       </c>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41">
+      <c r="H26" s="42"/>
+      <c r="I26" s="42">
         <v>48</v>
       </c>
       <c r="K26" s="31"/>
@@ -4793,28 +4816,306 @@
       <c r="K28" s="31"/>
     </row>
     <row r="29" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K29" s="31"/>
+      <c r="A29" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="36">
+        <v>10</v>
+      </c>
+      <c r="D29" s="36">
+        <v>7</v>
+      </c>
+      <c r="E29" s="36">
+        <v>50</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="G29" s="36">
+        <v>10</v>
+      </c>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36">
+        <v>51</v>
+      </c>
+      <c r="K29" s="31" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="30" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K30" s="31"/>
+      <c r="A30" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="37">
+        <v>10</v>
+      </c>
+      <c r="D30" s="37">
+        <v>7</v>
+      </c>
+      <c r="E30" s="37">
+        <v>50</v>
+      </c>
+      <c r="F30" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="G30" s="37">
+        <v>10</v>
+      </c>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37">
+        <v>52</v>
+      </c>
+      <c r="K30" s="31" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="31" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K31" s="32"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="G31" s="36">
+        <v>10</v>
+      </c>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36">
+        <v>53</v>
+      </c>
+      <c r="K31" s="31" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="32" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K32" s="32"/>
-    </row>
-    <row r="33" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K33" s="32"/>
-    </row>
-    <row r="34" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K34" s="32"/>
-    </row>
-    <row r="35" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K35" s="32"/>
-    </row>
-    <row r="36" spans="11:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K36" s="32"/>
+      <c r="K32" s="31"/>
+    </row>
+    <row r="33" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K33" s="31"/>
+    </row>
+    <row r="34" spans="1:11" s="28" customFormat="1" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="36">
+        <v>10</v>
+      </c>
+      <c r="D34" s="36">
+        <v>7</v>
+      </c>
+      <c r="E34" s="36">
+        <v>50</v>
+      </c>
+      <c r="F34" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="G34" s="36">
+        <v>100</v>
+      </c>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36">
+        <v>55</v>
+      </c>
+      <c r="K34" s="30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="28" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A35" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="37">
+        <v>10</v>
+      </c>
+      <c r="D35" s="37">
+        <v>7</v>
+      </c>
+      <c r="E35" s="37">
+        <v>50</v>
+      </c>
+      <c r="F35" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="G35" s="37">
+        <v>100</v>
+      </c>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37">
+        <v>56</v>
+      </c>
+      <c r="K35" s="30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="28" customFormat="1" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36">
+        <v>57</v>
+      </c>
+      <c r="K36" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K37" s="32"/>
+    </row>
+    <row r="38" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K38" s="32"/>
+    </row>
+    <row r="39" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="43">
+        <v>10</v>
+      </c>
+      <c r="D39" s="43">
+        <v>7</v>
+      </c>
+      <c r="E39" s="43">
+        <v>50</v>
+      </c>
+      <c r="F39" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="G39" s="43">
+        <v>1000</v>
+      </c>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43">
+        <v>60</v>
+      </c>
+      <c r="K39" s="32"/>
+    </row>
+    <row r="40" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="43"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="G40" s="43">
+        <v>1000</v>
+      </c>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43">
+        <v>61</v>
+      </c>
+      <c r="K40" s="32"/>
+    </row>
+    <row r="41" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="43"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="G41" s="43">
+        <v>1000</v>
+      </c>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43">
+        <v>62</v>
+      </c>
+      <c r="K41" s="32"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="44"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="45"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45">
+        <v>100</v>
+      </c>
+      <c r="F43" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="G43" s="43">
+        <v>1000</v>
+      </c>
+      <c r="H43" s="45"/>
+      <c r="I43" s="45">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="45"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45">
+        <v>100</v>
+      </c>
+      <c r="F44" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="G44" s="45">
+        <v>1000</v>
+      </c>
+      <c r="H44" s="45"/>
+      <c r="I44" s="45">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="45"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45">
+        <v>100</v>
+      </c>
+      <c r="F45" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="G45" s="45">
+        <v>1000</v>
+      </c>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/contacts/session_params.xlsx
+++ b/contacts/session_params.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="122">
   <si>
     <t>tau p</t>
   </si>
@@ -2379,12 +2379,55 @@
 Session57 Running 100 sims for τₚ=0.9
 4175.755049 seconds (164.58 G allocations: 5.928 TiB, 44.46% gc time)</t>
   </si>
+  <si>
+    <t>OUTPUT ERROR=NEGATIVE VALUES</t>
+  </si>
+  <si>
+    <t>Any[0.0, 106568.5, 206501.0, 338238.0, 439495.0]
+Any[0.0, 432746.0, 847929.5, 1.398383e6, 1.8245425e6]
+Skipping taup=0 --&gt; TO BE COPIED
+Session74 Running 50 sims for τₚ=0.25
+438.563253 seconds (8.11 G allocations: 342.749 GiB, 64.93% gc time)
+Session74 Running 50 sims for τₚ=0.5
+517.872426 seconds (7.21 G allocations: 312.201 GiB, 66.76% gc time)
+Session74 Running 50 sims for τₚ=0.75
+473.456767 seconds (7.15 G allocations: 310.936 GiB, 63.84% gc time)
+Session74 Running 50 sims for τₚ=0.9
+478.198395 seconds (6.47 G allocations: 286.910 GiB, 62.95% gc time)</t>
+  </si>
+  <si>
+    <t>KILIFI: Any[0.0, 50032.0, 110870.0, 182651.0, 233649.5]
+NAIROBI: Any[0.0, 204099.0, 449417.0, 749154.5, 959661.0]
+Session73 Running 50 sims for τₚ=0.0
+287.477857 seconds (1.95 G allocations: 117.976 GiB, 82.18% gc time)
+Session73 Running 50 sims for τₚ=0.25
+313.048341 seconds (2.67 G allocations: 144.948 GiB, 81.00% gc time)
+Session73 Running 50 sims for τₚ=0.5
+372.505307 seconds (2.62 G allocations: 143.013 GiB, 83.47% gc time)
+Session73 Running 50 sims for τₚ=0.75
+171.452624 seconds (2.58 G allocations: 141.783 GiB, 68.90% gc time)
+Session73 Running 50 sims for τₚ=0.9
+363.811353 seconds (2.70 G allocations: 146.428 GiB, 81.81% gc time)</t>
+  </si>
+  <si>
+    <t>Any[0.0, 166245.0, 211533.5, 262631.5, 296429.0]
+Any[0.0, 679853.5, 867368.5, 1.0797195e6, 1.2211e6]
+Skipping taup=0 --&gt; TO BE COPIED
+Session75 Running 50 sims for τₚ=0.25
+489.856731 seconds (17.28 G allocations: 668.669 GiB, 44.65% gc time)
+Session75 Running 50 sims for τₚ=0.5
+569.028282 seconds (17.05 G allocations: 662.006 GiB, 53.19% gc time)
+Session75 Running 50 sims for τₚ=0.75
+625.749542 seconds (16.17 G allocations: 631.852 GiB, 54.74% gc time)
+Session75 Running 50 sims for τₚ=0.9
+667.067265 seconds (15.65 G allocations: 613.601 GiB, 60.35% gc time)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2418,8 +2461,14 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2483,6 +2532,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2590,12 +2645,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2623,12 +2672,20 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4333,26 +4390,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I39" sqref="A39:I45"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="54" style="33" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="54" style="31" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -4527,85 +4584,85 @@
       <c r="K10" s="31"/>
     </row>
     <row r="11" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="32">
         <v>10</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="32">
         <v>7</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="32">
         <v>50</v>
       </c>
-      <c r="F11" s="35" t="s">
+      <c r="F11" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="34">
+      <c r="G11" s="32">
         <v>100</v>
       </c>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34">
+      <c r="H11" s="32"/>
+      <c r="I11" s="32">
         <v>36</v>
       </c>
       <c r="K11" s="31"/>
     </row>
     <row r="12" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="32">
         <v>10</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="32">
         <v>7</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="32">
         <v>50</v>
       </c>
-      <c r="F12" s="35" t="s">
+      <c r="F12" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G12" s="32">
         <v>100</v>
       </c>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34">
+      <c r="H12" s="32"/>
+      <c r="I12" s="32">
         <v>37</v>
       </c>
       <c r="K12" s="31"/>
     </row>
     <row r="13" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13" s="32">
         <v>10</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="32">
         <v>7</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="32">
         <v>50</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="F13" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13" s="32">
         <v>100</v>
       </c>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34">
+      <c r="H13" s="32"/>
+      <c r="I13" s="32">
         <v>38</v>
       </c>
       <c r="K13" s="31"/>
@@ -4614,29 +4671,29 @@
       <c r="K14" s="31"/>
     </row>
     <row r="15" spans="1:11" s="28" customFormat="1" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C15" s="37">
         <v>10</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D15" s="37">
         <v>7</v>
       </c>
-      <c r="E15" s="39">
+      <c r="E15" s="37">
         <v>50</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="G15" s="39">
+      <c r="G15" s="37">
         <v>20</v>
       </c>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39">
+      <c r="H15" s="37"/>
+      <c r="I15" s="37">
         <v>40</v>
       </c>
       <c r="K15" s="30" t="s">
@@ -4644,19 +4701,19 @@
       </c>
     </row>
     <row r="16" spans="1:11" s="28" customFormat="1" ht="203.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38" t="s">
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="G16" s="37">
+      <c r="G16" s="35">
         <v>20</v>
       </c>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37">
+      <c r="H16" s="35"/>
+      <c r="I16" s="35">
         <v>41</v>
       </c>
       <c r="K16" s="30" t="s">
@@ -4664,19 +4721,19 @@
       </c>
     </row>
     <row r="17" spans="1:11" s="28" customFormat="1" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="40" t="s">
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="G17" s="39">
+      <c r="G17" s="37">
         <v>20</v>
       </c>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39">
+      <c r="H17" s="37"/>
+      <c r="I17" s="37">
         <v>42</v>
       </c>
       <c r="K17" s="30" t="s">
@@ -4687,29 +4744,29 @@
       <c r="K18" s="31"/>
     </row>
     <row r="19" spans="1:11" s="28" customFormat="1" ht="84" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="34">
         <v>10</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D19" s="34">
         <v>7</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="34">
         <v>50</v>
       </c>
-      <c r="F19" s="36" t="s">
+      <c r="F19" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="34">
         <v>500</v>
       </c>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36">
+      <c r="H19" s="34"/>
+      <c r="I19" s="34">
         <v>43</v>
       </c>
       <c r="K19" s="30" t="s">
@@ -4717,19 +4774,19 @@
       </c>
     </row>
     <row r="20" spans="1:11" s="28" customFormat="1" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41" t="s">
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="G20" s="41">
+      <c r="G20" s="39">
         <v>200</v>
       </c>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41">
+      <c r="H20" s="39"/>
+      <c r="I20" s="39">
         <v>44</v>
       </c>
       <c r="K20" s="30" t="s">
@@ -4737,19 +4794,19 @@
       </c>
     </row>
     <row r="21" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41" t="s">
+      <c r="A21" s="39"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="G21" s="41">
+      <c r="G21" s="39">
         <v>200</v>
       </c>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41">
+      <c r="H21" s="39"/>
+      <c r="I21" s="39">
         <v>45</v>
       </c>
       <c r="K21" s="31"/>
@@ -4761,50 +4818,50 @@
       <c r="K23" s="31"/>
     </row>
     <row r="24" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F24" s="42" t="s">
+      <c r="F24" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="G24" s="42">
+      <c r="G24" s="40">
         <v>500</v>
       </c>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42">
+      <c r="H24" s="40"/>
+      <c r="I24" s="40">
         <v>46</v>
       </c>
       <c r="K24" s="31"/>
     </row>
     <row r="25" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42" t="s">
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="G25" s="42">
+      <c r="G25" s="40">
         <v>500</v>
       </c>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42">
+      <c r="H25" s="40"/>
+      <c r="I25" s="40">
         <v>47</v>
       </c>
       <c r="K25" s="31"/>
     </row>
     <row r="26" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42" t="s">
+      <c r="A26" s="40"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="G26" s="42">
+      <c r="G26" s="40">
         <v>500</v>
       </c>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42">
+      <c r="H26" s="40"/>
+      <c r="I26" s="40">
         <v>48</v>
       </c>
       <c r="K26" s="31"/>
@@ -4816,29 +4873,29 @@
       <c r="K28" s="31"/>
     </row>
     <row r="29" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="36">
+      <c r="C29" s="34">
         <v>10</v>
       </c>
-      <c r="D29" s="36">
+      <c r="D29" s="34">
         <v>7</v>
       </c>
-      <c r="E29" s="36">
+      <c r="E29" s="34">
         <v>50</v>
       </c>
-      <c r="F29" s="36" t="s">
+      <c r="F29" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="G29" s="36">
+      <c r="G29" s="34">
         <v>10</v>
       </c>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36">
+      <c r="H29" s="34"/>
+      <c r="I29" s="34">
         <v>51</v>
       </c>
       <c r="K29" s="31" t="s">
@@ -4846,29 +4903,29 @@
       </c>
     </row>
     <row r="30" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="37">
+      <c r="C30" s="35">
         <v>10</v>
       </c>
-      <c r="D30" s="37">
+      <c r="D30" s="35">
         <v>7</v>
       </c>
-      <c r="E30" s="37">
+      <c r="E30" s="35">
         <v>50</v>
       </c>
-      <c r="F30" s="37" t="s">
+      <c r="F30" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="G30" s="37">
+      <c r="G30" s="35">
         <v>10</v>
       </c>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37">
+      <c r="H30" s="35"/>
+      <c r="I30" s="35">
         <v>52</v>
       </c>
       <c r="K30" s="31" t="s">
@@ -4876,19 +4933,19 @@
       </c>
     </row>
     <row r="31" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36" t="s">
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="G31" s="36">
+      <c r="G31" s="34">
         <v>10</v>
       </c>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36">
+      <c r="H31" s="34"/>
+      <c r="I31" s="34">
         <v>53</v>
       </c>
       <c r="K31" s="31" t="s">
@@ -4902,29 +4959,29 @@
       <c r="K33" s="31"/>
     </row>
     <row r="34" spans="1:11" s="28" customFormat="1" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="36">
+      <c r="C34" s="34">
         <v>10</v>
       </c>
-      <c r="D34" s="36">
+      <c r="D34" s="34">
         <v>7</v>
       </c>
-      <c r="E34" s="36">
+      <c r="E34" s="34">
         <v>50</v>
       </c>
-      <c r="F34" s="36" t="s">
+      <c r="F34" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="G34" s="36">
+      <c r="G34" s="34">
         <v>100</v>
       </c>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36">
+      <c r="H34" s="34"/>
+      <c r="I34" s="34">
         <v>55</v>
       </c>
       <c r="K34" s="30" t="s">
@@ -4932,29 +4989,29 @@
       </c>
     </row>
     <row r="35" spans="1:11" s="28" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="37">
+      <c r="C35" s="35">
         <v>10</v>
       </c>
-      <c r="D35" s="37">
+      <c r="D35" s="35">
         <v>7</v>
       </c>
-      <c r="E35" s="37">
+      <c r="E35" s="35">
         <v>50</v>
       </c>
-      <c r="F35" s="37" t="s">
+      <c r="F35" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="G35" s="37">
+      <c r="G35" s="35">
         <v>100</v>
       </c>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37">
+      <c r="H35" s="35"/>
+      <c r="I35" s="35">
         <v>56</v>
       </c>
       <c r="K35" s="30" t="s">
@@ -4962,17 +5019,17 @@
       </c>
     </row>
     <row r="36" spans="1:11" s="28" customFormat="1" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="36"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36" t="s">
+      <c r="A36" s="34"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36">
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34">
         <v>57</v>
       </c>
       <c r="K36" s="30" t="s">
@@ -4980,141 +5037,463 @@
       </c>
     </row>
     <row r="37" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K37" s="32"/>
+      <c r="K37" s="31"/>
     </row>
     <row r="38" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K38" s="32"/>
+      <c r="K38" s="31"/>
     </row>
     <row r="39" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="B39" s="43" t="s">
+      <c r="B39" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="43">
+      <c r="C39" s="35">
         <v>10</v>
       </c>
-      <c r="D39" s="43">
+      <c r="D39" s="35">
         <v>7</v>
       </c>
-      <c r="E39" s="43">
+      <c r="E39" s="35">
         <v>50</v>
       </c>
-      <c r="F39" s="43" t="s">
+      <c r="F39" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="G39" s="43">
+      <c r="G39" s="35">
         <v>1000</v>
       </c>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43">
+      <c r="H39" s="35"/>
+      <c r="I39" s="35">
         <v>60</v>
       </c>
-      <c r="K39" s="32"/>
+      <c r="K39" s="41" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="40" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="43"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43" t="s">
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="G40" s="43">
+      <c r="G40" s="35">
         <v>1000</v>
       </c>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43">
+      <c r="H40" s="35"/>
+      <c r="I40" s="35">
         <v>61</v>
       </c>
-      <c r="K40" s="32"/>
+      <c r="K40" s="31"/>
     </row>
     <row r="41" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="43"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43" t="s">
+      <c r="A41" s="35"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="G41" s="43">
+      <c r="G41" s="35">
         <v>1000</v>
       </c>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43">
+      <c r="H41" s="35"/>
+      <c r="I41" s="35">
         <v>62</v>
       </c>
-      <c r="K41" s="32"/>
+      <c r="K41" s="31"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="44"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
+      <c r="A42" s="42"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="45"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="45">
+      <c r="A43" s="35"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35">
         <v>100</v>
       </c>
-      <c r="F43" s="43" t="s">
+      <c r="F43" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="G43" s="43">
+      <c r="G43" s="35">
         <v>1000</v>
       </c>
-      <c r="H43" s="45"/>
-      <c r="I43" s="45">
+      <c r="H43" s="35"/>
+      <c r="I43" s="35">
         <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="45"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="45">
+      <c r="A44" s="35"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35">
         <v>100</v>
       </c>
-      <c r="F44" s="43" t="s">
+      <c r="F44" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="G44" s="45">
+      <c r="G44" s="35">
         <v>1000</v>
       </c>
-      <c r="H44" s="45"/>
-      <c r="I44" s="45">
+      <c r="H44" s="35"/>
+      <c r="I44" s="35">
         <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="45"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="45">
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35">
         <v>100</v>
       </c>
-      <c r="F45" s="43" t="s">
+      <c r="F45" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="G45" s="45">
+      <c r="G45" s="35">
         <v>1000</v>
       </c>
-      <c r="H45" s="45"/>
-      <c r="I45" s="45">
+      <c r="H45" s="35"/>
+      <c r="I45" s="35">
         <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="34">
+        <v>10</v>
+      </c>
+      <c r="D48" s="34">
+        <v>7</v>
+      </c>
+      <c r="E48" s="34">
+        <v>50</v>
+      </c>
+      <c r="F48" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="G48" s="34">
+        <v>5</v>
+      </c>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="34"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="G49" s="34">
+        <v>5</v>
+      </c>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="34"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="G50" s="34">
+        <v>5</v>
+      </c>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="28"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+    </row>
+    <row r="52" spans="1:11" ht="136.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="34"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34">
+        <v>50</v>
+      </c>
+      <c r="F52" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="G52" s="34">
+        <v>50</v>
+      </c>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34">
+        <v>73</v>
+      </c>
+      <c r="K52" s="30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="126" x14ac:dyDescent="0.2">
+      <c r="A53" s="45"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="45">
+        <v>50</v>
+      </c>
+      <c r="F53" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="G53" s="45">
+        <v>50</v>
+      </c>
+      <c r="H53" s="45"/>
+      <c r="I53" s="45">
+        <v>74</v>
+      </c>
+      <c r="K53" s="30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="126" x14ac:dyDescent="0.2">
+      <c r="A54" s="34"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34">
+        <v>50</v>
+      </c>
+      <c r="F54" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="G54" s="34">
+        <v>50</v>
+      </c>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34">
+        <v>75</v>
+      </c>
+      <c r="K54" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="44"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="44"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="44"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="43">
+        <v>100</v>
+      </c>
+      <c r="F56" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="G56" s="43">
+        <v>50</v>
+      </c>
+      <c r="H56" s="43"/>
+      <c r="I56" s="43">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="44"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="43">
+        <v>100</v>
+      </c>
+      <c r="F57" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="G57" s="43">
+        <v>50</v>
+      </c>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="44"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="43">
+        <v>100</v>
+      </c>
+      <c r="F58" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="G58" s="43">
+        <v>50</v>
+      </c>
+      <c r="H58" s="43"/>
+      <c r="I58" s="43">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" s="7">
+        <v>10</v>
+      </c>
+      <c r="D63" s="7">
+        <v>7</v>
+      </c>
+      <c r="E63" s="7">
+        <v>50</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G63" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I63" s="7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E64" s="7">
+        <v>50</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G64" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I64" s="7">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E65" s="7">
+        <v>50</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G65" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I65" s="7">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E67" s="7">
+        <v>100</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G67" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I67" s="7">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E68" s="7">
+        <v>100</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G68" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I68" s="7">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E69" s="7">
+        <v>100</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G69" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I69" s="7">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/contacts/session_params.xlsx
+++ b/contacts/session_params.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="128">
   <si>
     <t>tau p</t>
   </si>
@@ -2422,12 +2422,39 @@
 Session75 Running 50 sims for τₚ=0.9
 667.067265 seconds (15.65 G allocations: 613.601 GiB, 60.35% gc time)</t>
   </si>
+  <si>
+    <t xml:space="preserve"> /opt/ohpc/pub/apps/julia/1.3.1/bin/julia      /home/rabiaaziza/julia_projects/KenyaCoV-MakingContacts_v5/contacts/run_sessions80-81.jl</t>
+  </si>
+  <si>
+    <t>Skipping taup=0 --&gt; TO BE COPIED
+Session76 Running 50 sims for τₚ=0.25
+924.168675 seconds (2.64 G allocations: 143.997 GiB, 86.78% gc time)
+Session76 Running 50 sims for τₚ=0.5
+664.215569 seconds (2.63 G allocations: 143.596 GiB, 86.59% gc time)
+Session76 Running 50 sims for τₚ=0.75
+417.667592 seconds (2.56 G allocations: 141.125 GiB, 83.51% gc time)
+Session76 Running 50 sims for τₚ=0.9
+714.870593 seconds (2.67 G allocations: 145.426 GiB, 87.86% gc time)</t>
+  </si>
+  <si>
+    <t>ERROR
+RE RUN ALONE session 79</t>
+  </si>
+  <si>
+    <t>INTERRUPTED</t>
+  </si>
+  <si>
+    <t>[0%,0%,0%,0%]</t>
+  </si>
+  <si>
+    <t>TESTING FOR 0%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2467,8 +2494,21 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2541,6 +2581,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2554,7 +2600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2679,14 +2725,27 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3503,8 +3562,8 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4390,11 +4449,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K69"/>
+  <dimension ref="A1:L77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H70" sqref="H70"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5203,7 +5262,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="34"/>
       <c r="B49" s="34"/>
       <c r="C49" s="34"/>
@@ -5220,7 +5279,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="34"/>
       <c r="B50" s="34"/>
       <c r="C50" s="34"/>
@@ -5237,7 +5296,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="28"/>
       <c r="B51" s="28"/>
       <c r="C51" s="28"/>
@@ -5248,7 +5307,7 @@
       <c r="H51" s="28"/>
       <c r="I51" s="28"/>
     </row>
-    <row r="52" spans="1:11" ht="136.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" ht="136.5" x14ac:dyDescent="0.2">
       <c r="A52" s="34"/>
       <c r="B52" s="34"/>
       <c r="C52" s="34"/>
@@ -5270,29 +5329,29 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="126" x14ac:dyDescent="0.2">
-      <c r="A53" s="45"/>
-      <c r="B53" s="45"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="45">
+    <row r="53" spans="1:12" ht="126" x14ac:dyDescent="0.2">
+      <c r="A53" s="44"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="44">
         <v>50</v>
       </c>
-      <c r="F53" s="45" t="s">
+      <c r="F53" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="G53" s="45">
+      <c r="G53" s="44">
         <v>50</v>
       </c>
-      <c r="H53" s="45"/>
-      <c r="I53" s="45">
+      <c r="H53" s="44"/>
+      <c r="I53" s="44">
         <v>74</v>
       </c>
       <c r="K53" s="30" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="126" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" ht="126" x14ac:dyDescent="0.2">
       <c r="A54" s="34"/>
       <c r="B54" s="34"/>
       <c r="C54" s="34"/>
@@ -5314,186 +5373,268 @@
         <v>121</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="44"/>
-      <c r="B55" s="44"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="44"/>
-      <c r="H55" s="44"/>
-      <c r="I55" s="44"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="44"/>
-      <c r="B56" s="44"/>
-      <c r="C56" s="44"/>
-      <c r="D56" s="44"/>
-      <c r="E56" s="43">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" s="43"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="43"/>
+    </row>
+    <row r="56" spans="1:12" ht="94.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="45"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="46">
         <v>100</v>
       </c>
-      <c r="F56" s="43" t="s">
+      <c r="F56" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="G56" s="43">
+      <c r="G56" s="46">
         <v>50</v>
       </c>
-      <c r="H56" s="43"/>
-      <c r="I56" s="43">
+      <c r="H56" s="46"/>
+      <c r="I56" s="46">
         <v>76</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="44"/>
-      <c r="B57" s="44"/>
-      <c r="C57" s="44"/>
-      <c r="D57" s="44"/>
-      <c r="E57" s="43">
+      <c r="K56" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="L56" s="47" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="48"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="49">
         <v>100</v>
       </c>
-      <c r="F57" s="43" t="s">
+      <c r="F57" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="G57" s="43">
+      <c r="G57" s="49">
         <v>50</v>
       </c>
-      <c r="H57" s="43"/>
-      <c r="I57" s="43">
+      <c r="H57" s="49"/>
+      <c r="I57" s="49">
         <v>77</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="44"/>
-      <c r="B58" s="44"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="44"/>
-      <c r="E58" s="43">
+      <c r="K57" s="41" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="48"/>
+      <c r="B58" s="48"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="49">
         <v>100</v>
       </c>
-      <c r="F58" s="43" t="s">
+      <c r="F58" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="G58" s="43">
+      <c r="G58" s="49">
         <v>50</v>
       </c>
-      <c r="H58" s="43"/>
-      <c r="I58" s="43">
+      <c r="H58" s="49"/>
+      <c r="I58" s="49">
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="7" t="s">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E60" s="7">
+        <v>100</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G60" s="7">
+        <v>50</v>
+      </c>
+      <c r="I60" s="7">
+        <v>77</v>
+      </c>
+      <c r="L60" s="50" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E61" s="7">
+        <v>100</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G61" s="7">
+        <v>50</v>
+      </c>
+      <c r="I61" s="7">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63" s="43">
         <v>10</v>
       </c>
-      <c r="D63" s="7">
+      <c r="D63" s="43">
         <v>7</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E63" s="43">
         <v>50</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="F63" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="G63" s="7">
-        <v>1000</v>
-      </c>
-      <c r="H63" s="7" t="s">
+      <c r="G63" s="43">
+        <v>500</v>
+      </c>
+      <c r="H63" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="I63" s="7">
+      <c r="I63" s="43">
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E64" s="7">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="43"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="43">
         <v>50</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F64" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="G64" s="7">
-        <v>1000</v>
-      </c>
-      <c r="H64" s="7" t="s">
+      <c r="G64" s="43">
+        <v>500</v>
+      </c>
+      <c r="H64" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="I64" s="7">
+      <c r="I64" s="43">
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E65" s="7">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="43"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="43"/>
+      <c r="E65" s="43">
         <v>50</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="F65" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="G65" s="7">
-        <v>1000</v>
-      </c>
-      <c r="H65" s="7" t="s">
+      <c r="G65" s="43">
+        <v>500</v>
+      </c>
+      <c r="H65" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="I65" s="7">
+      <c r="I65" s="43">
         <v>82</v>
       </c>
     </row>
-    <row r="67" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E67" s="7">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="43"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="43"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="43"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43">
         <v>100</v>
       </c>
-      <c r="F67" s="7" t="s">
+      <c r="F67" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="G67" s="7">
-        <v>1000</v>
-      </c>
-      <c r="H67" s="7" t="s">
+      <c r="G67" s="43">
+        <v>500</v>
+      </c>
+      <c r="H67" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="I67" s="7">
+      <c r="I67" s="43">
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E68" s="7">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="43"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="43">
         <v>100</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="F68" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="G68" s="7">
-        <v>1000</v>
-      </c>
-      <c r="H68" s="7" t="s">
+      <c r="G68" s="43">
+        <v>500</v>
+      </c>
+      <c r="H68" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="I68" s="7">
+      <c r="I68" s="43">
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E69" s="7">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="43"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="43"/>
+      <c r="E69" s="43">
         <v>100</v>
       </c>
-      <c r="F69" s="7" t="s">
+      <c r="F69" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="G69" s="7">
-        <v>1000</v>
-      </c>
-      <c r="H69" s="7" t="s">
+      <c r="G69" s="43">
+        <v>500</v>
+      </c>
+      <c r="H69" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="I69" s="7">
+      <c r="I69" s="43">
         <v>85</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B77" s="7" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/contacts/session_params.xlsx
+++ b/contacts/session_params.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="138">
   <si>
     <t>tau p</t>
   </si>
@@ -2449,6 +2449,108 @@
   <si>
     <t>TESTING FOR 0%</t>
   </si>
+  <si>
+    <t xml:space="preserve">Session77 Running 50 sims for τₚ=0.0
+507.699685 seconds (1.92 G allocations: 116.787 GiB, 85.38% gc time)
+Session77 Running 50 sims for τₚ=0.25
+486.477573 seconds (6.08 G allocations: 271.173 GiB, 62.38% gc time)
+Session77 Running 50 sims for τₚ=0.5
+590.871114 seconds (5.71 G allocations: 257.989 GiB, 71.71% gc time)
+Session77 Running 50 sims for τₚ=0.75
+514.753168 seconds (5.54 G allocations: 251.974 GiB, 67.58% gc time)
+Session77 Running 50 sims for τₚ=0.9
+498.206056 seconds (5.70 G allocations: 258.226 GiB, 67.86% gc time)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Session78 Running 50 sims for τₚ=0.0
+584.497526 seconds (1.93 G allocations: 116.774 GiB, 88.14% gc time)
+Session78 Running 50 sims for τₚ=0.25
+425.465572 seconds (5.77 G allocations: 260.231 GiB, 67.61% gc time)
+Session78 Running 50 sims for τₚ=0.5
+413.152747 seconds (5.55 G allocations: 252.733 GiB, 64.49% gc time)
+Session78 Running 50 sims for τₚ=0.75
+627.619561 seconds (5.37 G allocations: 246.585 GiB, 74.53% gc time)
+Session78 Running 50 sims for τₚ=0.9
+464.867973 seconds (5.21 G allocations: 240.789 GiB, 70.37% gc time)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Session80 Running 500 sims for τₚ=0.0
+1968.676170 seconds (19.28 G allocations: 1.142 TiB, 5.98% gc time)
+Session80 Running 500 sims for τₚ=0.25
+2730.686361 seconds (26.54 G allocations: 1.409 TiB, 6.76% gc time)
+Session80 Running 500 sims for τₚ=0.5
+2781.862810 seconds (26.67 G allocations: 1.414 TiB, 6.47% gc time)
+Session80 Running 500 sims for τₚ=0.75
+2841.542634 seconds (26.65 G allocations: 1.413 TiB, 6.50% gc time)
+Session80 Running 500 sims for τₚ=0.9
+3048.051844 seconds (26.86 G allocations: 1.420 TiB, 7.01% gc time)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Session81 Running 500 sims for τₚ=0.0
+2018.141642 seconds (19.24 G allocations: 1.141 TiB, 5.77% gc time)
+Session81 Running 500 sims for τₚ=0.25
+6345.023893 seconds (90.72 G allocations: 3.664 TiB, 11.50% gc time)
+Session81 Running 500 sims for τₚ=0.5
+5935.024596 seconds (86.63 G allocations: 3.529 TiB, 11.48% gc time)
+Session81 Running 500 sims for τₚ=0.75
+5734.633896 seconds (85.62 G allocations: 3.501 TiB, 11.13% gc time)
+Session81 Running 500 sims for τₚ=0.9
+5595.388133 seconds (80.39 G allocations: 3.324 TiB, 11.53% gc time)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Session83 Running 500 sims for τₚ=0.25
+2743.597156 seconds (25.83 G allocations: 1.382 TiB, 6.43% gc time)
+Session83 Running 500 sims for τₚ=0.5
+2808.682387 seconds (25.82 G allocations: 1.381 TiB, 6.17% gc time)
+Session83 Running 500 sims for τₚ=0.75
+2881.083590 seconds (25.74 G allocations: 1.379 TiB, 6.01% gc time)
+Session83 Running 500 sims for τₚ=0.9
+2917.417614 seconds (26.03 G allocations: 1.390 TiB, 6.18% gc time)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Session84 Running 500 sims for τₚ=0.25
+5090.768368 seconds (63.41 G allocations: 2.736 TiB, 10.73% gc time)
+Session84 Running 500 sims for τₚ=0.5
+4965.396318 seconds (59.70 G allocations: 2.612 TiB, 9.69% gc time)
+Session84 Running 500 sims for τₚ=0.75
+4629.965518 seconds (55.23 G allocations: 2.461 TiB, 9.51% gc time)
+Session84 Running 500 sims for τₚ=0.9
+4656.412590 seconds (54.12 G allocations: 2.425 TiB, 9.08% gc time)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Session85 Running 500 sims for τₚ=0.25
+7869.610880 seconds (119.70 G allocations: 4.705 TiB, 12.01% gc time)
+Session85 Running 500 sims for τₚ=0.5
+7980.562923 seconds (110.69 G allocations: 4.408 TiB, 11.51% gc time)
+Session85 Running 500 sims for τₚ=0.75
+8558.946291 seconds (101.28 G allocations: 4.091 TiB, 12.20% gc time)
+Session85 Running 500 sims for τₚ=0.9
+7518.483614 seconds (94.56 G allocations: 3.856 TiB, 10.00% gc time)
+</t>
+  </si>
+  <si>
+    <t>NEGATIVE GAIN IN 25%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Session82 Running 500 sims for τₚ=0.25
+16777.597253 seconds (354.67 G allocations: 12.505 TiB, 14.92% gc time)
+Session82 Running 500 sims for τₚ=0.5
+15875.777448 seconds (325.37 G allocations: 11.545 TiB, 14.67% gc time)
+Session82 Running 500 sims for τₚ=0.75
+14342.361313 seconds (299.27 G allocations: 10.692 TiB, 14.35% gc time)
+Session82 Running 500 sims for τₚ=0.9
+13783.605268 seconds (282.73 G allocations: 10.151 TiB, 16.77% gc time)
+</t>
+  </si>
+  <si>
+    <t>same as 80,81,82,83,84,85 with different n_traj</t>
+  </si>
 </sst>
 </file>
 
@@ -2508,7 +2610,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2587,6 +2689,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2600,7 +2714,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2746,6 +2860,19 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4449,11 +4576,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L77"/>
+  <dimension ref="A1:M83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F60" sqref="F60"/>
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5450,7 +5577,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="50" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="115.5" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>126</v>
       </c>
@@ -5466,11 +5598,11 @@
       <c r="I60" s="7">
         <v>77</v>
       </c>
-      <c r="L60" s="50" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K60" s="30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="115.5" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>126</v>
       </c>
@@ -5486,154 +5618,316 @@
       <c r="I61" s="7">
         <v>78</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63" s="43" t="s">
+      <c r="K61" s="30" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="115.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="B63" s="43" t="s">
+      <c r="B63" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="C63" s="43">
+      <c r="C63" s="34">
         <v>10</v>
       </c>
-      <c r="D63" s="43">
+      <c r="D63" s="34">
         <v>7</v>
       </c>
-      <c r="E63" s="43">
+      <c r="E63" s="34">
         <v>50</v>
       </c>
-      <c r="F63" s="43" t="s">
+      <c r="F63" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="G63" s="43">
+      <c r="G63" s="34">
         <v>500</v>
       </c>
-      <c r="H63" s="43" t="s">
+      <c r="H63" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="I63" s="43">
+      <c r="I63" s="34">
         <v>80</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" s="43"/>
-      <c r="B64" s="43"/>
-      <c r="C64" s="43"/>
-      <c r="D64" s="43"/>
-      <c r="E64" s="43">
+      <c r="K63" s="30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="115.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="35"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="35">
         <v>50</v>
       </c>
-      <c r="F64" s="43" t="s">
+      <c r="F64" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="G64" s="43">
+      <c r="G64" s="35">
         <v>500</v>
       </c>
-      <c r="H64" s="43" t="s">
+      <c r="H64" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="I64" s="43">
+      <c r="I64" s="35">
         <v>81</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="43"/>
-      <c r="B65" s="43"/>
-      <c r="C65" s="43"/>
-      <c r="D65" s="43"/>
-      <c r="E65" s="43">
+      <c r="K64" s="30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="94.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="52"/>
+      <c r="B65" s="52"/>
+      <c r="C65" s="52"/>
+      <c r="D65" s="52"/>
+      <c r="E65" s="52">
         <v>50</v>
       </c>
-      <c r="F65" s="43" t="s">
+      <c r="F65" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="G65" s="43">
+      <c r="G65" s="52">
         <v>500</v>
       </c>
-      <c r="H65" s="43" t="s">
+      <c r="H65" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="I65" s="43">
+      <c r="I65" s="52">
         <v>82</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="43"/>
-      <c r="B66" s="43"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="43"/>
-      <c r="I66" s="43"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="43"/>
-      <c r="B67" s="43"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="43">
+      <c r="K65" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="L65" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="M65" s="7"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66" s="51"/>
+      <c r="B66" s="51"/>
+      <c r="C66" s="51"/>
+      <c r="D66" s="51"/>
+      <c r="E66" s="51"/>
+      <c r="F66" s="51"/>
+      <c r="G66" s="51"/>
+      <c r="H66" s="51"/>
+      <c r="I66" s="51"/>
+    </row>
+    <row r="67" spans="1:13" ht="94.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="35"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35">
         <v>100</v>
       </c>
-      <c r="F67" s="43" t="s">
+      <c r="F67" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="G67" s="43">
+      <c r="G67" s="35">
         <v>500</v>
       </c>
-      <c r="H67" s="43" t="s">
+      <c r="H67" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="I67" s="43">
+      <c r="I67" s="35">
         <v>83</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="43"/>
-      <c r="B68" s="43"/>
-      <c r="C68" s="43"/>
-      <c r="D68" s="43"/>
-      <c r="E68" s="43">
+      <c r="K67" s="30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="94.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="34"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="34">
         <v>100</v>
       </c>
-      <c r="F68" s="43" t="s">
+      <c r="F68" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="G68" s="43">
+      <c r="G68" s="34">
         <v>500</v>
       </c>
-      <c r="H68" s="43" t="s">
+      <c r="H68" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="I68" s="43">
+      <c r="I68" s="34">
         <v>84</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="43"/>
-      <c r="B69" s="43"/>
-      <c r="C69" s="43"/>
-      <c r="D69" s="43"/>
-      <c r="E69" s="43">
+      <c r="K68" s="30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="94.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="35"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="35">
         <v>100</v>
       </c>
-      <c r="F69" s="43" t="s">
+      <c r="F69" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="G69" s="43">
+      <c r="G69" s="35">
         <v>500</v>
       </c>
-      <c r="H69" s="43" t="s">
+      <c r="H69" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="I69" s="43">
+      <c r="I69" s="35">
         <v>85</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B77" s="7" t="s">
+      <c r="K69" s="30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A72" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="B72" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="C72" s="54">
+        <v>10</v>
+      </c>
+      <c r="D72" s="54">
+        <v>7</v>
+      </c>
+      <c r="E72" s="54">
+        <v>50</v>
+      </c>
+      <c r="F72" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="G72" s="54">
+        <v>100</v>
+      </c>
+      <c r="H72" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="I72" s="54">
+        <v>90</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A73" s="54"/>
+      <c r="B73" s="54"/>
+      <c r="C73" s="54"/>
+      <c r="D73" s="54"/>
+      <c r="E73" s="54">
+        <v>50</v>
+      </c>
+      <c r="F73" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="G73" s="54">
+        <v>100</v>
+      </c>
+      <c r="H73" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="I73" s="54">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A74" s="54"/>
+      <c r="B74" s="54"/>
+      <c r="C74" s="54"/>
+      <c r="D74" s="54"/>
+      <c r="E74" s="55">
+        <v>50</v>
+      </c>
+      <c r="F74" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="G74" s="54">
+        <v>100</v>
+      </c>
+      <c r="H74" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="I74" s="54">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A75" s="54"/>
+      <c r="B75" s="54"/>
+      <c r="C75" s="54"/>
+      <c r="D75" s="54"/>
+      <c r="E75" s="54">
+        <v>100</v>
+      </c>
+      <c r="F75" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="G75" s="54">
+        <v>100</v>
+      </c>
+      <c r="H75" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="I75" s="54">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A76" s="54"/>
+      <c r="B76" s="54"/>
+      <c r="C76" s="54"/>
+      <c r="D76" s="54"/>
+      <c r="E76" s="54">
+        <v>100</v>
+      </c>
+      <c r="F76" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="G76" s="54">
+        <v>100</v>
+      </c>
+      <c r="H76" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="I76" s="54">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A77" s="54"/>
+      <c r="B77" s="54"/>
+      <c r="C77" s="54"/>
+      <c r="D77" s="54"/>
+      <c r="E77" s="54">
+        <v>100</v>
+      </c>
+      <c r="F77" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="G77" s="54">
+        <v>100</v>
+      </c>
+      <c r="H77" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="I77" s="54">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B83" s="7" t="s">
         <v>122</v>
       </c>
     </row>

--- a/contacts/session_params.xlsx
+++ b/contacts/session_params.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="143">
   <si>
     <t>tau p</t>
   </si>
@@ -2551,6 +2551,123 @@
   <si>
     <t>same as 80,81,82,83,84,85 with different n_traj</t>
   </si>
+  <si>
+    <t>ϵ,σ,γ,δ,β=0.30.31945488495624720.40.22.7272727272727275
+Session90 Running 100 sims for τₚ=0.0
+1575.106288 seconds (3.84 G allocations: 233.397 GiB, 91.60% gc time)
+Session90 Running 100 sims for τₚ=0.25
+156.643357 seconds (5.37 G allocations: 291.555 GiB, 40.10% gc time)
+Session90 Running 100 sims for τₚ=0.5
+181.945902 seconds (5.25 G allocations: 287.252 GiB, 42.19% gc time)
+Session90 Running 100 sims for τₚ=0.75
+169.279670 seconds (5.26 G allocations: 287.779 GiB, 41.09% gc time)
+Session90 Running 100 sims for τₚ=0.9
+172.641129 seconds (5.17 G allocations: 284.668 GiB, 40.39% gc time)
+Session91 Running 100 sims for τₚ=0.0
+1209.136994 seconds (3.84 G allocations: 233.363 GiB, 90.00% gc time)
+Session91 Running 100 sims for τₚ=0.25
+338.033631 seconds (20.24 G allocations: 821.174 GiB, 43.47% gc time)
+Session91 Running 100 sims for τₚ=0.5
+325.788399 seconds (19.13 G allocations: 783.910 GiB, 44.45% gc time)
+Session91 Running 100 sims for τₚ=0.75
+311.817197 seconds (17.62 G allocations: 732.513 GiB, 43.53% gc time)
+Session91 Running 100 sims for τₚ=0.9
+304.796239 seconds (17.34 G allocations: 723.783 GiB, 43.33% gc time)
+Session92 Running 100 sims for τₚ=0.0
+167.016249 seconds (3.84 G allocations: 233.367 GiB, 42.89% gc time)
+Session92 Running 100 sims for τₚ=0.25
+742.057817 seconds (61.39 G allocations: 2.186 TiB, 43.44% gc time)
+Session92 Running 100 sims for τₚ=0.5
+725.422030 seconds (57.83 G allocations: 2.071 TiB, 42.92% gc time)
+Session92 Running 100 sims for τₚ=0.75
+709.260968 seconds (55.47 G allocations: 1.996 TiB, 43.61% gc time)
+Session92 Running 100 sims for τₚ=0.9
+657.346203 seconds (50.65 G allocations: 1.836 TiB, 44.84% gc time)
+Session93 Running 100 sims for τₚ=0.0
+169.476181 seconds (3.84 G allocations: 233.362 GiB, 42.04% gc time)
+Session93 Running 100 sims for τₚ=0.25
+198.617309 seconds (5.18 G allocations: 284.450 GiB, 43.33% gc time)
+Session93 Running 100 sims for τₚ=0.5
+174.130111 seconds (5.18 G allocations: 284.247 GiB, 41.61% gc time)
+Session93 Running 100 sims for τₚ=0.75
+168.382411 seconds (5.15 G allocations: 283.388 GiB, 39.83% gc time)
+Session93 Running 100 sims for τₚ=0.9
+167.678695 seconds (5.11 G allocations: 282.317 GiB, 40.78% gc time)
+Session94 Running 100 sims for τₚ=0.0
+165.445106 seconds (3.84 G allocations: 233.363 GiB, 42.59% gc time)
+Session94 Running 100 sims for τₚ=0.25
+300.941341 seconds (16.91 G allocations: 704.575 GiB, 43.04% gc time)
+Session94 Running 100 sims for τₚ=0.5
+278.337399 seconds (15.83 G allocations: 668.133 GiB, 43.84% gc time)
+Session94 Running 100 sims for τₚ=0.75
+277.126717 seconds (14.79 G allocations: 633.121 GiB, 42.61% gc time)
+Session94 Running 100 sims for τₚ=0.9
+278.162820 seconds (14.66 G allocations: 629.487 GiB, 43.32% gc time)
+Session95 Running 100 sims for τₚ=0.0
+172.251187 seconds (3.84 G allocations: 233.363 GiB, 42.77% gc time)
+Session95 Running 100 sims for τₚ=0.25
+598.666378 seconds (47.70 G allocations: 1.728 TiB, 43.49% gc time)
+Session95 Running 100 sims for τₚ=0.5
+581.154383 seconds (44.96 G allocations: 1.639 TiB, 43.96% gc time)
+Session95 Running 100 sims for τₚ=0.75
+567.414710 seconds (40.81 G allocations: 1.503 TiB, 43.42% gc time)
+Session95 Running 100 sims for τₚ=0.9
+527.823195 seconds (37.74 G allocations: 1.401 TiB, 44.55% gc time)</t>
+  </si>
+  <si>
+    <t>we don’t stop detecting</t>
+  </si>
+  <si>
+    <t>we stop detecting when we stop tracing</t>
+  </si>
+  <si>
+    <t>ϵ,σ,γ,δ,β=0.30.20.40.22.7272727272727275
+┌ Warning: readtable is deprecated, use CSV.read from the CSV package instead
+│   caller = get_prevdata(::String) at kenya_data.jl:35
+└ @ KenyaCoV_contacts C:\Users\rabia\Documents\GitHub\KenyaCoV\src\kenya_data.jl:35
+┌ Warning: readtable is deprecated, use CSV.read from the CSV package instead
+│   caller = get_flightdata(::String) at kenya_data.jl:28
+└ @ KenyaCoV_contacts C:\Users\rabia\Documents\GitHub\KenyaCoV\src\kenya_data.jl:28
+Session30 Running 30 sims for τₚ=0.0
+172.047799 seconds (1.18 G allocations: 71.264 GiB, 80.96% gc time)
+Session30 Running 30 sims for τₚ=0.25
+191.268074 seconds (1.16 G allocations: 70.126 GiB, 84.24% gc time)
+Session30 Running 30 sims for τₚ=0.75
+229.806353 seconds (1.16 G allocations: 70.117 GiB, 85.74% gc time)
+Session31 Running 30 sims for τₚ=0.0
+205.728810 seconds (1.15 G allocations: 70.060 GiB, 85.20% gc time)
+Session31 Running 30 sims for τₚ=0.25
+174.067278 seconds (1.28 G allocations: 73.808 GiB, 81.39% gc time)
+Session31 Running 30 sims for τₚ=0.75
+255.926255 seconds (1.25 G allocations: 72.911 GiB, 86.90% gc time)
+Session32 Running 30 sims for τₚ=0.0
+206.361619 seconds (1.15 G allocations: 70.059 GiB, 84.38% gc time)
+Session32 Running 30 sims for τₚ=0.25
+231.970263 seconds (1.28 G allocations: 74.033 GiB, 84.53% gc time)
+Session32 Running 30 sims for τₚ=0.75
+231.202742 seconds (1.27 G allocations: 73.754 GiB, 84.33% gc time)
+Session33 Running 30 sims for τₚ=0.0
+236.284147 seconds (1.15 G allocations: 70.060 GiB, 85.59% gc time)
+Session33 Running 30 sims for τₚ=0.25
+223.632035 seconds (1.41 G allocations: 79.122 GiB, 82.89% gc time)
+Session33 Running 30 sims for τₚ=0.75
+199.969306 seconds (1.41 G allocations: 79.521 GiB, 83.51% gc time)
+Session34 Running 30 sims for τₚ=0.0
+287.310786 seconds (1.15 G allocations: 70.060 GiB, 88.08% gc time)
+Session34 Running 30 sims for τₚ=0.25
+182.728037 seconds (1.60 G allocations: 87.083 GiB, 78.97% gc time)
+Session34 Running 30 sims for τₚ=0.75
+243.529525 seconds (1.54 G allocations: 84.893 GiB, 83.31% gc time)
+Session35 Running 30 sims for τₚ=0.0
+247.346822 seconds (1.15 G allocations: 70.059 GiB, 85.64% gc time)
+Session35 Running 30 sims for τₚ=0.25
+301.616281 seconds (14.97 G allocations: 556.567 GiB, 49.27% gc time)
+Session35 Running 30 sims for τₚ=0.75
+302.303422 seconds (14.07 G allocations: 527.821 GiB, 44.81% gc time)</t>
+  </si>
+  <si>
+    <t>we use duration instead of rate</t>
+  </si>
 </sst>
 </file>
 
@@ -2697,7 +2814,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2714,7 +2831,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2781,12 +2898,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2835,26 +2946,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2869,10 +2968,36 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="2" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4576,1362 +4701,1672 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M83"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K104" sqref="K104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="26" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="54" style="31" customWidth="1"/>
+    <col min="11" max="11" width="54" style="29" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="27" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:11" s="25" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="48" t="s">
         <v>87</v>
       </c>
       <c r="J1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="26"/>
-    </row>
-    <row r="2" spans="1:11" s="28" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="K1" s="24"/>
+    </row>
+    <row r="2" spans="1:11" s="26" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="26">
         <v>10</v>
       </c>
-      <c r="D2" s="28">
+      <c r="D2" s="26">
         <v>7</v>
       </c>
-      <c r="E2" s="28">
+      <c r="E2" s="26">
         <v>50</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="26">
         <v>200</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="28">
+      <c r="I2" s="26">
         <v>20</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="28" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="28" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="F3" s="29" t="s">
+    <row r="3" spans="1:11" s="26" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="F3" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="28">
+      <c r="I3" s="26">
         <v>21</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="28" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="28" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="F4" s="29" t="s">
+    <row r="4" spans="1:11" s="26" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="F4" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="28">
+      <c r="I4" s="26">
         <v>22</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="K4" s="30" t="s">
+      <c r="K4" s="28" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K5" s="31"/>
-    </row>
-    <row r="6" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K6" s="31"/>
-    </row>
-    <row r="7" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K7" s="31"/>
-    </row>
-    <row r="8" spans="1:11" s="28" customFormat="1" ht="176.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+    <row r="5" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="29"/>
+    </row>
+    <row r="6" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="29"/>
+    </row>
+    <row r="7" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="29"/>
+    </row>
+    <row r="8" spans="1:11" s="26" customFormat="1" ht="176.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="26">
         <v>10</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="26">
         <v>7</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="26">
         <v>50</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="26">
         <v>10</v>
       </c>
-      <c r="I8" s="28">
+      <c r="I8" s="26">
         <v>30</v>
       </c>
-      <c r="K8" s="30" t="s">
+      <c r="K8" s="28" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K9" s="31"/>
-    </row>
-    <row r="10" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+    <row r="9" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="29"/>
+    </row>
+    <row r="10" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="26">
         <v>10</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="26">
         <v>7</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="26">
         <v>50</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="26">
         <v>10</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="26">
         <v>35</v>
       </c>
-      <c r="K10" s="31"/>
-    </row>
-    <row r="11" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+      <c r="K10" s="29"/>
+    </row>
+    <row r="11" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="30">
         <v>10</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="30">
         <v>7</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="30">
         <v>50</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G11" s="30">
         <v>100</v>
       </c>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32">
+      <c r="H11" s="30"/>
+      <c r="I11" s="30">
         <v>36</v>
       </c>
-      <c r="K11" s="31"/>
-    </row>
-    <row r="12" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
+      <c r="K11" s="29"/>
+    </row>
+    <row r="12" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="30">
         <v>10</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="30">
         <v>7</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="30">
         <v>50</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="30">
         <v>100</v>
       </c>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32">
+      <c r="H12" s="30"/>
+      <c r="I12" s="30">
         <v>37</v>
       </c>
-      <c r="K12" s="31"/>
-    </row>
-    <row r="13" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="K12" s="29"/>
+    </row>
+    <row r="13" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="30">
         <v>10</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="30">
         <v>7</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="30">
         <v>50</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="G13" s="32">
+      <c r="G13" s="30">
         <v>100</v>
       </c>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32">
+      <c r="H13" s="30"/>
+      <c r="I13" s="30">
         <v>38</v>
       </c>
-      <c r="K13" s="31"/>
-    </row>
-    <row r="14" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K14" s="31"/>
-    </row>
-    <row r="15" spans="1:11" s="28" customFormat="1" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+      <c r="K13" s="29"/>
+    </row>
+    <row r="14" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K14" s="29"/>
+    </row>
+    <row r="15" spans="1:11" s="26" customFormat="1" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="35">
         <v>10</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="35">
         <v>7</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="35">
         <v>50</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="G15" s="37">
+      <c r="G15" s="35">
         <v>20</v>
       </c>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37">
+      <c r="H15" s="35"/>
+      <c r="I15" s="35">
         <v>40</v>
       </c>
-      <c r="K15" s="30" t="s">
+      <c r="K15" s="28" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="28" customFormat="1" ht="203.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36" t="s">
+    <row r="16" spans="1:11" s="26" customFormat="1" ht="203.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="G16" s="35">
+      <c r="G16" s="33">
         <v>20</v>
       </c>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35">
+      <c r="H16" s="33"/>
+      <c r="I16" s="33">
         <v>41</v>
       </c>
-      <c r="K16" s="30" t="s">
+      <c r="K16" s="28" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="28" customFormat="1" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="38" t="s">
+    <row r="17" spans="1:11" s="26" customFormat="1" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="35">
         <v>20</v>
       </c>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37">
+      <c r="H17" s="35"/>
+      <c r="I17" s="35">
         <v>42</v>
       </c>
-      <c r="K17" s="30" t="s">
+      <c r="K17" s="28" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K18" s="31"/>
-    </row>
-    <row r="19" spans="1:11" s="28" customFormat="1" ht="84" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+    <row r="18" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K18" s="29"/>
+    </row>
+    <row r="19" spans="1:11" s="26" customFormat="1" ht="84" x14ac:dyDescent="0.25">
+      <c r="A19" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="34">
+      <c r="C19" s="32">
         <v>10</v>
       </c>
-      <c r="D19" s="34">
+      <c r="D19" s="32">
         <v>7</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="32">
         <v>50</v>
       </c>
-      <c r="F19" s="34" t="s">
+      <c r="F19" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="G19" s="34">
+      <c r="G19" s="32">
         <v>500</v>
       </c>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34">
+      <c r="H19" s="32"/>
+      <c r="I19" s="32">
         <v>43</v>
       </c>
-      <c r="K19" s="30" t="s">
+      <c r="K19" s="28" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="28" customFormat="1" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39" t="s">
+    <row r="20" spans="1:11" s="26" customFormat="1" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="G20" s="39">
+      <c r="G20" s="37">
         <v>200</v>
       </c>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39">
+      <c r="H20" s="37"/>
+      <c r="I20" s="37">
         <v>44</v>
       </c>
-      <c r="K20" s="30" t="s">
+      <c r="K20" s="28" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39" t="s">
+    <row r="21" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="G21" s="39">
+      <c r="G21" s="37">
         <v>200</v>
       </c>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39">
+      <c r="H21" s="37"/>
+      <c r="I21" s="37">
         <v>45</v>
       </c>
-      <c r="K21" s="31"/>
-    </row>
-    <row r="22" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K22" s="31"/>
-    </row>
-    <row r="23" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K23" s="31"/>
-    </row>
-    <row r="24" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F24" s="40" t="s">
+      <c r="K21" s="29"/>
+    </row>
+    <row r="22" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K22" s="29"/>
+    </row>
+    <row r="23" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K23" s="29"/>
+    </row>
+    <row r="24" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="G24" s="40">
+      <c r="G24" s="38">
         <v>500</v>
       </c>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40">
+      <c r="H24" s="38"/>
+      <c r="I24" s="38">
         <v>46</v>
       </c>
-      <c r="K24" s="31"/>
-    </row>
-    <row r="25" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40" t="s">
+      <c r="K24" s="29"/>
+    </row>
+    <row r="25" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="G25" s="40">
+      <c r="G25" s="38">
         <v>500</v>
       </c>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40">
+      <c r="H25" s="38"/>
+      <c r="I25" s="38">
         <v>47</v>
       </c>
-      <c r="K25" s="31"/>
-    </row>
-    <row r="26" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40" t="s">
+      <c r="K25" s="29"/>
+    </row>
+    <row r="26" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="G26" s="40">
+      <c r="G26" s="38">
         <v>500</v>
       </c>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40">
+      <c r="H26" s="38"/>
+      <c r="I26" s="38">
         <v>48</v>
       </c>
-      <c r="K26" s="31"/>
-    </row>
-    <row r="27" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K27" s="31"/>
-    </row>
-    <row r="28" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K28" s="31"/>
-    </row>
-    <row r="29" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
+      <c r="K26" s="29"/>
+    </row>
+    <row r="27" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K27" s="29"/>
+    </row>
+    <row r="28" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K28" s="29"/>
+    </row>
+    <row r="29" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="34">
+      <c r="C29" s="32">
         <v>10</v>
       </c>
-      <c r="D29" s="34">
+      <c r="D29" s="32">
         <v>7</v>
       </c>
-      <c r="E29" s="34">
+      <c r="E29" s="32">
         <v>50</v>
       </c>
-      <c r="F29" s="34" t="s">
+      <c r="F29" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="G29" s="34">
+      <c r="G29" s="32">
         <v>10</v>
       </c>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34">
+      <c r="H29" s="32"/>
+      <c r="I29" s="32">
         <v>51</v>
       </c>
-      <c r="K29" s="31" t="s">
+      <c r="K29" s="29" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="35" t="s">
+    <row r="30" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="35">
+      <c r="C30" s="33">
         <v>10</v>
       </c>
-      <c r="D30" s="35">
+      <c r="D30" s="33">
         <v>7</v>
       </c>
-      <c r="E30" s="35">
+      <c r="E30" s="33">
         <v>50</v>
       </c>
-      <c r="F30" s="35" t="s">
+      <c r="F30" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="G30" s="35">
+      <c r="G30" s="33">
         <v>10</v>
       </c>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35">
+      <c r="H30" s="33"/>
+      <c r="I30" s="33">
         <v>52</v>
       </c>
-      <c r="K30" s="31" t="s">
+      <c r="K30" s="29" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34" t="s">
+    <row r="31" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="G31" s="34">
+      <c r="G31" s="32">
         <v>10</v>
       </c>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34">
+      <c r="H31" s="32"/>
+      <c r="I31" s="32">
         <v>53</v>
       </c>
-      <c r="K31" s="31" t="s">
+      <c r="K31" s="29" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K32" s="31"/>
-    </row>
-    <row r="33" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K33" s="31"/>
-    </row>
-    <row r="34" spans="1:11" s="28" customFormat="1" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
+    <row r="32" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K32" s="29"/>
+    </row>
+    <row r="33" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K33" s="29"/>
+    </row>
+    <row r="34" spans="1:11" s="26" customFormat="1" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="34">
+      <c r="C34" s="32">
         <v>10</v>
       </c>
-      <c r="D34" s="34">
+      <c r="D34" s="32">
         <v>7</v>
       </c>
-      <c r="E34" s="34">
+      <c r="E34" s="32">
         <v>50</v>
       </c>
-      <c r="F34" s="34" t="s">
+      <c r="F34" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="G34" s="34">
+      <c r="G34" s="32">
         <v>100</v>
       </c>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34">
+      <c r="H34" s="32"/>
+      <c r="I34" s="32">
         <v>55</v>
       </c>
-      <c r="K34" s="30" t="s">
+      <c r="K34" s="28" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="28" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A35" s="35" t="s">
+    <row r="35" spans="1:11" s="26" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A35" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="35">
+      <c r="C35" s="33">
         <v>10</v>
       </c>
-      <c r="D35" s="35">
+      <c r="D35" s="33">
         <v>7</v>
       </c>
-      <c r="E35" s="35">
+      <c r="E35" s="33">
         <v>50</v>
       </c>
-      <c r="F35" s="35" t="s">
+      <c r="F35" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="G35" s="35">
+      <c r="G35" s="33">
         <v>100</v>
       </c>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35">
+      <c r="H35" s="33"/>
+      <c r="I35" s="33">
         <v>56</v>
       </c>
-      <c r="K35" s="30" t="s">
+      <c r="K35" s="28" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="28" customFormat="1" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="34"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34" t="s">
+    <row r="36" spans="1:11" s="26" customFormat="1" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34">
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32">
         <v>57</v>
       </c>
-      <c r="K36" s="30" t="s">
+      <c r="K36" s="28" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K37" s="31"/>
-    </row>
-    <row r="38" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K38" s="31"/>
-    </row>
-    <row r="39" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="35" t="s">
+    <row r="37" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K37" s="29"/>
+    </row>
+    <row r="38" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K38" s="29"/>
+    </row>
+    <row r="39" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="35">
+      <c r="C39" s="33">
         <v>10</v>
       </c>
-      <c r="D39" s="35">
+      <c r="D39" s="33">
         <v>7</v>
       </c>
-      <c r="E39" s="35">
+      <c r="E39" s="33">
         <v>50</v>
       </c>
-      <c r="F39" s="35" t="s">
+      <c r="F39" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="G39" s="35">
+      <c r="G39" s="33">
         <v>1000</v>
       </c>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35">
+      <c r="H39" s="33"/>
+      <c r="I39" s="33">
         <v>60</v>
       </c>
-      <c r="K39" s="41" t="s">
+      <c r="K39" s="39" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="35"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35" t="s">
+    <row r="40" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="33"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="G40" s="35">
+      <c r="G40" s="33">
         <v>1000</v>
       </c>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35">
+      <c r="H40" s="33"/>
+      <c r="I40" s="33">
         <v>61</v>
       </c>
-      <c r="K40" s="31"/>
-    </row>
-    <row r="41" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="35"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35" t="s">
+      <c r="K40" s="29"/>
+    </row>
+    <row r="41" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="33"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="G41" s="35">
+      <c r="G41" s="33">
         <v>1000</v>
       </c>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35">
+      <c r="H41" s="33"/>
+      <c r="I41" s="33">
         <v>62</v>
       </c>
-      <c r="K41" s="31"/>
+      <c r="K41" s="29"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="42"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
+      <c r="A42" s="33"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="35"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35">
+      <c r="A43" s="33"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33">
         <v>100</v>
       </c>
-      <c r="F43" s="35" t="s">
+      <c r="F43" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="G43" s="35">
+      <c r="G43" s="33">
         <v>1000</v>
       </c>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35">
+      <c r="H43" s="33"/>
+      <c r="I43" s="33">
         <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="35"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35">
+      <c r="A44" s="33"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33">
         <v>100</v>
       </c>
-      <c r="F44" s="35" t="s">
+      <c r="F44" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="G44" s="35">
+      <c r="G44" s="33">
         <v>1000</v>
       </c>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35">
+      <c r="H44" s="33"/>
+      <c r="I44" s="33">
         <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="35"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35">
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33">
         <v>100</v>
       </c>
-      <c r="F45" s="35" t="s">
+      <c r="F45" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="G45" s="35">
+      <c r="G45" s="33">
         <v>1000</v>
       </c>
-      <c r="H45" s="35"/>
-      <c r="I45" s="35">
+      <c r="H45" s="33"/>
+      <c r="I45" s="33">
         <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="34" t="s">
+      <c r="A48" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="B48" s="34" t="s">
+      <c r="B48" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="34">
+      <c r="C48" s="32">
         <v>10</v>
       </c>
-      <c r="D48" s="34">
+      <c r="D48" s="32">
         <v>7</v>
       </c>
-      <c r="E48" s="34">
+      <c r="E48" s="32">
         <v>50</v>
       </c>
-      <c r="F48" s="34" t="s">
+      <c r="F48" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="G48" s="34">
+      <c r="G48" s="32">
         <v>5</v>
       </c>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34">
+      <c r="H48" s="32"/>
+      <c r="I48" s="32">
         <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="34"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34" t="s">
+      <c r="A49" s="32"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G49" s="34">
+      <c r="G49" s="32">
         <v>5</v>
       </c>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34">
+      <c r="H49" s="32"/>
+      <c r="I49" s="32">
         <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="34"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34" t="s">
+      <c r="A50" s="32"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="G50" s="34">
+      <c r="G50" s="32">
         <v>5</v>
       </c>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34">
+      <c r="H50" s="32"/>
+      <c r="I50" s="32">
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="28"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-    </row>
     <row r="52" spans="1:12" ht="136.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="34"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34">
+      <c r="A52" s="32"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32">
         <v>50</v>
       </c>
-      <c r="F52" s="34" t="s">
+      <c r="F52" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="G52" s="34">
+      <c r="G52" s="32">
         <v>50</v>
       </c>
-      <c r="H52" s="34"/>
-      <c r="I52" s="34">
+      <c r="H52" s="32"/>
+      <c r="I52" s="32">
         <v>73</v>
       </c>
-      <c r="K52" s="30" t="s">
+      <c r="K52" s="28" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="126" x14ac:dyDescent="0.2">
-      <c r="A53" s="44"/>
-      <c r="B53" s="44"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="44">
+      <c r="A53" s="40"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40">
         <v>50</v>
       </c>
-      <c r="F53" s="44" t="s">
+      <c r="F53" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="G53" s="44">
+      <c r="G53" s="40">
         <v>50</v>
       </c>
-      <c r="H53" s="44"/>
-      <c r="I53" s="44">
+      <c r="H53" s="40"/>
+      <c r="I53" s="40">
         <v>74</v>
       </c>
-      <c r="K53" s="30" t="s">
+      <c r="K53" s="28" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="126" x14ac:dyDescent="0.2">
-      <c r="A54" s="34"/>
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34">
+      <c r="A54" s="32"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32">
         <v>50</v>
       </c>
-      <c r="F54" s="34" t="s">
+      <c r="F54" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="G54" s="34">
+      <c r="G54" s="32">
         <v>50</v>
       </c>
-      <c r="H54" s="34"/>
-      <c r="I54" s="34">
+      <c r="H54" s="32"/>
+      <c r="I54" s="32">
         <v>75</v>
       </c>
-      <c r="K54" s="30" t="s">
+      <c r="K54" s="28" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" s="43"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="43"/>
-      <c r="E55" s="43"/>
-      <c r="F55" s="43"/>
-      <c r="G55" s="43"/>
-      <c r="H55" s="43"/>
-      <c r="I55" s="43"/>
+      <c r="A55" s="51"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="51"/>
     </row>
     <row r="56" spans="1:12" ht="94.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="45"/>
-      <c r="B56" s="45"/>
-      <c r="C56" s="45"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="46">
+      <c r="A56" s="41"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41">
         <v>100</v>
       </c>
-      <c r="F56" s="46" t="s">
+      <c r="F56" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="G56" s="46">
+      <c r="G56" s="41">
         <v>50</v>
       </c>
-      <c r="H56" s="46"/>
-      <c r="I56" s="46">
+      <c r="H56" s="41"/>
+      <c r="I56" s="41">
         <v>76</v>
       </c>
-      <c r="K56" s="30" t="s">
+      <c r="K56" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="L56" s="47" t="s">
+      <c r="L56" s="42" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" s="48"/>
-      <c r="B57" s="48"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="49">
+      <c r="A57" s="43"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43">
         <v>100</v>
       </c>
-      <c r="F57" s="49" t="s">
+      <c r="F57" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="G57" s="49">
+      <c r="G57" s="43">
         <v>50</v>
       </c>
-      <c r="H57" s="49"/>
-      <c r="I57" s="49">
+      <c r="H57" s="43"/>
+      <c r="I57" s="43">
         <v>77</v>
       </c>
-      <c r="K57" s="41" t="s">
+      <c r="K57" s="39" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" s="48"/>
-      <c r="B58" s="48"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="48"/>
-      <c r="E58" s="49">
+      <c r="A58" s="43"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43">
         <v>100</v>
       </c>
-      <c r="F58" s="49" t="s">
+      <c r="F58" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="G58" s="49">
+      <c r="G58" s="43">
         <v>50</v>
       </c>
-      <c r="H58" s="49"/>
-      <c r="I58" s="49">
+      <c r="H58" s="43"/>
+      <c r="I58" s="43">
         <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L59" s="50" t="s">
+      <c r="L59" s="44" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="115.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="26">
         <v>100</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="F60" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="G60" s="7">
+      <c r="G60" s="26">
         <v>50</v>
       </c>
-      <c r="I60" s="7">
+      <c r="I60" s="26">
         <v>77</v>
       </c>
-      <c r="K60" s="30" t="s">
+      <c r="K60" s="28" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="115.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E61" s="26">
         <v>100</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="F61" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="G61" s="7">
+      <c r="G61" s="26">
         <v>50</v>
       </c>
-      <c r="I61" s="7">
+      <c r="I61" s="26">
         <v>78</v>
       </c>
-      <c r="K61" s="30" t="s">
+      <c r="K61" s="28" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="115.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="34" t="s">
+      <c r="A63" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="B63" s="34" t="s">
+      <c r="B63" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="C63" s="34">
+      <c r="C63" s="32">
         <v>10</v>
       </c>
-      <c r="D63" s="34">
+      <c r="D63" s="32">
         <v>7</v>
       </c>
-      <c r="E63" s="34">
+      <c r="E63" s="32">
         <v>50</v>
       </c>
-      <c r="F63" s="34" t="s">
+      <c r="F63" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="G63" s="34">
+      <c r="G63" s="32">
         <v>500</v>
       </c>
-      <c r="H63" s="34" t="s">
+      <c r="H63" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="I63" s="34">
+      <c r="I63" s="32">
         <v>80</v>
       </c>
-      <c r="K63" s="30" t="s">
+      <c r="K63" s="28" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="115.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="35"/>
-      <c r="B64" s="35"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35">
+      <c r="A64" s="33"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33">
         <v>50</v>
       </c>
-      <c r="F64" s="35" t="s">
+      <c r="F64" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="G64" s="35">
+      <c r="G64" s="33">
         <v>500</v>
       </c>
-      <c r="H64" s="35" t="s">
+      <c r="H64" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="I64" s="35">
+      <c r="I64" s="33">
         <v>81</v>
       </c>
-      <c r="K64" s="30" t="s">
+      <c r="K64" s="28" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="94.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="52"/>
-      <c r="B65" s="52"/>
-      <c r="C65" s="52"/>
-      <c r="D65" s="52"/>
-      <c r="E65" s="52">
+      <c r="A65" s="46"/>
+      <c r="B65" s="46"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="46"/>
+      <c r="E65" s="46">
         <v>50</v>
       </c>
-      <c r="F65" s="52" t="s">
+      <c r="F65" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="G65" s="52">
+      <c r="G65" s="46">
         <v>500</v>
       </c>
-      <c r="H65" s="52" t="s">
+      <c r="H65" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="I65" s="52">
+      <c r="I65" s="46">
         <v>82</v>
       </c>
-      <c r="K65" s="30" t="s">
+      <c r="K65" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="L65" s="53" t="s">
+      <c r="L65" s="47" t="s">
         <v>135</v>
       </c>
       <c r="M65" s="7"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A66" s="51"/>
-      <c r="B66" s="51"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="51"/>
-      <c r="E66" s="51"/>
-      <c r="F66" s="51"/>
-      <c r="G66" s="51"/>
-      <c r="H66" s="51"/>
-      <c r="I66" s="51"/>
+      <c r="A66" s="45"/>
+      <c r="B66" s="45"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="45"/>
+      <c r="F66" s="45"/>
+      <c r="G66" s="45"/>
+      <c r="H66" s="45"/>
+      <c r="I66" s="45"/>
     </row>
     <row r="67" spans="1:13" ht="94.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="35"/>
-      <c r="B67" s="35"/>
-      <c r="C67" s="35"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="35">
+      <c r="A67" s="33"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="33">
         <v>100</v>
       </c>
-      <c r="F67" s="35" t="s">
+      <c r="F67" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="G67" s="35">
+      <c r="G67" s="33">
         <v>500</v>
       </c>
-      <c r="H67" s="35" t="s">
+      <c r="H67" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="I67" s="35">
+      <c r="I67" s="33">
         <v>83</v>
       </c>
-      <c r="K67" s="30" t="s">
+      <c r="K67" s="28" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="94.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="34"/>
-      <c r="B68" s="34"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="34"/>
-      <c r="E68" s="34">
+      <c r="A68" s="32"/>
+      <c r="B68" s="32"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32">
         <v>100</v>
       </c>
-      <c r="F68" s="34" t="s">
+      <c r="F68" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G68" s="34">
+      <c r="G68" s="32">
         <v>500</v>
       </c>
-      <c r="H68" s="34" t="s">
+      <c r="H68" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="I68" s="34">
+      <c r="I68" s="32">
         <v>84</v>
       </c>
-      <c r="K68" s="30" t="s">
+      <c r="K68" s="28" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="94.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="35"/>
-      <c r="B69" s="35"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="35">
+      <c r="A69" s="33"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="33">
         <v>100</v>
       </c>
-      <c r="F69" s="35" t="s">
+      <c r="F69" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="G69" s="35">
+      <c r="G69" s="33">
         <v>500</v>
       </c>
-      <c r="H69" s="35" t="s">
+      <c r="H69" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="I69" s="35">
+      <c r="I69" s="33">
         <v>85</v>
       </c>
-      <c r="K69" s="30" t="s">
+      <c r="K69" s="28" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A72" s="54" t="s">
+      <c r="A72" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="B72" s="54" t="s">
+      <c r="B72" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="C72" s="54">
+      <c r="C72" s="40">
         <v>10</v>
       </c>
-      <c r="D72" s="54">
+      <c r="D72" s="40">
         <v>7</v>
       </c>
-      <c r="E72" s="54">
+      <c r="E72" s="40">
         <v>50</v>
       </c>
-      <c r="F72" s="54" t="s">
+      <c r="F72" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="G72" s="54">
+      <c r="G72" s="40">
         <v>100</v>
       </c>
-      <c r="H72" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="I72" s="54">
+      <c r="H72" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="I72" s="40">
         <v>90</v>
+      </c>
+      <c r="K72" s="55" t="s">
+        <v>138</v>
       </c>
       <c r="L72" s="2" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A73" s="54"/>
-      <c r="B73" s="54"/>
-      <c r="C73" s="54"/>
-      <c r="D73" s="54"/>
-      <c r="E73" s="54">
+      <c r="A73" s="40"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="40"/>
+      <c r="D73" s="40"/>
+      <c r="E73" s="40">
         <v>50</v>
       </c>
-      <c r="F73" s="54" t="s">
+      <c r="F73" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="G73" s="54">
+      <c r="G73" s="40">
         <v>100</v>
       </c>
-      <c r="H73" s="54" t="s">
+      <c r="H73" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="I73" s="40">
+        <v>91</v>
+      </c>
+      <c r="K73" s="55"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A74" s="40"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="40"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="53">
+        <v>50</v>
+      </c>
+      <c r="F74" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="G74" s="40">
+        <v>100</v>
+      </c>
+      <c r="H74" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="I74" s="40">
+        <v>92</v>
+      </c>
+      <c r="K74" s="55"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A75" s="40"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="40"/>
+      <c r="E75" s="40">
+        <v>100</v>
+      </c>
+      <c r="F75" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="G75" s="40">
+        <v>100</v>
+      </c>
+      <c r="H75" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="I75" s="40">
+        <v>93</v>
+      </c>
+      <c r="K75" s="55"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A76" s="40"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="40">
+        <v>100</v>
+      </c>
+      <c r="F76" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="G76" s="40">
+        <v>100</v>
+      </c>
+      <c r="H76" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="I76" s="40">
+        <v>94</v>
+      </c>
+      <c r="K76" s="55"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A77" s="40"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="40"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="40">
+        <v>100</v>
+      </c>
+      <c r="F77" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="G77" s="40">
+        <v>100</v>
+      </c>
+      <c r="H77" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="I77" s="40">
+        <v>95</v>
+      </c>
+      <c r="K77" s="55"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A79" s="26">
+        <v>0</v>
+      </c>
+      <c r="E79" s="26">
+        <v>50</v>
+      </c>
+      <c r="F79" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="I79" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A80" s="26">
+        <v>25</v>
+      </c>
+      <c r="E80" s="26">
+        <v>50</v>
+      </c>
+      <c r="F80" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="I80" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" s="26">
+        <v>50</v>
+      </c>
+      <c r="E81" s="26">
+        <v>50</v>
+      </c>
+      <c r="F81" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="I81" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" s="26">
+        <v>75</v>
+      </c>
+      <c r="E82" s="26">
+        <v>50</v>
+      </c>
+      <c r="F82" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="I82" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" s="26">
+        <v>90</v>
+      </c>
+      <c r="E83" s="26">
+        <v>50</v>
+      </c>
+      <c r="F83" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="I83" s="26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B85" s="52" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" s="40"/>
+      <c r="B87" s="40"/>
+      <c r="C87" s="40"/>
+      <c r="D87" s="40"/>
+      <c r="E87" s="40"/>
+      <c r="F87" s="40">
+        <v>0</v>
+      </c>
+      <c r="G87" s="40">
+        <v>30</v>
+      </c>
+      <c r="H87" s="40"/>
+      <c r="I87" s="40">
+        <v>30</v>
+      </c>
+      <c r="K87" s="29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="40"/>
+      <c r="B88" s="40"/>
+      <c r="C88" s="40"/>
+      <c r="D88" s="40"/>
+      <c r="E88" s="40"/>
+      <c r="F88" s="40">
+        <v>20</v>
+      </c>
+      <c r="G88" s="40"/>
+      <c r="H88" s="40"/>
+      <c r="I88" s="40">
+        <v>31</v>
+      </c>
+      <c r="K88" s="55" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" s="40"/>
+      <c r="B89" s="40"/>
+      <c r="C89" s="40"/>
+      <c r="D89" s="40"/>
+      <c r="E89" s="40"/>
+      <c r="F89" s="40">
+        <v>50</v>
+      </c>
+      <c r="G89" s="40"/>
+      <c r="H89" s="40"/>
+      <c r="I89" s="40">
+        <v>32</v>
+      </c>
+      <c r="K89" s="55"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90" s="40"/>
+      <c r="B90" s="40"/>
+      <c r="C90" s="40"/>
+      <c r="D90" s="40"/>
+      <c r="E90" s="40"/>
+      <c r="F90" s="40">
+        <v>500</v>
+      </c>
+      <c r="G90" s="40"/>
+      <c r="H90" s="40"/>
+      <c r="I90" s="40">
+        <v>33</v>
+      </c>
+      <c r="K90" s="55"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91" s="40"/>
+      <c r="B91" s="40"/>
+      <c r="C91" s="40"/>
+      <c r="D91" s="40"/>
+      <c r="E91" s="40"/>
+      <c r="F91" s="57">
+        <v>1000</v>
+      </c>
+      <c r="G91" s="40"/>
+      <c r="H91" s="40"/>
+      <c r="I91" s="40">
         <v>34</v>
       </c>
-      <c r="I73" s="54">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A74" s="54"/>
-      <c r="B74" s="54"/>
-      <c r="C74" s="54"/>
-      <c r="D74" s="54"/>
-      <c r="E74" s="55">
+      <c r="K91" s="55"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92" s="40"/>
+      <c r="B92" s="40"/>
+      <c r="C92" s="40"/>
+      <c r="D92" s="40"/>
+      <c r="E92" s="40"/>
+      <c r="F92" s="57">
+        <v>10000</v>
+      </c>
+      <c r="G92" s="40"/>
+      <c r="H92" s="40"/>
+      <c r="I92" s="40">
+        <v>35</v>
+      </c>
+      <c r="K92" s="55"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" s="56"/>
+      <c r="B95" s="56"/>
+      <c r="C95" s="56"/>
+      <c r="D95" s="56"/>
+      <c r="E95" s="56"/>
+      <c r="F95" s="56">
+        <v>0</v>
+      </c>
+      <c r="G95" s="56">
+        <v>30</v>
+      </c>
+      <c r="H95" s="56"/>
+      <c r="I95" s="56">
+        <v>40</v>
+      </c>
+      <c r="K95" s="29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" s="56"/>
+      <c r="B96" s="56"/>
+      <c r="C96" s="56"/>
+      <c r="D96" s="56"/>
+      <c r="E96" s="56"/>
+      <c r="F96" s="56">
+        <v>20</v>
+      </c>
+      <c r="G96" s="56"/>
+      <c r="H96" s="56"/>
+      <c r="I96" s="56">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97" s="56"/>
+      <c r="B97" s="56"/>
+      <c r="C97" s="56"/>
+      <c r="D97" s="56"/>
+      <c r="E97" s="56"/>
+      <c r="F97" s="56">
         <v>50</v>
       </c>
-      <c r="F74" s="55" t="s">
-        <v>107</v>
-      </c>
-      <c r="G74" s="54">
-        <v>100</v>
-      </c>
-      <c r="H74" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="I74" s="54">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A75" s="54"/>
-      <c r="B75" s="54"/>
-      <c r="C75" s="54"/>
-      <c r="D75" s="54"/>
-      <c r="E75" s="54">
-        <v>100</v>
-      </c>
-      <c r="F75" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="G75" s="54">
-        <v>100</v>
-      </c>
-      <c r="H75" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="I75" s="54">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A76" s="54"/>
-      <c r="B76" s="54"/>
-      <c r="C76" s="54"/>
-      <c r="D76" s="54"/>
-      <c r="E76" s="54">
-        <v>100</v>
-      </c>
-      <c r="F76" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="G76" s="54">
-        <v>100</v>
-      </c>
-      <c r="H76" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="I76" s="54">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A77" s="54"/>
-      <c r="B77" s="54"/>
-      <c r="C77" s="54"/>
-      <c r="D77" s="54"/>
-      <c r="E77" s="54">
-        <v>100</v>
-      </c>
-      <c r="F77" s="54" t="s">
-        <v>107</v>
-      </c>
-      <c r="G77" s="54">
-        <v>100</v>
-      </c>
-      <c r="H77" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="I77" s="54">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B83" s="7" t="s">
-        <v>122</v>
+      <c r="G97" s="56"/>
+      <c r="H97" s="56"/>
+      <c r="I97" s="56">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" s="56"/>
+      <c r="B98" s="56"/>
+      <c r="C98" s="56"/>
+      <c r="D98" s="56"/>
+      <c r="E98" s="56"/>
+      <c r="F98" s="56">
+        <v>500</v>
+      </c>
+      <c r="G98" s="56"/>
+      <c r="H98" s="56"/>
+      <c r="I98" s="56">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" s="56"/>
+      <c r="B99" s="56"/>
+      <c r="C99" s="56"/>
+      <c r="D99" s="56"/>
+      <c r="E99" s="56"/>
+      <c r="F99" s="56">
+        <v>1000</v>
+      </c>
+      <c r="G99" s="56"/>
+      <c r="H99" s="56"/>
+      <c r="I99" s="56">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" s="56"/>
+      <c r="B100" s="56"/>
+      <c r="C100" s="56"/>
+      <c r="D100" s="56"/>
+      <c r="E100" s="56"/>
+      <c r="F100" s="56">
+        <v>10000</v>
+      </c>
+      <c r="G100" s="56"/>
+      <c r="H100" s="56"/>
+      <c r="I100" s="56">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E102" s="26">
+        <v>50</v>
+      </c>
+      <c r="F102" s="26">
+        <v>50</v>
+      </c>
+      <c r="G102" s="26">
+        <v>30</v>
+      </c>
+      <c r="I102" s="26">
+        <v>50</v>
+      </c>
+      <c r="K102" s="29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E103" s="26">
+        <v>50</v>
+      </c>
+      <c r="F103" s="26">
+        <v>500</v>
+      </c>
+      <c r="I103" s="26">
+        <v>51</v>
+      </c>
+      <c r="K103" s="29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E104" s="26">
+        <v>50</v>
+      </c>
+      <c r="F104" s="54">
+        <v>1000</v>
+      </c>
+      <c r="I104" s="26">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="K72:K77"/>
+    <mergeCell ref="K88:K92"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/contacts/session_params.xlsx
+++ b/contacts/session_params.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="583" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="583" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ContactTracing_v3" sheetId="1" r:id="rId1"/>
     <sheet name="ContactTracing_v4" sheetId="2" r:id="rId2"/>
+    <sheet name="ContactTracing_v5" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="144">
   <si>
     <t>tau p</t>
   </si>
@@ -2666,7 +2667,10 @@
 302.303422 seconds (14.07 G allocations: 527.821 GiB, 44.81% gc time)</t>
   </si>
   <si>
-    <t>we use duration instead of rate</t>
+    <t>we stop detecting</t>
+  </si>
+  <si>
+    <t>we stop detecting + prioritize ID contacts</t>
   </si>
 </sst>
 </file>
@@ -2727,7 +2731,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2818,6 +2822,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2831,7 +2841,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2996,6 +3006,18 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="11" fontId="2" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -4701,11 +4723,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M104"/>
+  <dimension ref="A1:M109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K104" sqref="K104"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K106" sqref="K106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5931,7 +5953,7 @@
       <c r="I72" s="40">
         <v>90</v>
       </c>
-      <c r="K72" s="55" t="s">
+      <c r="K72" s="58" t="s">
         <v>138</v>
       </c>
       <c r="L72" s="2" t="s">
@@ -5958,7 +5980,7 @@
       <c r="I73" s="40">
         <v>91</v>
       </c>
-      <c r="K73" s="55"/>
+      <c r="K73" s="58"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="40"/>
@@ -5980,7 +6002,7 @@
       <c r="I74" s="40">
         <v>92</v>
       </c>
-      <c r="K74" s="55"/>
+      <c r="K74" s="58"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="40"/>
@@ -6002,7 +6024,7 @@
       <c r="I75" s="40">
         <v>93</v>
       </c>
-      <c r="K75" s="55"/>
+      <c r="K75" s="58"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="40"/>
@@ -6024,7 +6046,7 @@
       <c r="I76" s="40">
         <v>94</v>
       </c>
-      <c r="K76" s="55"/>
+      <c r="K76" s="58"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="40"/>
@@ -6046,7 +6068,7 @@
       <c r="I77" s="40">
         <v>95</v>
       </c>
-      <c r="K77" s="55"/>
+      <c r="K77" s="58"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="26">
@@ -6157,7 +6179,7 @@
       <c r="I88" s="40">
         <v>31</v>
       </c>
-      <c r="K88" s="55" t="s">
+      <c r="K88" s="58" t="s">
         <v>141</v>
       </c>
     </row>
@@ -6175,7 +6197,7 @@
       <c r="I89" s="40">
         <v>32</v>
       </c>
-      <c r="K89" s="55"/>
+      <c r="K89" s="58"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="40"/>
@@ -6191,7 +6213,7 @@
       <c r="I90" s="40">
         <v>33</v>
       </c>
-      <c r="K90" s="55"/>
+      <c r="K90" s="58"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="40"/>
@@ -6207,7 +6229,7 @@
       <c r="I91" s="40">
         <v>34</v>
       </c>
-      <c r="K91" s="55"/>
+      <c r="K91" s="58"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="40"/>
@@ -6223,22 +6245,22 @@
       <c r="I92" s="40">
         <v>35</v>
       </c>
-      <c r="K92" s="55"/>
+      <c r="K92" s="58"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A95" s="56"/>
-      <c r="B95" s="56"/>
-      <c r="C95" s="56"/>
-      <c r="D95" s="56"/>
-      <c r="E95" s="56"/>
-      <c r="F95" s="56">
+      <c r="A95" s="32"/>
+      <c r="B95" s="32"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="32"/>
+      <c r="E95" s="32"/>
+      <c r="F95" s="32">
         <v>0</v>
       </c>
-      <c r="G95" s="56">
+      <c r="G95" s="32">
         <v>30</v>
       </c>
-      <c r="H95" s="56"/>
-      <c r="I95" s="56">
+      <c r="H95" s="32"/>
+      <c r="I95" s="32">
         <v>40</v>
       </c>
       <c r="K95" s="29" t="s">
@@ -6246,120 +6268,204 @@
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A96" s="56"/>
-      <c r="B96" s="56"/>
-      <c r="C96" s="56"/>
-      <c r="D96" s="56"/>
-      <c r="E96" s="56"/>
-      <c r="F96" s="56">
+      <c r="A96" s="32"/>
+      <c r="B96" s="32"/>
+      <c r="C96" s="32"/>
+      <c r="D96" s="32"/>
+      <c r="E96" s="32"/>
+      <c r="F96" s="32">
         <v>20</v>
       </c>
-      <c r="G96" s="56"/>
-      <c r="H96" s="56"/>
-      <c r="I96" s="56">
+      <c r="G96" s="32"/>
+      <c r="H96" s="32"/>
+      <c r="I96" s="32">
         <v>41</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A97" s="56"/>
-      <c r="B97" s="56"/>
-      <c r="C97" s="56"/>
-      <c r="D97" s="56"/>
-      <c r="E97" s="56"/>
-      <c r="F97" s="56">
+      <c r="A97" s="32"/>
+      <c r="B97" s="32"/>
+      <c r="C97" s="32"/>
+      <c r="D97" s="32"/>
+      <c r="E97" s="32"/>
+      <c r="F97" s="32">
         <v>50</v>
       </c>
-      <c r="G97" s="56"/>
-      <c r="H97" s="56"/>
-      <c r="I97" s="56">
+      <c r="G97" s="32"/>
+      <c r="H97" s="32"/>
+      <c r="I97" s="32">
         <v>42</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A98" s="56"/>
-      <c r="B98" s="56"/>
-      <c r="C98" s="56"/>
-      <c r="D98" s="56"/>
-      <c r="E98" s="56"/>
-      <c r="F98" s="56">
+      <c r="A98" s="32"/>
+      <c r="B98" s="32"/>
+      <c r="C98" s="32"/>
+      <c r="D98" s="32"/>
+      <c r="E98" s="32"/>
+      <c r="F98" s="32">
         <v>500</v>
       </c>
-      <c r="G98" s="56"/>
-      <c r="H98" s="56"/>
-      <c r="I98" s="56">
+      <c r="G98" s="32"/>
+      <c r="H98" s="32"/>
+      <c r="I98" s="32">
         <v>43</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A99" s="56"/>
-      <c r="B99" s="56"/>
-      <c r="C99" s="56"/>
-      <c r="D99" s="56"/>
-      <c r="E99" s="56"/>
-      <c r="F99" s="56">
+      <c r="A99" s="32"/>
+      <c r="B99" s="32"/>
+      <c r="C99" s="32"/>
+      <c r="D99" s="32"/>
+      <c r="E99" s="32"/>
+      <c r="F99" s="32">
         <v>1000</v>
       </c>
-      <c r="G99" s="56"/>
-      <c r="H99" s="56"/>
-      <c r="I99" s="56">
+      <c r="G99" s="32"/>
+      <c r="H99" s="32"/>
+      <c r="I99" s="32">
         <v>44</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A100" s="56"/>
-      <c r="B100" s="56"/>
-      <c r="C100" s="56"/>
-      <c r="D100" s="56"/>
-      <c r="E100" s="56"/>
-      <c r="F100" s="56">
+      <c r="A100" s="32"/>
+      <c r="B100" s="32"/>
+      <c r="C100" s="32"/>
+      <c r="D100" s="32"/>
+      <c r="E100" s="32"/>
+      <c r="F100" s="32">
         <v>10000</v>
       </c>
-      <c r="G100" s="56"/>
-      <c r="H100" s="56"/>
-      <c r="I100" s="56">
+      <c r="G100" s="32"/>
+      <c r="H100" s="32"/>
+      <c r="I100" s="32">
         <v>45</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E102" s="26">
+      <c r="A102" s="59"/>
+      <c r="B102" s="59"/>
+      <c r="C102" s="59"/>
+      <c r="D102" s="59"/>
+      <c r="E102" s="59">
         <v>50</v>
       </c>
-      <c r="F102" s="26">
+      <c r="F102" s="59">
+        <v>500</v>
+      </c>
+      <c r="G102" s="59">
+        <v>10</v>
+      </c>
+      <c r="H102" s="59"/>
+      <c r="I102" s="59">
         <v>50</v>
       </c>
-      <c r="G102" s="26">
-        <v>30</v>
-      </c>
-      <c r="I102" s="26">
+      <c r="K102" s="29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103" s="59"/>
+      <c r="B103" s="59"/>
+      <c r="C103" s="59"/>
+      <c r="D103" s="59"/>
+      <c r="E103" s="59">
         <v>50</v>
       </c>
-      <c r="K102" s="29" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E103" s="26">
+      <c r="F103" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="G103" s="59"/>
+      <c r="H103" s="59"/>
+      <c r="I103" s="59">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A104" s="59"/>
+      <c r="B104" s="59"/>
+      <c r="C104" s="59"/>
+      <c r="D104" s="59"/>
+      <c r="E104" s="59">
         <v>50</v>
       </c>
-      <c r="F103" s="26">
+      <c r="F104" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="G104" s="59"/>
+      <c r="H104" s="59"/>
+      <c r="I104" s="59">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A105" s="59"/>
+      <c r="B105" s="59"/>
+      <c r="C105" s="59"/>
+      <c r="D105" s="59"/>
+      <c r="E105" s="59">
+        <v>50</v>
+      </c>
+      <c r="F105" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="G105" s="59"/>
+      <c r="H105" s="59"/>
+      <c r="I105" s="59">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E106" s="59">
+        <v>50</v>
+      </c>
+      <c r="F106" s="59">
         <v>500</v>
       </c>
-      <c r="I103" s="26">
-        <v>51</v>
-      </c>
-      <c r="K103" s="29" t="s">
+      <c r="G106" s="59">
+        <v>10</v>
+      </c>
+      <c r="I106" s="26">
+        <v>54</v>
+      </c>
+      <c r="K106" s="29" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E104" s="26">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E107" s="59">
         <v>50</v>
       </c>
-      <c r="F104" s="54">
-        <v>1000</v>
-      </c>
-      <c r="I104" s="26">
-        <v>52</v>
+      <c r="F107" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="G107" s="59"/>
+      <c r="I107" s="26">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E108" s="59">
+        <v>50</v>
+      </c>
+      <c r="F108" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="G108" s="59"/>
+      <c r="I108" s="26">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E109" s="59">
+        <v>50</v>
+      </c>
+      <c r="F109" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="G109" s="59"/>
+      <c r="I109" s="26">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -6370,4 +6476,640 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I30" sqref="A30:I35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="54" style="29" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="25" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="24"/>
+    </row>
+    <row r="2" spans="1:11" s="26" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="26">
+        <v>10</v>
+      </c>
+      <c r="D2" s="26">
+        <v>7</v>
+      </c>
+      <c r="E2" s="26">
+        <v>50</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="26">
+        <v>200</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="26">
+        <v>20</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2" s="55" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="52" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="40">
+        <v>10</v>
+      </c>
+      <c r="D6" s="40">
+        <v>7</v>
+      </c>
+      <c r="E6" s="40">
+        <v>50</v>
+      </c>
+      <c r="F6" s="40">
+        <v>0</v>
+      </c>
+      <c r="G6" s="40">
+        <v>30</v>
+      </c>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40">
+        <v>30</v>
+      </c>
+      <c r="K6" s="29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40">
+        <v>20</v>
+      </c>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40">
+        <v>31</v>
+      </c>
+      <c r="K7" s="58" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40">
+        <v>50</v>
+      </c>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40">
+        <v>32</v>
+      </c>
+      <c r="K8" s="58"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40">
+        <v>500</v>
+      </c>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40">
+        <v>33</v>
+      </c>
+      <c r="K9" s="58"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="57">
+        <v>1000</v>
+      </c>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40">
+        <v>34</v>
+      </c>
+      <c r="K10" s="58"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="57">
+        <v>10000</v>
+      </c>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40">
+        <v>35</v>
+      </c>
+      <c r="K11" s="58"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="32">
+        <v>10</v>
+      </c>
+      <c r="D14" s="32">
+        <v>7</v>
+      </c>
+      <c r="E14" s="32">
+        <v>50</v>
+      </c>
+      <c r="F14" s="32">
+        <v>0</v>
+      </c>
+      <c r="G14" s="32">
+        <v>30</v>
+      </c>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32">
+        <v>40</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32">
+        <v>20</v>
+      </c>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32">
+        <v>50</v>
+      </c>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32">
+        <v>500</v>
+      </c>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32">
+        <v>1000</v>
+      </c>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32">
+        <v>10000</v>
+      </c>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="59">
+        <v>10</v>
+      </c>
+      <c r="D21" s="59">
+        <v>7</v>
+      </c>
+      <c r="E21" s="59">
+        <v>50</v>
+      </c>
+      <c r="F21" s="59">
+        <v>500</v>
+      </c>
+      <c r="G21" s="59">
+        <v>10</v>
+      </c>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59">
+        <v>50</v>
+      </c>
+      <c r="K21" s="29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="59"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59">
+        <v>50</v>
+      </c>
+      <c r="F22" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="59"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59">
+        <v>50</v>
+      </c>
+      <c r="F23" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="59"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59">
+        <v>50</v>
+      </c>
+      <c r="F24" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="56">
+        <v>10</v>
+      </c>
+      <c r="D25" s="56">
+        <v>7</v>
+      </c>
+      <c r="E25" s="56">
+        <v>50</v>
+      </c>
+      <c r="F25" s="56">
+        <v>500</v>
+      </c>
+      <c r="G25" s="56">
+        <v>10</v>
+      </c>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56">
+        <v>54</v>
+      </c>
+      <c r="K25" s="29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="56"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56">
+        <v>50</v>
+      </c>
+      <c r="F26" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="56"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56">
+        <v>50</v>
+      </c>
+      <c r="F27" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56">
+        <v>50</v>
+      </c>
+      <c r="F28" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="33">
+        <v>10</v>
+      </c>
+      <c r="D30" s="33">
+        <v>14</v>
+      </c>
+      <c r="E30" s="33">
+        <v>100</v>
+      </c>
+      <c r="F30" s="33">
+        <v>500</v>
+      </c>
+      <c r="G30" s="33">
+        <v>10</v>
+      </c>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33">
+        <v>60</v>
+      </c>
+      <c r="K30" s="29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33">
+        <v>100</v>
+      </c>
+      <c r="F31" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33">
+        <v>100</v>
+      </c>
+      <c r="F32" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33">
+        <v>100</v>
+      </c>
+      <c r="F33" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="33">
+        <v>10</v>
+      </c>
+      <c r="D34" s="33">
+        <v>14</v>
+      </c>
+      <c r="E34" s="33">
+        <v>100</v>
+      </c>
+      <c r="F34" s="33">
+        <v>500</v>
+      </c>
+      <c r="G34" s="33">
+        <v>10</v>
+      </c>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33">
+        <v>64</v>
+      </c>
+      <c r="K34" s="29" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="33"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33">
+        <v>100</v>
+      </c>
+      <c r="F35" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E36" s="26">
+        <v>100</v>
+      </c>
+      <c r="F36" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="I36" s="26">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E37" s="26">
+        <v>100</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="I37" s="26">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K7:K11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/contacts/session_params.xlsx
+++ b/contacts/session_params.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="583" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="583" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ContactTracing_v3" sheetId="1" r:id="rId1"/>
     <sheet name="ContactTracing_v4" sheetId="2" r:id="rId2"/>
     <sheet name="ContactTracing_v5" sheetId="3" r:id="rId3"/>
+    <sheet name="ContactTracing_v5 (2)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="149">
   <si>
     <t>tau p</t>
   </si>
@@ -2672,6 +2673,37 @@
   <si>
     <t>we stop detecting + prioritize ID contacts</t>
   </si>
+  <si>
+    <t>scenario 
+number</t>
+  </si>
+  <si>
+    <t>session
+number</t>
+  </si>
+  <si>
+    <t>contacts\run_sessionX0s_3_taup0.jl
+session0</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>r_R₀=3
+ϵ = .3#rand(Uniform(0.,0.5))
+σ = .2#1/rand(d_incubation)
+γ = 1/2.5
+δ = 0.2
+β = r_R₀*γ/(δ + ϵ*(1-δ))
+Κ_max_capacity_KENYA=0; Κ_max_capacity4=0#Κ_max_capacity_Nairobi
+τₚ_list=[.0]
+stop_Q_list=[true,false]    #****5 do we stop detecting after we stopped tracing
+Κ_max_capacity12_list=[0,1e3,1e4,1e5,1e6]#Κ_max_capacity_Kilifi_list
+κ_per_event4_list=[50,100,200]
+IDs_cfirst_list=[true,false]
+n_traj=50
+folder="./contacts/results_session0/";    first_sc_nb=1</t>
+  </si>
 </sst>
 </file>
 
@@ -2841,7 +2873,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3019,6 +3051,21 @@
     </xf>
     <xf numFmtId="11" fontId="2" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5953,7 +6000,7 @@
       <c r="I72" s="40">
         <v>90</v>
       </c>
-      <c r="K72" s="58" t="s">
+      <c r="K72" s="62" t="s">
         <v>138</v>
       </c>
       <c r="L72" s="2" t="s">
@@ -5980,7 +6027,7 @@
       <c r="I73" s="40">
         <v>91</v>
       </c>
-      <c r="K73" s="58"/>
+      <c r="K73" s="62"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="40"/>
@@ -6002,7 +6049,7 @@
       <c r="I74" s="40">
         <v>92</v>
       </c>
-      <c r="K74" s="58"/>
+      <c r="K74" s="62"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="40"/>
@@ -6024,7 +6071,7 @@
       <c r="I75" s="40">
         <v>93</v>
       </c>
-      <c r="K75" s="58"/>
+      <c r="K75" s="62"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="40"/>
@@ -6046,7 +6093,7 @@
       <c r="I76" s="40">
         <v>94</v>
       </c>
-      <c r="K76" s="58"/>
+      <c r="K76" s="62"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="40"/>
@@ -6068,7 +6115,7 @@
       <c r="I77" s="40">
         <v>95</v>
       </c>
-      <c r="K77" s="58"/>
+      <c r="K77" s="62"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="26">
@@ -6179,7 +6226,7 @@
       <c r="I88" s="40">
         <v>31</v>
       </c>
-      <c r="K88" s="58" t="s">
+      <c r="K88" s="62" t="s">
         <v>141</v>
       </c>
     </row>
@@ -6197,7 +6244,7 @@
       <c r="I89" s="40">
         <v>32</v>
       </c>
-      <c r="K89" s="58"/>
+      <c r="K89" s="62"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="40"/>
@@ -6213,7 +6260,7 @@
       <c r="I90" s="40">
         <v>33</v>
       </c>
-      <c r="K90" s="58"/>
+      <c r="K90" s="62"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="40"/>
@@ -6229,7 +6276,7 @@
       <c r="I91" s="40">
         <v>34</v>
       </c>
-      <c r="K91" s="58"/>
+      <c r="K91" s="62"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="40"/>
@@ -6245,7 +6292,7 @@
       <c r="I92" s="40">
         <v>35</v>
       </c>
-      <c r="K92" s="58"/>
+      <c r="K92" s="62"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="32"/>
@@ -6482,7 +6529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I30" sqref="A30:I35"/>
     </sheetView>
@@ -6620,7 +6667,7 @@
       <c r="I7" s="40">
         <v>31</v>
       </c>
-      <c r="K7" s="58" t="s">
+      <c r="K7" s="62" t="s">
         <v>141</v>
       </c>
     </row>
@@ -6638,7 +6685,7 @@
       <c r="I8" s="40">
         <v>32</v>
       </c>
-      <c r="K8" s="58"/>
+      <c r="K8" s="62"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="40"/>
@@ -6654,7 +6701,7 @@
       <c r="I9" s="40">
         <v>33</v>
       </c>
-      <c r="K9" s="58"/>
+      <c r="K9" s="62"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="40"/>
@@ -6670,7 +6717,7 @@
       <c r="I10" s="40">
         <v>34</v>
       </c>
-      <c r="K10" s="58"/>
+      <c r="K10" s="62"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="40"/>
@@ -6686,7 +6733,7 @@
       <c r="I11" s="40">
         <v>35</v>
       </c>
-      <c r="K11" s="58"/>
+      <c r="K11" s="62"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="32" t="s">
@@ -7112,4 +7159,76 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.5703125" style="52" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="52" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.28515625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="52" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" style="52" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54" style="29" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="52"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="23" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="24"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D3" s="65"/>
+      <c r="F3" s="29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="65"/>
+      <c r="F4" s="62" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D5" s="65"/>
+      <c r="F5" s="62"/>
+    </row>
+    <row r="7" spans="1:6" ht="189" x14ac:dyDescent="0.25">
+      <c r="A7" s="66" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="66"/>
+      <c r="C7" s="58" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F4:F5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/contacts/session_params.xlsx
+++ b/contacts/session_params.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="151">
   <si>
     <t>tau p</t>
   </si>
@@ -2682,10 +2682,6 @@
 number</t>
   </si>
   <si>
-    <t>contacts\run_sessionX0s_3_taup0.jl
-session0</t>
-  </si>
-  <si>
     <t>Parameters</t>
   </si>
   <si>
@@ -2703,6 +2699,24 @@
 IDs_cfirst_list=[true,false]
 n_traj=50
 folder="./contacts/results_session0/";    first_sc_nb=1</t>
+  </si>
+  <si>
+    <t>contacts\run_sessionX0s_3_taup0.jl
+session0
+50 sims taup=.0
+sc_nb=1:60</t>
+  </si>
+  <si>
+    <t>contacts\run_sessionX0s_3_taup50.jl
+session0
+50 sims taup=.5
+sc_nb=500:560</t>
+  </si>
+  <si>
+    <t>contacts\run_sessionX0s_3_taup90.jl
+session0
+50 sims taup=.9
+sc_nb=900:960</t>
   </si>
 </sst>
 </file>
@@ -3052,9 +3066,6 @@
     <xf numFmtId="11" fontId="2" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3065,6 +3076,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6000,7 +6014,7 @@
       <c r="I72" s="40">
         <v>90</v>
       </c>
-      <c r="K72" s="62" t="s">
+      <c r="K72" s="66" t="s">
         <v>138</v>
       </c>
       <c r="L72" s="2" t="s">
@@ -6027,7 +6041,7 @@
       <c r="I73" s="40">
         <v>91</v>
       </c>
-      <c r="K73" s="62"/>
+      <c r="K73" s="66"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="40"/>
@@ -6049,7 +6063,7 @@
       <c r="I74" s="40">
         <v>92</v>
       </c>
-      <c r="K74" s="62"/>
+      <c r="K74" s="66"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="40"/>
@@ -6071,7 +6085,7 @@
       <c r="I75" s="40">
         <v>93</v>
       </c>
-      <c r="K75" s="62"/>
+      <c r="K75" s="66"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="40"/>
@@ -6093,7 +6107,7 @@
       <c r="I76" s="40">
         <v>94</v>
       </c>
-      <c r="K76" s="62"/>
+      <c r="K76" s="66"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="40"/>
@@ -6115,7 +6129,7 @@
       <c r="I77" s="40">
         <v>95</v>
       </c>
-      <c r="K77" s="62"/>
+      <c r="K77" s="66"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="26">
@@ -6226,7 +6240,7 @@
       <c r="I88" s="40">
         <v>31</v>
       </c>
-      <c r="K88" s="62" t="s">
+      <c r="K88" s="66" t="s">
         <v>141</v>
       </c>
     </row>
@@ -6244,7 +6258,7 @@
       <c r="I89" s="40">
         <v>32</v>
       </c>
-      <c r="K89" s="62"/>
+      <c r="K89" s="66"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="40"/>
@@ -6260,7 +6274,7 @@
       <c r="I90" s="40">
         <v>33</v>
       </c>
-      <c r="K90" s="62"/>
+      <c r="K90" s="66"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="40"/>
@@ -6276,7 +6290,7 @@
       <c r="I91" s="40">
         <v>34</v>
       </c>
-      <c r="K91" s="62"/>
+      <c r="K91" s="66"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="40"/>
@@ -6292,7 +6306,7 @@
       <c r="I92" s="40">
         <v>35</v>
       </c>
-      <c r="K92" s="62"/>
+      <c r="K92" s="66"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="32"/>
@@ -6667,7 +6681,7 @@
       <c r="I7" s="40">
         <v>31</v>
       </c>
-      <c r="K7" s="62" t="s">
+      <c r="K7" s="66" t="s">
         <v>141</v>
       </c>
     </row>
@@ -6685,7 +6699,7 @@
       <c r="I8" s="40">
         <v>32</v>
       </c>
-      <c r="K8" s="62"/>
+      <c r="K8" s="66"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="40"/>
@@ -6701,7 +6715,7 @@
       <c r="I9" s="40">
         <v>33</v>
       </c>
-      <c r="K9" s="62"/>
+      <c r="K9" s="66"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="40"/>
@@ -6717,7 +6731,7 @@
       <c r="I10" s="40">
         <v>34</v>
       </c>
-      <c r="K10" s="62"/>
+      <c r="K10" s="66"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="40"/>
@@ -6733,7 +6747,7 @@
       <c r="I11" s="40">
         <v>35</v>
       </c>
-      <c r="K11" s="62"/>
+      <c r="K11" s="66"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="32" t="s">
@@ -7163,11 +7177,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -7182,14 +7196,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="23" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="64" t="s">
-        <v>147</v>
+      <c r="C1" s="63" t="s">
+        <v>146</v>
       </c>
       <c r="D1" s="23" t="s">
         <v>3</v>
@@ -7200,28 +7214,38 @@
       <c r="F1" s="24"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D3" s="65"/>
+      <c r="D3" s="64"/>
       <c r="F3" s="29" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="65"/>
-      <c r="F4" s="62" t="s">
+      <c r="D4" s="64"/>
+      <c r="F4" s="66" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D5" s="65"/>
-      <c r="F5" s="62"/>
+      <c r="D5" s="64"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="7" spans="1:6" ht="189" x14ac:dyDescent="0.25">
-      <c r="A7" s="66" t="s">
-        <v>146</v>
-      </c>
-      <c r="B7" s="66"/>
+      <c r="A7" s="65" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="65"/>
       <c r="C7" s="58" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="65" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="65" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/contacts/session_params.xlsx
+++ b/contacts/session_params.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="151">
   <si>
     <t>tau p</t>
   </si>
@@ -2887,7 +2887,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3054,9 +3054,6 @@
     <xf numFmtId="11" fontId="2" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3072,14 +3069,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6014,7 +6026,7 @@
       <c r="I72" s="40">
         <v>90</v>
       </c>
-      <c r="K72" s="66" t="s">
+      <c r="K72" s="63" t="s">
         <v>138</v>
       </c>
       <c r="L72" s="2" t="s">
@@ -6041,7 +6053,7 @@
       <c r="I73" s="40">
         <v>91</v>
       </c>
-      <c r="K73" s="66"/>
+      <c r="K73" s="63"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="40"/>
@@ -6063,7 +6075,7 @@
       <c r="I74" s="40">
         <v>92</v>
       </c>
-      <c r="K74" s="66"/>
+      <c r="K74" s="63"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="40"/>
@@ -6085,7 +6097,7 @@
       <c r="I75" s="40">
         <v>93</v>
       </c>
-      <c r="K75" s="66"/>
+      <c r="K75" s="63"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="40"/>
@@ -6107,7 +6119,7 @@
       <c r="I76" s="40">
         <v>94</v>
       </c>
-      <c r="K76" s="66"/>
+      <c r="K76" s="63"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="40"/>
@@ -6129,7 +6141,7 @@
       <c r="I77" s="40">
         <v>95</v>
       </c>
-      <c r="K77" s="66"/>
+      <c r="K77" s="63"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="26">
@@ -6240,7 +6252,7 @@
       <c r="I88" s="40">
         <v>31</v>
       </c>
-      <c r="K88" s="66" t="s">
+      <c r="K88" s="63" t="s">
         <v>141</v>
       </c>
     </row>
@@ -6258,7 +6270,7 @@
       <c r="I89" s="40">
         <v>32</v>
       </c>
-      <c r="K89" s="66"/>
+      <c r="K89" s="63"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="40"/>
@@ -6274,7 +6286,7 @@
       <c r="I90" s="40">
         <v>33</v>
       </c>
-      <c r="K90" s="66"/>
+      <c r="K90" s="63"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="40"/>
@@ -6290,7 +6302,7 @@
       <c r="I91" s="40">
         <v>34</v>
       </c>
-      <c r="K91" s="66"/>
+      <c r="K91" s="63"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="40"/>
@@ -6306,7 +6318,7 @@
       <c r="I92" s="40">
         <v>35</v>
       </c>
-      <c r="K92" s="66"/>
+      <c r="K92" s="63"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="32"/>
@@ -6404,21 +6416,21 @@
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A102" s="59"/>
-      <c r="B102" s="59"/>
-      <c r="C102" s="59"/>
-      <c r="D102" s="59"/>
-      <c r="E102" s="59">
+      <c r="A102" s="58"/>
+      <c r="B102" s="58"/>
+      <c r="C102" s="58"/>
+      <c r="D102" s="58"/>
+      <c r="E102" s="58">
         <v>50</v>
       </c>
-      <c r="F102" s="59">
+      <c r="F102" s="58">
         <v>500</v>
       </c>
-      <c r="G102" s="59">
+      <c r="G102" s="58">
         <v>10</v>
       </c>
-      <c r="H102" s="59"/>
-      <c r="I102" s="59">
+      <c r="H102" s="58"/>
+      <c r="I102" s="58">
         <v>50</v>
       </c>
       <c r="K102" s="29" t="s">
@@ -6426,64 +6438,64 @@
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A103" s="59"/>
-      <c r="B103" s="59"/>
-      <c r="C103" s="59"/>
-      <c r="D103" s="59"/>
-      <c r="E103" s="59">
+      <c r="A103" s="58"/>
+      <c r="B103" s="58"/>
+      <c r="C103" s="58"/>
+      <c r="D103" s="58"/>
+      <c r="E103" s="58">
         <v>50</v>
       </c>
-      <c r="F103" s="61" t="s">
+      <c r="F103" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="G103" s="59"/>
-      <c r="H103" s="59"/>
-      <c r="I103" s="59">
+      <c r="G103" s="58"/>
+      <c r="H103" s="58"/>
+      <c r="I103" s="58">
         <v>51</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A104" s="59"/>
-      <c r="B104" s="59"/>
-      <c r="C104" s="59"/>
-      <c r="D104" s="59"/>
-      <c r="E104" s="59">
+      <c r="A104" s="58"/>
+      <c r="B104" s="58"/>
+      <c r="C104" s="58"/>
+      <c r="D104" s="58"/>
+      <c r="E104" s="58">
         <v>50</v>
       </c>
-      <c r="F104" s="61" t="s">
+      <c r="F104" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="G104" s="59"/>
-      <c r="H104" s="59"/>
-      <c r="I104" s="59">
+      <c r="G104" s="58"/>
+      <c r="H104" s="58"/>
+      <c r="I104" s="58">
         <v>52</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A105" s="59"/>
-      <c r="B105" s="59"/>
-      <c r="C105" s="59"/>
-      <c r="D105" s="59"/>
-      <c r="E105" s="59">
+      <c r="A105" s="58"/>
+      <c r="B105" s="58"/>
+      <c r="C105" s="58"/>
+      <c r="D105" s="58"/>
+      <c r="E105" s="58">
         <v>50</v>
       </c>
-      <c r="F105" s="61" t="s">
+      <c r="F105" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="G105" s="59"/>
-      <c r="H105" s="59"/>
-      <c r="I105" s="59">
+      <c r="G105" s="58"/>
+      <c r="H105" s="58"/>
+      <c r="I105" s="58">
         <v>53</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E106" s="59">
+      <c r="E106" s="58">
         <v>50</v>
       </c>
-      <c r="F106" s="59">
+      <c r="F106" s="58">
         <v>500</v>
       </c>
-      <c r="G106" s="59">
+      <c r="G106" s="58">
         <v>10</v>
       </c>
       <c r="I106" s="26">
@@ -6494,37 +6506,37 @@
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E107" s="59">
+      <c r="E107" s="58">
         <v>50</v>
       </c>
-      <c r="F107" s="61" t="s">
+      <c r="F107" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="G107" s="59"/>
+      <c r="G107" s="58"/>
       <c r="I107" s="26">
         <v>55</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E108" s="59">
+      <c r="E108" s="58">
         <v>50</v>
       </c>
-      <c r="F108" s="61" t="s">
+      <c r="F108" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="G108" s="59"/>
+      <c r="G108" s="58"/>
       <c r="I108" s="26">
         <v>56</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E109" s="59">
+      <c r="E109" s="58">
         <v>50</v>
       </c>
-      <c r="F109" s="61" t="s">
+      <c r="F109" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="G109" s="59"/>
+      <c r="G109" s="58"/>
       <c r="I109" s="26">
         <v>57</v>
       </c>
@@ -6544,8 +6556,8 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I30" sqref="A30:I35"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6681,7 +6693,7 @@
       <c r="I7" s="40">
         <v>31</v>
       </c>
-      <c r="K7" s="66" t="s">
+      <c r="K7" s="63" t="s">
         <v>141</v>
       </c>
     </row>
@@ -6699,7 +6711,7 @@
       <c r="I8" s="40">
         <v>32</v>
       </c>
-      <c r="K8" s="66"/>
+      <c r="K8" s="63"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="40"/>
@@ -6715,7 +6727,7 @@
       <c r="I9" s="40">
         <v>33</v>
       </c>
-      <c r="K9" s="66"/>
+      <c r="K9" s="63"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="40"/>
@@ -6731,7 +6743,7 @@
       <c r="I10" s="40">
         <v>34</v>
       </c>
-      <c r="K10" s="66"/>
+      <c r="K10" s="63"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="40"/>
@@ -6747,7 +6759,7 @@
       <c r="I11" s="40">
         <v>35</v>
       </c>
-      <c r="K11" s="66"/>
+      <c r="K11" s="63"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="32" t="s">
@@ -6855,29 +6867,29 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="59">
+      <c r="C21" s="58">
         <v>10</v>
       </c>
-      <c r="D21" s="59">
+      <c r="D21" s="58">
         <v>7</v>
       </c>
-      <c r="E21" s="59">
+      <c r="E21" s="58">
         <v>50</v>
       </c>
-      <c r="F21" s="59">
+      <c r="F21" s="58">
         <v>500</v>
       </c>
-      <c r="G21" s="59">
+      <c r="G21" s="58">
         <v>10</v>
       </c>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59">
+      <c r="H21" s="58"/>
+      <c r="I21" s="58">
         <v>50</v>
       </c>
       <c r="K21" s="29" t="s">
@@ -6885,53 +6897,53 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="59"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59">
+      <c r="A22" s="58"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58">
         <v>50</v>
       </c>
-      <c r="F22" s="61" t="s">
+      <c r="F22" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59">
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58">
         <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="59"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59">
+      <c r="A23" s="58"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58">
         <v>50</v>
       </c>
-      <c r="F23" s="61" t="s">
+      <c r="F23" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59">
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58">
         <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="59"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59">
+      <c r="A24" s="58"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58">
         <v>50</v>
       </c>
-      <c r="F24" s="61" t="s">
+      <c r="F24" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59">
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58">
         <v>53</v>
       </c>
     </row>
@@ -6973,7 +6985,7 @@
       <c r="E26" s="56">
         <v>50</v>
       </c>
-      <c r="F26" s="60" t="s">
+      <c r="F26" s="59" t="s">
         <v>106</v>
       </c>
       <c r="G26" s="56"/>
@@ -6990,7 +7002,7 @@
       <c r="E27" s="56">
         <v>50</v>
       </c>
-      <c r="F27" s="60" t="s">
+      <c r="F27" s="59" t="s">
         <v>108</v>
       </c>
       <c r="G27" s="56"/>
@@ -7007,7 +7019,7 @@
       <c r="E28" s="56">
         <v>50</v>
       </c>
-      <c r="F28" s="60" t="s">
+      <c r="F28" s="59" t="s">
         <v>107</v>
       </c>
       <c r="G28" s="56"/>
@@ -7177,11 +7189,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="A5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -7195,14 +7207,14 @@
     <col min="7" max="16384" width="9.140625" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="23" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:11" s="23" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="62" t="s">
         <v>146</v>
       </c>
       <c r="D1" s="23" t="s">
@@ -7213,45 +7225,54 @@
       </c>
       <c r="F1" s="24"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D3" s="64"/>
-      <c r="F3" s="29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="64"/>
-      <c r="F4" s="66" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D5" s="64"/>
-      <c r="F5" s="66"/>
-    </row>
-    <row r="7" spans="1:6" ht="189" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="26"/>
+      <c r="B2" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="29"/>
+    </row>
+    <row r="4" spans="1:11" ht="189" x14ac:dyDescent="0.25">
+      <c r="A4" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="58" t="s">
+      <c r="B4" s="64"/>
+      <c r="C4" s="65" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="99.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
+      <c r="D4" s="66" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="68" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="99.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="65" t="s">
+      <c r="B5" s="69"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="69" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="64" t="s">
         <v>150</v>
       </c>
+      <c r="B6" s="66"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="66" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F4:F5"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
